--- a/nc-est2019-asr6h.xlsx
+++ b/nc-est2019-asr6h.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="160">
   <si>
     <t>Annual Estimates of the Resident Population by Sex, Age, Race, and Hispanic Origin for the United States: April 1, 2010 to July 1, 2019</t>
   </si>
@@ -1582,6 +1582,33 @@
   <si>
     <t>Age Range</t>
   </si>
+  <si>
+    <t>0 - 9 Years</t>
+  </si>
+  <si>
+    <t>10 - 19 Years</t>
+  </si>
+  <si>
+    <t>20 - 29 Years</t>
+  </si>
+  <si>
+    <t>30 - 39 Years</t>
+  </si>
+  <si>
+    <t>40 - 49 Years</t>
+  </si>
+  <si>
+    <t>50 - 59 Years</t>
+  </si>
+  <si>
+    <t>60 - 69 Years</t>
+  </si>
+  <si>
+    <t>70 - 79 Years</t>
+  </si>
+  <si>
+    <t>80+ Years</t>
+  </si>
 </sst>
 </file>
 
@@ -2309,7 +2336,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2375,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>39772578</v>
@@ -2377,7 +2404,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>41852838</v>
@@ -2406,7 +2433,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>45141956</v>
@@ -2435,7 +2462,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>44168826</v>
@@ -2464,7 +2491,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>40319374</v>
@@ -2493,7 +2520,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>42354542</v>
@@ -2522,7 +2549,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="B8">
         <v>38026147</v>
@@ -2551,7 +2578,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>23681097</v>
@@ -2580,7 +2607,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>12922165</v>
@@ -89510,7 +89537,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828F4833-7171-413F-8DD2-5A99C95B440F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F5951D-DD0C-4819-8740-D6E6B0EBB174}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/nc-est2019-asr6h.xlsx
+++ b/nc-est2019-asr6h.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="154">
   <si>
     <t>Annual Estimates of the Resident Population by Sex, Age, Race, and Hispanic Origin for the United States: April 1, 2010 to July 1, 2019</t>
   </si>
@@ -1583,31 +1583,13 @@
     <t>Age Range</t>
   </si>
   <si>
-    <t>0 - 9 Years</t>
+    <t>sex</t>
   </si>
   <si>
-    <t>10 - 19 Years</t>
+    <t>Female</t>
   </si>
   <si>
-    <t>20 - 29 Years</t>
-  </si>
-  <si>
-    <t>30 - 39 Years</t>
-  </si>
-  <si>
-    <t>40 - 49 Years</t>
-  </si>
-  <si>
-    <t>50 - 59 Years</t>
-  </si>
-  <si>
-    <t>60 - 69 Years</t>
-  </si>
-  <si>
-    <t>70 - 79 Years</t>
-  </si>
-  <si>
-    <t>80+ Years</t>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -1961,44 +1943,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2006,6 +1960,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2020,14 +1994,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,305 +2315,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
       <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2">
-        <v>39772578</v>
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
       </c>
       <c r="C2">
-        <v>19708308</v>
+        <v>20331969</v>
       </c>
       <c r="D2">
-        <v>5460539</v>
+        <v>10111533</v>
       </c>
       <c r="E2">
-        <v>1979231</v>
+        <v>2767293</v>
       </c>
       <c r="F2">
-        <v>334492</v>
+        <v>1016528</v>
       </c>
       <c r="G2">
-        <v>80143</v>
+        <v>170680</v>
       </c>
       <c r="H2">
-        <v>1871829</v>
+        <v>40935</v>
       </c>
       <c r="I2">
-        <v>10338036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>955733</v>
+      </c>
+      <c r="J2">
+        <v>5269267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3">
+        <v>21363868</v>
+      </c>
+      <c r="D3">
+        <v>11024966</v>
+      </c>
+      <c r="E3">
+        <v>2913005</v>
+      </c>
+      <c r="F3">
+        <v>1089176</v>
+      </c>
+      <c r="G3">
+        <v>179761</v>
+      </c>
+      <c r="H3">
+        <v>42616</v>
+      </c>
+      <c r="I3">
+        <v>829934</v>
+      </c>
+      <c r="J3">
+        <v>5284410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4">
+        <v>23069322</v>
+      </c>
+      <c r="D4">
+        <v>12418470</v>
+      </c>
+      <c r="E4">
+        <v>3310805</v>
+      </c>
+      <c r="F4">
+        <v>1416195</v>
+      </c>
+      <c r="G4">
+        <v>194625</v>
+      </c>
+      <c r="H4">
+        <v>48197</v>
+      </c>
+      <c r="I4">
+        <v>630853</v>
+      </c>
+      <c r="J4">
+        <v>5050177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5">
+        <v>22239551</v>
+      </c>
+      <c r="D5">
+        <v>12498632</v>
+      </c>
+      <c r="E5">
+        <v>2816469</v>
+      </c>
+      <c r="F5">
+        <v>1560045</v>
+      </c>
+      <c r="G5">
+        <v>167308</v>
+      </c>
+      <c r="H5">
+        <v>52038</v>
+      </c>
+      <c r="I5">
+        <v>389297</v>
+      </c>
+      <c r="J5">
+        <v>4755762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>19992494</v>
+      </c>
+      <c r="D6">
+        <v>11771175</v>
+      </c>
+      <c r="E6">
+        <v>2396453</v>
+      </c>
+      <c r="F6">
+        <v>1330944</v>
+      </c>
+      <c r="G6">
+        <v>140078</v>
+      </c>
+      <c r="H6">
+        <v>39608</v>
+      </c>
+      <c r="I6">
+        <v>274284</v>
+      </c>
+      <c r="J6">
+        <v>4039952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>20729100</v>
+      </c>
+      <c r="D7">
+        <v>13782800</v>
+      </c>
+      <c r="E7">
+        <v>2395784</v>
+      </c>
+      <c r="F7">
+        <v>1071564</v>
+      </c>
+      <c r="G7">
+        <v>145011</v>
+      </c>
+      <c r="H7">
+        <v>34099</v>
+      </c>
+      <c r="I7">
+        <v>222819</v>
+      </c>
+      <c r="J7">
+        <v>3077023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8">
+        <v>18056503</v>
+      </c>
+      <c r="D8">
+        <v>13243370</v>
+      </c>
+      <c r="E8">
+        <v>1848133</v>
+      </c>
+      <c r="F8">
+        <v>822686</v>
+      </c>
+      <c r="G8">
+        <v>116653</v>
+      </c>
+      <c r="H8">
+        <v>24741</v>
+      </c>
+      <c r="I8">
+        <v>169113</v>
+      </c>
+      <c r="J8">
+        <v>1831807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <v>10818305</v>
+      </c>
+      <c r="D9">
+        <v>8454306</v>
+      </c>
+      <c r="E9">
+        <v>872504</v>
+      </c>
+      <c r="F9">
+        <v>470595</v>
+      </c>
+      <c r="G9">
+        <v>60913</v>
+      </c>
+      <c r="H9">
+        <v>12633</v>
+      </c>
+      <c r="I9">
+        <v>84566</v>
+      </c>
+      <c r="J9">
+        <v>862788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>5056212</v>
+      </c>
+      <c r="D10">
+        <v>4007821</v>
+      </c>
+      <c r="E10">
+        <v>353966</v>
+      </c>
+      <c r="F10">
+        <v>231076</v>
+      </c>
+      <c r="G10">
+        <v>23342</v>
+      </c>
+      <c r="H10">
+        <v>4908</v>
+      </c>
+      <c r="I10">
+        <v>35248</v>
+      </c>
+      <c r="J10">
+        <v>399851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
         <v>152</v>
       </c>
-      <c r="B3">
-        <v>41852838</v>
-      </c>
-      <c r="C3">
-        <v>21499232</v>
-      </c>
-      <c r="D3">
-        <v>5752628</v>
-      </c>
-      <c r="E3">
-        <v>2162877</v>
-      </c>
-      <c r="F3">
-        <v>354162</v>
-      </c>
-      <c r="G3">
-        <v>83645</v>
-      </c>
-      <c r="H3">
-        <v>1636485</v>
-      </c>
-      <c r="I3">
-        <v>10363809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4">
-        <v>45141956</v>
-      </c>
-      <c r="C4">
-        <v>24240475</v>
-      </c>
-      <c r="D4">
-        <v>6553327</v>
-      </c>
-      <c r="E4">
-        <v>2831460</v>
-      </c>
-      <c r="F4">
-        <v>382462</v>
-      </c>
-      <c r="G4">
-        <v>93859</v>
-      </c>
-      <c r="H4">
-        <v>1256753</v>
-      </c>
-      <c r="I4">
-        <v>9783620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5">
-        <v>44168826</v>
-      </c>
-      <c r="C5">
-        <v>24746328</v>
-      </c>
-      <c r="D5">
-        <v>5810545</v>
-      </c>
-      <c r="E5">
-        <v>3261798</v>
-      </c>
-      <c r="F5">
-        <v>334201</v>
-      </c>
-      <c r="G5">
-        <v>101354</v>
-      </c>
-      <c r="H5">
-        <v>818488</v>
-      </c>
-      <c r="I5">
-        <v>9096112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6">
-        <v>40319374</v>
-      </c>
-      <c r="C6">
-        <v>23453962</v>
-      </c>
-      <c r="D6">
-        <v>5100103</v>
-      </c>
-      <c r="E6">
-        <v>2856394</v>
-      </c>
-      <c r="F6">
-        <v>284857</v>
-      </c>
-      <c r="G6">
-        <v>78089</v>
-      </c>
-      <c r="H6">
-        <v>583682</v>
-      </c>
-      <c r="I6">
-        <v>7962287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7">
-        <v>42354542</v>
-      </c>
-      <c r="C7">
-        <v>27880403</v>
-      </c>
-      <c r="D7">
-        <v>5150329</v>
-      </c>
-      <c r="E7">
-        <v>2318243</v>
-      </c>
-      <c r="F7">
-        <v>302207</v>
-      </c>
-      <c r="G7">
-        <v>69399</v>
-      </c>
-      <c r="H7">
-        <v>472908</v>
-      </c>
-      <c r="I7">
-        <v>6161053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8">
-        <v>38026147</v>
-      </c>
-      <c r="C8">
-        <v>27487918</v>
-      </c>
-      <c r="D8">
-        <v>4155745</v>
-      </c>
-      <c r="E8">
-        <v>1851565</v>
-      </c>
-      <c r="F8">
-        <v>251722</v>
-      </c>
-      <c r="G8">
-        <v>51331</v>
-      </c>
-      <c r="H8">
-        <v>359178</v>
-      </c>
-      <c r="I8">
-        <v>3868688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9">
-        <v>23681097</v>
-      </c>
-      <c r="C9">
-        <v>18186369</v>
-      </c>
-      <c r="D9">
-        <v>2117579</v>
-      </c>
-      <c r="E9">
-        <v>1070189</v>
-      </c>
-      <c r="F9">
-        <v>132632</v>
-      </c>
-      <c r="G9">
-        <v>26381</v>
-      </c>
-      <c r="H9">
-        <v>185848</v>
-      </c>
-      <c r="I9">
-        <v>1962099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10">
-        <v>12922165</v>
-      </c>
-      <c r="C10">
-        <v>10106827</v>
-      </c>
-      <c r="D10">
-        <v>1046693</v>
-      </c>
-      <c r="E10">
-        <v>574122</v>
-      </c>
-      <c r="F10">
-        <v>58173</v>
-      </c>
-      <c r="G10">
-        <v>11707</v>
-      </c>
-      <c r="H10">
-        <v>88110</v>
-      </c>
-      <c r="I10">
-        <v>1036533</v>
+      <c r="C11">
+        <v>19440609</v>
+      </c>
+      <c r="D11">
+        <v>9596775</v>
+      </c>
+      <c r="E11">
+        <v>2693246</v>
+      </c>
+      <c r="F11">
+        <v>962703</v>
+      </c>
+      <c r="G11">
+        <v>163812</v>
+      </c>
+      <c r="H11">
+        <v>39208</v>
+      </c>
+      <c r="I11">
+        <v>916096</v>
+      </c>
+      <c r="J11">
+        <v>5068769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>20488970</v>
+      </c>
+      <c r="D12">
+        <v>10474266</v>
+      </c>
+      <c r="E12">
+        <v>2839623</v>
+      </c>
+      <c r="F12">
+        <v>1073701</v>
+      </c>
+      <c r="G12">
+        <v>174401</v>
+      </c>
+      <c r="H12">
+        <v>41029</v>
+      </c>
+      <c r="I12">
+        <v>806551</v>
+      </c>
+      <c r="J12">
+        <v>5079399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>22072634</v>
+      </c>
+      <c r="D13">
+        <v>11822005</v>
+      </c>
+      <c r="E13">
+        <v>3242522</v>
+      </c>
+      <c r="F13">
+        <v>1415265</v>
+      </c>
+      <c r="G13">
+        <v>187837</v>
+      </c>
+      <c r="H13">
+        <v>45662</v>
+      </c>
+      <c r="I13">
+        <v>625900</v>
+      </c>
+      <c r="J13">
+        <v>4733443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>21929275</v>
+      </c>
+      <c r="D14">
+        <v>12247696</v>
+      </c>
+      <c r="E14">
+        <v>2994076</v>
+      </c>
+      <c r="F14">
+        <v>1701753</v>
+      </c>
+      <c r="G14">
+        <v>166893</v>
+      </c>
+      <c r="H14">
+        <v>49316</v>
+      </c>
+      <c r="I14">
+        <v>429191</v>
+      </c>
+      <c r="J14">
+        <v>4340350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15">
+        <v>20326880</v>
+      </c>
+      <c r="D15">
+        <v>11682787</v>
+      </c>
+      <c r="E15">
+        <v>2703650</v>
+      </c>
+      <c r="F15">
+        <v>1525450</v>
+      </c>
+      <c r="G15">
+        <v>144779</v>
+      </c>
+      <c r="H15">
+        <v>38481</v>
+      </c>
+      <c r="I15">
+        <v>309398</v>
+      </c>
+      <c r="J15">
+        <v>3922335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16">
+        <v>21625442</v>
+      </c>
+      <c r="D16">
+        <v>14097603</v>
+      </c>
+      <c r="E16">
+        <v>2754545</v>
+      </c>
+      <c r="F16">
+        <v>1246679</v>
+      </c>
+      <c r="G16">
+        <v>157196</v>
+      </c>
+      <c r="H16">
+        <v>35300</v>
+      </c>
+      <c r="I16">
+        <v>250089</v>
+      </c>
+      <c r="J16">
+        <v>3084030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>19969644</v>
+      </c>
+      <c r="D17">
+        <v>14244548</v>
+      </c>
+      <c r="E17">
+        <v>2307612</v>
+      </c>
+      <c r="F17">
+        <v>1028879</v>
+      </c>
+      <c r="G17">
+        <v>135069</v>
+      </c>
+      <c r="H17">
+        <v>26590</v>
+      </c>
+      <c r="I17">
+        <v>190065</v>
+      </c>
+      <c r="J17">
+        <v>2036881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>12862792</v>
+      </c>
+      <c r="D18">
+        <v>9732063</v>
+      </c>
+      <c r="E18">
+        <v>1245075</v>
+      </c>
+      <c r="F18">
+        <v>599594</v>
+      </c>
+      <c r="G18">
+        <v>71719</v>
+      </c>
+      <c r="H18">
+        <v>13748</v>
+      </c>
+      <c r="I18">
+        <v>101282</v>
+      </c>
+      <c r="J18">
+        <v>1099311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19">
+        <v>7865953</v>
+      </c>
+      <c r="D19">
+        <v>6099006</v>
+      </c>
+      <c r="E19">
+        <v>692727</v>
+      </c>
+      <c r="F19">
+        <v>343046</v>
+      </c>
+      <c r="G19">
+        <v>34831</v>
+      </c>
+      <c r="H19">
+        <v>6799</v>
+      </c>
+      <c r="I19">
+        <v>52862</v>
+      </c>
+      <c r="J19">
+        <v>636682</v>
       </c>
     </row>
   </sheetData>
@@ -2641,11 +2942,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U333"/>
+  <dimension ref="A1:AB333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5:R14"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77:R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2659,47 +2960,47 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="20">
         <f>C113/B5</f>
         <v>0.60111536903494711</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="20">
         <f>D5/B5</f>
         <v>0.13427720585616376</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="20">
         <f>E5/$B$5</f>
         <v>5.9422649112245998E-2</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="20">
         <f t="shared" ref="F2:H2" si="0">F5/$B$5</f>
         <v>1.2759255685367298E-2</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="20">
         <f t="shared" si="0"/>
         <v>2.4583785420624073E-3</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="20">
         <f t="shared" si="0"/>
         <v>2.7852697068414884E-2</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="20">
         <f>SUM(C221:H221)/B5</f>
         <v>0.18453669578358484</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="19"/>
@@ -2725,8 +3026,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+    <row r="4" spans="1:28" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
       <c r="B4" s="18">
         <v>2019</v>
       </c>
@@ -2749,7 +3050,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="7" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +3103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2830,40 +3131,43 @@
       <c r="J6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="24">
         <f>SUM(L6:R6)</f>
         <v>39772578</v>
       </c>
-      <c r="L6" s="47">
-        <f>C114+C115</f>
+      <c r="L6" s="24">
+        <f t="shared" ref="L6:Q6" si="1">C114+C115</f>
         <v>19708308</v>
       </c>
-      <c r="M6" s="47">
-        <f>D114+D115</f>
+      <c r="M6" s="24">
+        <f t="shared" si="1"/>
         <v>5460539</v>
       </c>
-      <c r="N6" s="47">
-        <f>E114+E115</f>
+      <c r="N6" s="24">
+        <f t="shared" si="1"/>
         <v>1979231</v>
       </c>
-      <c r="O6" s="47">
-        <f>F114+F115</f>
+      <c r="O6" s="24">
+        <f t="shared" si="1"/>
         <v>334492</v>
       </c>
-      <c r="P6" s="47">
-        <f>G114+G115</f>
+      <c r="P6" s="24">
+        <f t="shared" si="1"/>
         <v>80143</v>
       </c>
-      <c r="Q6" s="47">
-        <f>H114+H115</f>
+      <c r="Q6" s="24">
+        <f t="shared" si="1"/>
         <v>1871829</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="24">
         <f>B222+B223</f>
         <v>10338036</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2888,43 +3192,75 @@
       <c r="H7" s="9">
         <v>1170828</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="47">
-        <f t="shared" ref="K7:K14" si="1">SUM(L7:R7)</f>
+      <c r="K7" s="24">
+        <f t="shared" ref="K7:K14" si="2">SUM(L7:R7)</f>
         <v>41852838</v>
       </c>
-      <c r="L7" s="47">
-        <f>C116+C117</f>
+      <c r="L7" s="24">
+        <f t="shared" ref="L7:Q7" si="3">C116+C117</f>
         <v>21499232</v>
       </c>
-      <c r="M7" s="47">
-        <f>D116+D117</f>
+      <c r="M7" s="24">
+        <f t="shared" si="3"/>
         <v>5752628</v>
       </c>
-      <c r="N7" s="47">
-        <f>E116+E117</f>
+      <c r="N7" s="24">
+        <f t="shared" si="3"/>
         <v>2162877</v>
       </c>
-      <c r="O7" s="47">
-        <f>F116+F117</f>
+      <c r="O7" s="24">
+        <f t="shared" si="3"/>
         <v>354162</v>
       </c>
-      <c r="P7" s="47">
-        <f>G116+G117</f>
+      <c r="P7" s="24">
+        <f t="shared" si="3"/>
         <v>83645</v>
       </c>
-      <c r="Q7" s="47">
-        <f>H116+H117</f>
+      <c r="Q7" s="24">
+        <f t="shared" si="3"/>
         <v>1636485</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="24">
         <f>B224+B225</f>
         <v>10363809</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20">
+        <f>L6/$K6</f>
+        <v>0.49552503234766426</v>
+      </c>
+      <c r="W7" s="20">
+        <f>M6/$K6</f>
+        <v>0.13729406728424795</v>
+      </c>
+      <c r="X7" s="20">
+        <f>N6/$K6</f>
+        <v>4.9763709056023474E-2</v>
+      </c>
+      <c r="Y7" s="20">
+        <f>O6/$K6</f>
+        <v>8.410116135795875E-3</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>P6/$K6</f>
+        <v>2.0150315627013166E-3</v>
+      </c>
+      <c r="AA7" s="20">
+        <f>Q6/$K6</f>
+        <v>4.7063305778167058E-2</v>
+      </c>
+      <c r="AB7" s="20">
+        <f>R6/$K6</f>
+        <v>0.25992873783540005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2949,43 +3285,75 @@
       <c r="H8" s="9">
         <v>1106781</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="47">
-        <f t="shared" si="1"/>
+      <c r="K8" s="24">
+        <f t="shared" si="2"/>
         <v>45141956</v>
       </c>
-      <c r="L8" s="47">
-        <f>C118+C119</f>
+      <c r="L8" s="24">
+        <f t="shared" ref="L8:Q8" si="4">C118+C119</f>
         <v>24240475</v>
       </c>
-      <c r="M8" s="47">
-        <f>D118+D119</f>
+      <c r="M8" s="24">
+        <f t="shared" si="4"/>
         <v>6553327</v>
       </c>
-      <c r="N8" s="47">
-        <f>E118+E119</f>
+      <c r="N8" s="24">
+        <f t="shared" si="4"/>
         <v>2831460</v>
       </c>
-      <c r="O8" s="47">
-        <f>F118+F119</f>
+      <c r="O8" s="24">
+        <f t="shared" si="4"/>
         <v>382462</v>
       </c>
-      <c r="P8" s="47">
-        <f>G118+G119</f>
+      <c r="P8" s="24">
+        <f t="shared" si="4"/>
         <v>93859</v>
       </c>
-      <c r="Q8" s="47">
-        <f>H118+H119</f>
+      <c r="Q8" s="24">
+        <f t="shared" si="4"/>
         <v>1256753</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="24">
         <f>B226+B227</f>
         <v>9783620</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20">
+        <f>L7/$K7</f>
+        <v>0.51368635981148991</v>
+      </c>
+      <c r="W8" s="20">
+        <f>M7/$K7</f>
+        <v>0.13744893476518844</v>
+      </c>
+      <c r="X8" s="20">
+        <f>N7/$K7</f>
+        <v>5.1678144263478623E-2</v>
+      </c>
+      <c r="Y8" s="20">
+        <f>O7/$K7</f>
+        <v>8.462078485573666E-3</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>P7/$K7</f>
+        <v>1.9985502536291567E-3</v>
+      </c>
+      <c r="AA8" s="20">
+        <f>Q7/$K7</f>
+        <v>3.9100932653599263E-2</v>
+      </c>
+      <c r="AB8" s="20">
+        <f>R7/$K7</f>
+        <v>0.24762499976704089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3013,40 +3381,72 @@
       <c r="J9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="47">
-        <f t="shared" si="1"/>
+      <c r="K9" s="24">
+        <f t="shared" si="2"/>
         <v>44168826</v>
       </c>
-      <c r="L9" s="47">
-        <f>C120+C121</f>
+      <c r="L9" s="24">
+        <f t="shared" ref="L9:Q9" si="5">C120+C121</f>
         <v>24746328</v>
       </c>
-      <c r="M9" s="47">
-        <f>D120+D121</f>
+      <c r="M9" s="24">
+        <f t="shared" si="5"/>
         <v>5810545</v>
       </c>
-      <c r="N9" s="47">
-        <f>E120+E121</f>
+      <c r="N9" s="24">
+        <f t="shared" si="5"/>
         <v>3261798</v>
       </c>
-      <c r="O9" s="47">
-        <f>F120+F121</f>
+      <c r="O9" s="24">
+        <f t="shared" si="5"/>
         <v>334201</v>
       </c>
-      <c r="P9" s="47">
-        <f>G120+G121</f>
+      <c r="P9" s="24">
+        <f t="shared" si="5"/>
         <v>101354</v>
       </c>
-      <c r="Q9" s="47">
-        <f>H120+H121</f>
+      <c r="Q9" s="24">
+        <f t="shared" si="5"/>
         <v>818488</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="24">
         <f>B228+B229</f>
         <v>9096112</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
+        <f>L8/$K8</f>
+        <v>0.53698326674191965</v>
+      </c>
+      <c r="W9" s="20">
+        <f>M8/$K8</f>
+        <v>0.14517153399378618</v>
+      </c>
+      <c r="X9" s="20">
+        <f>N8/$K8</f>
+        <v>6.2723467277315148E-2</v>
+      </c>
+      <c r="Y9" s="20">
+        <f>O8/$K8</f>
+        <v>8.4724286205055E-3</v>
+      </c>
+      <c r="Z9" s="20">
+        <f>P8/$K8</f>
+        <v>2.079196568265673E-3</v>
+      </c>
+      <c r="AA9" s="20">
+        <f>Q8/$K8</f>
+        <v>2.7840020933076096E-2</v>
+      </c>
+      <c r="AB9" s="20">
+        <f>R8/$K8</f>
+        <v>0.21673008586513176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -3074,40 +3474,72 @@
       <c r="J10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="47">
-        <f t="shared" si="1"/>
+      <c r="K10" s="24">
+        <f t="shared" si="2"/>
         <v>40319374</v>
       </c>
-      <c r="L10" s="47">
-        <f>C122+C123</f>
+      <c r="L10" s="24">
+        <f t="shared" ref="L10:Q10" si="6">C122+C123</f>
         <v>23453962</v>
       </c>
-      <c r="M10" s="47">
-        <f>D122+D123</f>
+      <c r="M10" s="24">
+        <f t="shared" si="6"/>
         <v>5100103</v>
       </c>
-      <c r="N10" s="47">
-        <f>E122+E123</f>
+      <c r="N10" s="24">
+        <f t="shared" si="6"/>
         <v>2856394</v>
       </c>
-      <c r="O10" s="47">
-        <f>F122+F123</f>
+      <c r="O10" s="24">
+        <f t="shared" si="6"/>
         <v>284857</v>
       </c>
-      <c r="P10" s="47">
-        <f>G122+G123</f>
+      <c r="P10" s="24">
+        <f t="shared" si="6"/>
         <v>78089</v>
       </c>
-      <c r="Q10" s="47">
-        <f>H122+H123</f>
+      <c r="Q10" s="24">
+        <f t="shared" si="6"/>
         <v>583682</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="24">
         <f>B230+B231</f>
         <v>7962287</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20">
+        <f>L9/$K9</f>
+        <v>0.56026682710561515</v>
+      </c>
+      <c r="W10" s="20">
+        <f>M9/$K9</f>
+        <v>0.13155307772952807</v>
+      </c>
+      <c r="X10" s="20">
+        <f>N9/$K9</f>
+        <v>7.3848419697639237E-2</v>
+      </c>
+      <c r="Y10" s="20">
+        <f>O9/$K9</f>
+        <v>7.5664451665525363E-3</v>
+      </c>
+      <c r="Z10" s="20">
+        <f>P9/$K9</f>
+        <v>2.2946953582148638E-3</v>
+      </c>
+      <c r="AA10" s="20">
+        <f>Q9/$K9</f>
+        <v>1.8530897787502887E-2</v>
+      </c>
+      <c r="AB10" s="20">
+        <f>R9/$K9</f>
+        <v>0.20593963715494726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -3135,40 +3567,72 @@
       <c r="J11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="47">
-        <f t="shared" si="1"/>
+      <c r="K11" s="24">
+        <f t="shared" si="2"/>
         <v>42354542</v>
       </c>
-      <c r="L11" s="47">
-        <f>C124+C125</f>
+      <c r="L11" s="24">
+        <f t="shared" ref="L11:Q11" si="7">C124+C125</f>
         <v>27880403</v>
       </c>
-      <c r="M11" s="47">
-        <f>D124+D125</f>
+      <c r="M11" s="24">
+        <f t="shared" si="7"/>
         <v>5150329</v>
       </c>
-      <c r="N11" s="47">
-        <f>E124+E125</f>
+      <c r="N11" s="24">
+        <f t="shared" si="7"/>
         <v>2318243</v>
       </c>
-      <c r="O11" s="47">
-        <f>F124+F125</f>
+      <c r="O11" s="24">
+        <f t="shared" si="7"/>
         <v>302207</v>
       </c>
-      <c r="P11" s="47">
-        <f>G124+G125</f>
+      <c r="P11" s="24">
+        <f t="shared" si="7"/>
         <v>69399</v>
       </c>
-      <c r="Q11" s="47">
-        <f>H124+H125</f>
+      <c r="Q11" s="24">
+        <f t="shared" si="7"/>
         <v>472908</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="24">
         <f>B232+B233</f>
         <v>6161053</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20">
+        <f>L10/$K10</f>
+        <v>0.58170451753541608</v>
+      </c>
+      <c r="W11" s="20">
+        <f>M10/$K10</f>
+        <v>0.12649261369980597</v>
+      </c>
+      <c r="X11" s="20">
+        <f>N10/$K10</f>
+        <v>7.0844205071239452E-2</v>
+      </c>
+      <c r="Y11" s="20">
+        <f>O10/$K10</f>
+        <v>7.0650154439401763E-3</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>P10/$K10</f>
+        <v>1.9367612205487118E-3</v>
+      </c>
+      <c r="AA11" s="20">
+        <f>Q10/$K10</f>
+        <v>1.4476464837970947E-2</v>
+      </c>
+      <c r="AB11" s="20">
+        <f>R10/$K10</f>
+        <v>0.19748042219107867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -3196,40 +3660,72 @@
       <c r="J12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K12" s="47">
-        <f t="shared" si="1"/>
+      <c r="K12" s="24">
+        <f t="shared" si="2"/>
         <v>38026147</v>
       </c>
-      <c r="L12" s="47">
-        <f>C126+C127</f>
+      <c r="L12" s="24">
+        <f t="shared" ref="L12:Q12" si="8">C126+C127</f>
         <v>27487918</v>
       </c>
-      <c r="M12" s="47">
-        <f>D126+D127</f>
+      <c r="M12" s="24">
+        <f t="shared" si="8"/>
         <v>4155745</v>
       </c>
-      <c r="N12" s="47">
-        <f>E126+E127</f>
+      <c r="N12" s="24">
+        <f t="shared" si="8"/>
         <v>1851565</v>
       </c>
-      <c r="O12" s="47">
-        <f>F126+F127</f>
+      <c r="O12" s="24">
+        <f t="shared" si="8"/>
         <v>251722</v>
       </c>
-      <c r="P12" s="47">
-        <f>G126+G127</f>
+      <c r="P12" s="24">
+        <f t="shared" si="8"/>
         <v>51331</v>
       </c>
-      <c r="Q12" s="47">
-        <f>H126+H127</f>
+      <c r="Q12" s="24">
+        <f t="shared" si="8"/>
         <v>359178</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="24">
         <f>B234+B235</f>
         <v>3868688</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20">
+        <f>L11/$K11</f>
+        <v>0.65826241256486728</v>
+      </c>
+      <c r="W12" s="20">
+        <f>M11/$K11</f>
+        <v>0.12160039412065889</v>
+      </c>
+      <c r="X12" s="20">
+        <f>N11/$K11</f>
+        <v>5.4734224253918266E-2</v>
+      </c>
+      <c r="Y12" s="20">
+        <f>O11/$K11</f>
+        <v>7.1351733658222534E-3</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>P11/$K11</f>
+        <v>1.6385255682849788E-3</v>
+      </c>
+      <c r="AA12" s="20">
+        <f>Q11/$K11</f>
+        <v>1.1165461309910989E-2</v>
+      </c>
+      <c r="AB12" s="20">
+        <f>R11/$K11</f>
+        <v>0.14546380881653731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -3257,40 +3753,72 @@
       <c r="J13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K13" s="47">
-        <f t="shared" si="1"/>
+      <c r="K13" s="24">
+        <f t="shared" si="2"/>
         <v>23681097</v>
       </c>
-      <c r="L13" s="47">
-        <f>C128+C129</f>
+      <c r="L13" s="24">
+        <f t="shared" ref="L13:Q13" si="9">C128+C129</f>
         <v>18186369</v>
       </c>
-      <c r="M13" s="47">
-        <f>D128+D129</f>
+      <c r="M13" s="24">
+        <f t="shared" si="9"/>
         <v>2117579</v>
       </c>
-      <c r="N13" s="47">
-        <f>E128+E129</f>
+      <c r="N13" s="24">
+        <f t="shared" si="9"/>
         <v>1070189</v>
       </c>
-      <c r="O13" s="47">
-        <f>F128+F129</f>
+      <c r="O13" s="24">
+        <f t="shared" si="9"/>
         <v>132632</v>
       </c>
-      <c r="P13" s="47">
-        <f>G128+G129</f>
+      <c r="P13" s="24">
+        <f t="shared" si="9"/>
         <v>26381</v>
       </c>
-      <c r="Q13" s="47">
-        <f>H128+H129</f>
+      <c r="Q13" s="24">
+        <f t="shared" si="9"/>
         <v>185848</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="24">
         <f>B236+B237</f>
         <v>1962099</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20">
+        <f>L12/$K12</f>
+        <v>0.72286887230515362</v>
+      </c>
+      <c r="W13" s="20">
+        <f>M12/$K12</f>
+        <v>0.10928651277764219</v>
+      </c>
+      <c r="X13" s="20">
+        <f>N12/$K12</f>
+        <v>4.8691890871825641E-2</v>
+      </c>
+      <c r="Y13" s="20">
+        <f>O12/$K12</f>
+        <v>6.6197082759923065E-3</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>P12/$K12</f>
+        <v>1.3498869606747169E-3</v>
+      </c>
+      <c r="AA13" s="20">
+        <f>Q12/$K12</f>
+        <v>9.4455533451758868E-3</v>
+      </c>
+      <c r="AB13" s="20">
+        <f>R12/$K12</f>
+        <v>0.10173757546353565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -3318,40 +3846,72 @@
       <c r="J14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="47">
-        <f t="shared" si="1"/>
+      <c r="K14" s="24">
+        <f t="shared" si="2"/>
         <v>12922165</v>
       </c>
-      <c r="L14" s="47">
-        <f>C130+C131</f>
+      <c r="L14" s="24">
+        <f t="shared" ref="L14:Q14" si="10">C130+C131</f>
         <v>10106827</v>
       </c>
-      <c r="M14" s="47">
-        <f>D130+D131</f>
+      <c r="M14" s="24">
+        <f t="shared" si="10"/>
         <v>1046693</v>
       </c>
-      <c r="N14" s="47">
-        <f>E130+E131</f>
+      <c r="N14" s="24">
+        <f t="shared" si="10"/>
         <v>574122</v>
       </c>
-      <c r="O14" s="47">
-        <f>F130+F131</f>
+      <c r="O14" s="24">
+        <f t="shared" si="10"/>
         <v>58173</v>
       </c>
-      <c r="P14" s="47">
-        <f>G130+G131</f>
+      <c r="P14" s="24">
+        <f t="shared" si="10"/>
         <v>11707</v>
       </c>
-      <c r="Q14" s="47">
-        <f>H130+H131</f>
+      <c r="Q14" s="24">
+        <f t="shared" si="10"/>
         <v>88110</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="24">
         <f>B238+B239</f>
         <v>1036533</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20">
+        <f>L13/$K13</f>
+        <v>0.76796987065252931</v>
+      </c>
+      <c r="W14" s="20">
+        <f>M13/$K13</f>
+        <v>8.9420646349280181E-2</v>
+      </c>
+      <c r="X14" s="20">
+        <f>N13/$K13</f>
+        <v>4.5191698678486054E-2</v>
+      </c>
+      <c r="Y14" s="20">
+        <f>O13/$K13</f>
+        <v>5.6007540529055726E-3</v>
+      </c>
+      <c r="Z14" s="20">
+        <f>P13/$K13</f>
+        <v>1.1140108923163483E-3</v>
+      </c>
+      <c r="AA14" s="20">
+        <f>Q13/$K13</f>
+        <v>7.8479472467006071E-3</v>
+      </c>
+      <c r="AB14" s="20">
+        <f>R13/$K13</f>
+        <v>8.2855072127781912E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3376,8 +3936,40 @@
       <c r="H15" s="9">
         <v>355161</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20">
+        <f>L14/$K14</f>
+        <v>0.7821310902623515</v>
+      </c>
+      <c r="W15" s="20">
+        <f>M14/$K14</f>
+        <v>8.0999816981132802E-2</v>
+      </c>
+      <c r="X15" s="20">
+        <f>N14/$K14</f>
+        <v>4.4429242313497777E-2</v>
+      </c>
+      <c r="Y15" s="20">
+        <f>O14/$K14</f>
+        <v>4.5017998145047674E-3</v>
+      </c>
+      <c r="Z15" s="20">
+        <f>P14/$K14</f>
+        <v>9.0596273921591316E-4</v>
+      </c>
+      <c r="AA15" s="20">
+        <f>Q14/$K14</f>
+        <v>6.8185168661752888E-3</v>
+      </c>
+      <c r="AB15" s="20">
+        <f>R14/$K14</f>
+        <v>8.0213571023121905E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -3402,11 +3994,8 @@
       <c r="H16" s="9">
         <v>303752</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -3431,40 +4020,11 @@
       <c r="H17" s="9">
         <v>291241</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43">
-        <f>L6/$K6</f>
-        <v>0.49552503234766426</v>
-      </c>
-      <c r="M17" s="43">
-        <f t="shared" ref="M17:R17" si="2">M6/$K6</f>
-        <v>0.13729406728424795</v>
-      </c>
-      <c r="N17" s="43">
-        <f t="shared" si="2"/>
-        <v>4.9763709056023474E-2</v>
-      </c>
-      <c r="O17" s="43">
-        <f t="shared" si="2"/>
-        <v>8.410116135795875E-3</v>
-      </c>
-      <c r="P17" s="43">
-        <f t="shared" si="2"/>
-        <v>2.0150315627013166E-3</v>
-      </c>
-      <c r="Q17" s="43">
-        <f t="shared" si="2"/>
-        <v>4.7063305778167058E-2</v>
-      </c>
-      <c r="R17" s="43">
-        <f t="shared" si="2"/>
-        <v>0.25992873783540005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -3489,40 +4049,27 @@
       <c r="H18" s="9">
         <v>247443</v>
       </c>
-      <c r="J18" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43">
-        <f t="shared" ref="L18:R18" si="3">L7/$K7</f>
-        <v>0.51368635981148991</v>
-      </c>
-      <c r="M18" s="43">
-        <f t="shared" si="3"/>
-        <v>0.13744893476518844</v>
-      </c>
-      <c r="N18" s="43">
-        <f t="shared" si="3"/>
-        <v>5.1678144263478623E-2</v>
-      </c>
-      <c r="O18" s="43">
-        <f t="shared" si="3"/>
-        <v>8.462078485573666E-3</v>
-      </c>
-      <c r="P18" s="43">
-        <f t="shared" si="3"/>
-        <v>1.9985502536291567E-3</v>
-      </c>
-      <c r="Q18" s="43">
-        <f t="shared" si="3"/>
-        <v>3.9100932653599263E-2</v>
-      </c>
-      <c r="R18" s="43">
-        <f t="shared" si="3"/>
-        <v>0.24762499976704089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" s="20">
+        <f>L6/(SUM($L6,$M6,$N6,$R6))</f>
+        <v>0.52574956155764774</v>
+      </c>
+      <c r="W18" s="20">
+        <f>M6/(SUM($L6,$M6,$N6,$R6))</f>
+        <v>0.14566831333864055</v>
+      </c>
+      <c r="X18" s="20">
+        <f>N6/(SUM($L6,$M6,$N6,$R6))</f>
+        <v>5.2799044467506023E-2</v>
+      </c>
+      <c r="AB18" s="20">
+        <f>R6/(SUM($L6,$M6,$N6,$R6))</f>
+        <v>0.27578308063620571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -3547,40 +4094,27 @@
       <c r="H19" s="9">
         <v>184395</v>
       </c>
-      <c r="J19" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43">
-        <f t="shared" ref="L19:R19" si="4">L8/$K8</f>
-        <v>0.53698326674191965</v>
-      </c>
-      <c r="M19" s="43">
-        <f t="shared" si="4"/>
-        <v>0.14517153399378618</v>
-      </c>
-      <c r="N19" s="43">
-        <f t="shared" si="4"/>
-        <v>6.2723467277315148E-2</v>
-      </c>
-      <c r="O19" s="43">
-        <f t="shared" si="4"/>
-        <v>8.4724286205055E-3</v>
-      </c>
-      <c r="P19" s="43">
-        <f t="shared" si="4"/>
-        <v>2.079196568265673E-3</v>
-      </c>
-      <c r="Q19" s="43">
-        <f t="shared" si="4"/>
-        <v>2.7840020933076096E-2</v>
-      </c>
-      <c r="R19" s="43">
-        <f t="shared" si="4"/>
-        <v>0.21673008586513176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="V19" s="20">
+        <f>L7/(SUM($L7,$M7,$N7,$R7))</f>
+        <v>0.54047304795906814</v>
+      </c>
+      <c r="W19" s="20">
+        <f>M7/(SUM($L7,$M7,$N7,$R7))</f>
+        <v>0.14461634671111406</v>
+      </c>
+      <c r="X19" s="20">
+        <f>N7/(SUM($L7,$M7,$N7,$R7))</f>
+        <v>5.4372952696662168E-2</v>
+      </c>
+      <c r="AB19" s="20">
+        <f>R7/(SUM($L7,$M7,$N7,$R7))</f>
+        <v>0.26053765263315559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -3605,40 +4139,27 @@
       <c r="H20" s="9">
         <v>132987</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43">
-        <f t="shared" ref="L20:R20" si="5">L9/$K9</f>
-        <v>0.56026682710561515</v>
-      </c>
-      <c r="M20" s="43">
-        <f t="shared" si="5"/>
-        <v>0.13155307772952807</v>
-      </c>
-      <c r="N20" s="43">
-        <f t="shared" si="5"/>
-        <v>7.3848419697639237E-2</v>
-      </c>
-      <c r="O20" s="43">
-        <f t="shared" si="5"/>
-        <v>7.5664451665525363E-3</v>
-      </c>
-      <c r="P20" s="43">
-        <f t="shared" si="5"/>
-        <v>2.2946953582148638E-3</v>
-      </c>
-      <c r="Q20" s="43">
-        <f t="shared" si="5"/>
-        <v>1.8530897787502887E-2</v>
-      </c>
-      <c r="R20" s="43">
-        <f t="shared" si="5"/>
-        <v>0.20593963715494726</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="V20" s="20">
+        <f>L8/(SUM($L8,$M8,$N8,$R8))</f>
+        <v>0.55842200681418153</v>
+      </c>
+      <c r="W20" s="20">
+        <f>M8/(SUM($L8,$M8,$N8,$R8))</f>
+        <v>0.15096742182855574</v>
+      </c>
+      <c r="X20" s="20">
+        <f>N8/(SUM($L8,$M8,$N8,$R8))</f>
+        <v>6.5227664697745505E-2</v>
+      </c>
+      <c r="AB20" s="20">
+        <f>R8/(SUM($L8,$M8,$N8,$R8))</f>
+        <v>0.2253829066595173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -3663,40 +4184,27 @@
       <c r="H21" s="9">
         <v>84568</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43">
-        <f t="shared" ref="L21:R21" si="6">L10/$K10</f>
-        <v>0.58170451753541608</v>
-      </c>
-      <c r="M21" s="43">
-        <f t="shared" si="6"/>
-        <v>0.12649261369980597</v>
-      </c>
-      <c r="N21" s="43">
-        <f t="shared" si="6"/>
-        <v>7.0844205071239452E-2</v>
-      </c>
-      <c r="O21" s="43">
-        <f t="shared" si="6"/>
-        <v>7.0650154439401763E-3</v>
-      </c>
-      <c r="P21" s="43">
-        <f t="shared" si="6"/>
-        <v>1.9367612205487118E-3</v>
-      </c>
-      <c r="Q21" s="43">
-        <f t="shared" si="6"/>
-        <v>1.4476464837970947E-2</v>
-      </c>
-      <c r="R21" s="43">
-        <f t="shared" si="6"/>
-        <v>0.19748042219107867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V21" s="20">
+        <f>L9/(SUM($L9,$M9,$N9,$R9))</f>
+        <v>0.5766387773649001</v>
+      </c>
+      <c r="W21" s="20">
+        <f>M9/(SUM($L9,$M9,$N9,$R9))</f>
+        <v>0.13539728256344671</v>
+      </c>
+      <c r="X21" s="20">
+        <f>N9/(SUM($L9,$M9,$N9,$R9))</f>
+        <v>7.6006396210834853E-2</v>
+      </c>
+      <c r="AB21" s="20">
+        <f>R9/(SUM($L9,$M9,$N9,$R9))</f>
+        <v>0.2119575438608183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
@@ -3721,40 +4229,27 @@
       <c r="H22" s="9">
         <v>51983</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43">
-        <f t="shared" ref="L22:R22" si="7">L11/$K11</f>
-        <v>0.65826241256486728</v>
-      </c>
-      <c r="M22" s="43">
-        <f t="shared" si="7"/>
-        <v>0.12160039412065889</v>
-      </c>
-      <c r="N22" s="43">
-        <f t="shared" si="7"/>
-        <v>5.4734224253918266E-2</v>
-      </c>
-      <c r="O22" s="43">
-        <f t="shared" si="7"/>
-        <v>7.1351733658222534E-3</v>
-      </c>
-      <c r="P22" s="43">
-        <f t="shared" si="7"/>
-        <v>1.6385255682849788E-3</v>
-      </c>
-      <c r="Q22" s="43">
-        <f t="shared" si="7"/>
-        <v>1.1165461309910989E-2</v>
-      </c>
-      <c r="R22" s="43">
-        <f t="shared" si="7"/>
-        <v>0.14546380881653731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V22" s="20">
+        <f>L10/(SUM($L10,$M10,$N10,$R10))</f>
+        <v>0.59569027773678773</v>
+      </c>
+      <c r="W22" s="20">
+        <f>M10/(SUM($L10,$M10,$N10,$R10))</f>
+        <v>0.12953384048956099</v>
+      </c>
+      <c r="X22" s="20">
+        <f>N10/(SUM($L10,$M10,$N10,$R10))</f>
+        <v>7.2547492623450754E-2</v>
+      </c>
+      <c r="AB22" s="20">
+        <f>R10/(SUM($L10,$M10,$N10,$R10))</f>
+        <v>0.2022283891502005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -3779,40 +4274,27 @@
       <c r="H23" s="9">
         <v>50021</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43">
-        <f t="shared" ref="L23:R23" si="8">L12/$K12</f>
-        <v>0.72286887230515362</v>
-      </c>
-      <c r="M23" s="43">
-        <f t="shared" si="8"/>
-        <v>0.10928651277764219</v>
-      </c>
-      <c r="N23" s="43">
-        <f t="shared" si="8"/>
-        <v>4.8691890871825641E-2</v>
-      </c>
-      <c r="O23" s="43">
-        <f t="shared" si="8"/>
-        <v>6.6197082759923065E-3</v>
-      </c>
-      <c r="P23" s="43">
-        <f t="shared" si="8"/>
-        <v>1.3498869606747169E-3</v>
-      </c>
-      <c r="Q23" s="43">
-        <f t="shared" si="8"/>
-        <v>9.4455533451758868E-3</v>
-      </c>
-      <c r="R23" s="43">
-        <f t="shared" si="8"/>
-        <v>0.10173757546353565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V23" s="20">
+        <f>L11/(SUM($L11,$M11,$N11,$R11))</f>
+        <v>0.67165464210238546</v>
+      </c>
+      <c r="W23" s="20">
+        <f>M11/(SUM($L11,$M11,$N11,$R11))</f>
+        <v>0.12407433211078538</v>
+      </c>
+      <c r="X23" s="20">
+        <f>N11/(SUM($L11,$M11,$N11,$R11))</f>
+        <v>5.5847782131103356E-2</v>
+      </c>
+      <c r="AB23" s="20">
+        <f>R11/(SUM($L11,$M11,$N11,$R11))</f>
+        <v>0.14842324365572579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3821,40 +4303,27 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="J24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43">
-        <f t="shared" ref="L24:R24" si="9">L13/$K13</f>
-        <v>0.76796987065252931</v>
-      </c>
-      <c r="M24" s="43">
-        <f t="shared" si="9"/>
-        <v>8.9420646349280181E-2</v>
-      </c>
-      <c r="N24" s="43">
-        <f t="shared" si="9"/>
-        <v>4.5191698678486054E-2</v>
-      </c>
-      <c r="O24" s="43">
-        <f t="shared" si="9"/>
-        <v>5.6007540529055726E-3</v>
-      </c>
-      <c r="P24" s="43">
-        <f t="shared" si="9"/>
-        <v>1.1140108923163483E-3</v>
-      </c>
-      <c r="Q24" s="43">
-        <f t="shared" si="9"/>
-        <v>7.8479472467006071E-3</v>
-      </c>
-      <c r="R24" s="43">
-        <f t="shared" si="9"/>
-        <v>8.2855072127781912E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V24" s="20">
+        <f>L12/(SUM($L12,$M12,$N12,$R12))</f>
+        <v>0.73568086385806031</v>
+      </c>
+      <c r="W24" s="20">
+        <f>M12/(SUM($L12,$M12,$N12,$R12))</f>
+        <v>0.11122348631765472</v>
+      </c>
+      <c r="X24" s="20">
+        <f>N12/(SUM($L12,$M12,$N12,$R12))</f>
+        <v>4.9554896761891877E-2</v>
+      </c>
+      <c r="AB24" s="20">
+        <f>R12/(SUM($L12,$M12,$N12,$R12))</f>
+        <v>0.10354075306239315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -3879,40 +4348,27 @@
       <c r="H25" s="9">
         <v>4027548</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43">
-        <f t="shared" ref="L25:R25" si="10">L14/$K14</f>
-        <v>0.7821310902623515</v>
-      </c>
-      <c r="M25" s="43">
-        <f t="shared" si="10"/>
-        <v>8.0999816981132802E-2</v>
-      </c>
-      <c r="N25" s="43">
-        <f t="shared" si="10"/>
-        <v>4.4429242313497777E-2</v>
-      </c>
-      <c r="O25" s="43">
-        <f t="shared" si="10"/>
-        <v>4.5017998145047674E-3</v>
-      </c>
-      <c r="P25" s="43">
-        <f t="shared" si="10"/>
-        <v>9.0596273921591316E-4</v>
-      </c>
-      <c r="Q25" s="43">
-        <f t="shared" si="10"/>
-        <v>6.8185168661752888E-3</v>
-      </c>
-      <c r="R25" s="43">
-        <f t="shared" si="10"/>
-        <v>8.0213571023121905E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V25" s="20">
+        <f>L13/(SUM($L13,$M13,$N13,$R13))</f>
+        <v>0.77931886701865716</v>
+      </c>
+      <c r="W25" s="20">
+        <f>M13/(SUM($L13,$M13,$N13,$R13))</f>
+        <v>9.0742097397369478E-2</v>
+      </c>
+      <c r="X25" s="20">
+        <f>N13/(SUM($L13,$M13,$N13,$R13))</f>
+        <v>4.5859537930624285E-2</v>
+      </c>
+      <c r="AB25" s="20">
+        <f>R13/(SUM($L13,$M13,$N13,$R13))</f>
+        <v>8.4079497653349072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
@@ -3937,8 +4393,27 @@
       <c r="H26" s="9">
         <v>1175941</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V26" s="20">
+        <f>L14/(SUM($L14,$M14,$N14,$R14))</f>
+        <v>0.7918120050845433</v>
+      </c>
+      <c r="W26" s="20">
+        <f>M14/(SUM($L14,$M14,$N14,$R14))</f>
+        <v>8.200240125194147E-2</v>
+      </c>
+      <c r="X26" s="20">
+        <f>N14/(SUM($L14,$M14,$N14,$R14))</f>
+        <v>4.4979170216641495E-2</v>
+      </c>
+      <c r="AB26" s="20">
+        <f>R14/(SUM($L14,$M14,$N14,$R14))</f>
+        <v>8.1206423446873774E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -3963,11 +4438,8 @@
       <c r="H27" s="9">
         <v>2071170</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
@@ -3992,27 +4464,11 @@
       <c r="H28" s="9">
         <v>780437</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="43">
-        <f>L6/(SUM($L6,$M6,$N6,$R6))</f>
-        <v>0.52574956155764774</v>
-      </c>
-      <c r="M28" s="43">
-        <f t="shared" ref="M28:N28" si="11">M6/(SUM($L6,$M6,$N6,$R6))</f>
-        <v>0.14566831333864055</v>
-      </c>
-      <c r="N28" s="43">
-        <f t="shared" si="11"/>
-        <v>5.2799044467506023E-2</v>
-      </c>
-      <c r="R28" s="43">
-        <f t="shared" ref="R28" si="12">R6/(SUM($L6,$M6,$N6,$R6))</f>
-        <v>0.27578308063620571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T28" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -4037,27 +4493,27 @@
       <c r="H29" s="9">
         <v>4610854</v>
       </c>
-      <c r="J29" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="43">
-        <f t="shared" ref="L29:N29" si="13">L7/(SUM($L7,$M7,$N7,$R7))</f>
-        <v>0.54047304795906814</v>
-      </c>
-      <c r="M29" s="43">
-        <f t="shared" si="13"/>
-        <v>0.14461634671111406</v>
-      </c>
-      <c r="N29" s="43">
-        <f t="shared" si="13"/>
-        <v>5.4372952696662168E-2</v>
-      </c>
-      <c r="R29" s="43">
-        <f t="shared" ref="R29" si="14">R7/(SUM($L7,$M7,$N7,$R7))</f>
-        <v>0.26053765263315559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V29" s="20">
+        <f>SUM(L6:L10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
+        <v>0.55995124799080309</v>
+      </c>
+      <c r="W29" s="20">
+        <f>SUM(M6:M10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
+        <v>0.14129380505683278</v>
+      </c>
+      <c r="X29" s="20">
+        <f>SUM(N6:N10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
+        <v>6.4503798366337947E-2</v>
+      </c>
+      <c r="AB29" s="20">
+        <f>SUM(R6:R10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
+        <v>0.23425114858602614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -4082,27 +4538,27 @@
       <c r="H30" s="9">
         <v>1203704</v>
       </c>
-      <c r="J30" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="43">
-        <f t="shared" ref="L30:N30" si="15">L8/(SUM($L8,$M8,$N8,$R8))</f>
-        <v>0.55842200681418153</v>
-      </c>
-      <c r="M30" s="43">
-        <f t="shared" si="15"/>
-        <v>0.15096742182855574</v>
-      </c>
-      <c r="N30" s="43">
-        <f t="shared" si="15"/>
-        <v>6.5227664697745505E-2</v>
-      </c>
-      <c r="R30" s="43">
-        <f t="shared" ref="R30" si="16">R8/(SUM($L8,$M8,$N8,$R8))</f>
-        <v>0.2253829066595173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V30" s="20">
+        <f>SUM(L11:L14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
+        <v>0.7276537189532396</v>
+      </c>
+      <c r="W30" s="20">
+        <f>SUM(M11:M14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
+        <v>0.10846197832551442</v>
+      </c>
+      <c r="X30" s="20">
+        <f>SUM(N11:N14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
+        <v>5.0568833371580996E-2</v>
+      </c>
+      <c r="AB30" s="20">
+        <f>SUM(R11:R14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
+        <v>0.11331546934966498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
@@ -4127,27 +4583,17 @@
       <c r="H31" s="9">
         <v>2209553</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L31" s="43">
-        <f t="shared" ref="L31:N31" si="17">L9/(SUM($L9,$M9,$N9,$R9))</f>
-        <v>0.5766387773649001</v>
-      </c>
-      <c r="M31" s="43">
-        <f t="shared" si="17"/>
-        <v>0.13539728256344671</v>
-      </c>
-      <c r="N31" s="43">
-        <f t="shared" si="17"/>
-        <v>7.6006396210834853E-2</v>
-      </c>
-      <c r="R31" s="43">
-        <f t="shared" ref="R31" si="18">R9/(SUM($L9,$M9,$N9,$R9))</f>
-        <v>0.2119575438608183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
@@ -4172,27 +4618,8 @@
       <c r="H32" s="9">
         <v>1197597</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" s="43">
-        <f t="shared" ref="L32:N32" si="19">L10/(SUM($L10,$M10,$N10,$R10))</f>
-        <v>0.59569027773678773</v>
-      </c>
-      <c r="M32" s="43">
-        <f t="shared" si="19"/>
-        <v>0.12953384048956099</v>
-      </c>
-      <c r="N32" s="43">
-        <f t="shared" si="19"/>
-        <v>7.2547492623450754E-2</v>
-      </c>
-      <c r="R32" s="43">
-        <f t="shared" ref="R32" si="20">R10/(SUM($L10,$M10,$N10,$R10))</f>
-        <v>0.2022283891502005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -4217,27 +4644,11 @@
       <c r="H33" s="9">
         <v>503954</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33" s="43">
-        <f t="shared" ref="L33:N33" si="21">L11/(SUM($L11,$M11,$N11,$R11))</f>
-        <v>0.67165464210238546</v>
-      </c>
-      <c r="M33" s="43">
-        <f t="shared" si="21"/>
-        <v>0.12407433211078538</v>
-      </c>
-      <c r="N33" s="43">
-        <f t="shared" si="21"/>
-        <v>5.5847782131103356E-2</v>
-      </c>
-      <c r="R33" s="43">
-        <f t="shared" ref="R33" si="22">R11/(SUM($L11,$M11,$N11,$R11))</f>
-        <v>0.14842324365572579</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>23</v>
       </c>
@@ -4262,27 +4673,11 @@
       <c r="H34" s="9">
         <v>50021</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L34" s="43">
-        <f t="shared" ref="L34:N34" si="23">L12/(SUM($L12,$M12,$N12,$R12))</f>
-        <v>0.73568086385806031</v>
-      </c>
-      <c r="M34" s="43">
-        <f t="shared" si="23"/>
-        <v>0.11122348631765472</v>
-      </c>
-      <c r="N34" s="43">
-        <f t="shared" si="23"/>
-        <v>4.9554896761891877E-2</v>
-      </c>
-      <c r="R34" s="43">
-        <f t="shared" ref="R34" si="24">R12/(SUM($L12,$M12,$N12,$R12))</f>
-        <v>0.10354075306239315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -4291,27 +4686,20 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="J35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L35" s="43">
-        <f t="shared" ref="L35:N35" si="25">L13/(SUM($L13,$M13,$N13,$R13))</f>
-        <v>0.77931886701865716</v>
-      </c>
-      <c r="M35" s="43">
-        <f t="shared" si="25"/>
-        <v>9.0742097397369478E-2</v>
-      </c>
-      <c r="N35" s="43">
-        <f t="shared" si="25"/>
-        <v>4.5859537930624285E-2</v>
-      </c>
-      <c r="R35" s="43">
-        <f t="shared" ref="R35" si="26">R13/(SUM($L13,$M13,$N13,$R13))</f>
-        <v>8.4079497653349072E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -4336,27 +4724,35 @@
       <c r="H36" s="9">
         <v>5489290</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L36" s="43">
-        <f t="shared" ref="L36:N36" si="27">L14/(SUM($L14,$M14,$N14,$R14))</f>
-        <v>0.7918120050845433</v>
-      </c>
-      <c r="M36" s="43">
-        <f t="shared" si="27"/>
-        <v>8.200240125194147E-2</v>
-      </c>
-      <c r="N36" s="43">
-        <f t="shared" si="27"/>
-        <v>4.4979170216641495E-2</v>
-      </c>
-      <c r="R36" s="43">
-        <f t="shared" ref="R36" si="28">R14/(SUM($L14,$M14,$N14,$R14))</f>
-        <v>8.1206423446873774E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -4381,8 +4777,11 @@
       <c r="H37" s="9">
         <v>5114808</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
@@ -4407,11 +4806,35 @@
       <c r="H38" s="9">
         <v>3987255</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U38" s="1">
+        <v>5.3331465456857442E-2</v>
+      </c>
+      <c r="V38" s="1">
+        <v>4.8056537102473498E-2</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0.20930633533411641</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0.35123674911660779</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0.30679871116523161</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0.41908127208480567</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0.43056348804379452</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.18162544169611308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -4420,27 +4843,35 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="J39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L39" s="43">
-        <f>SUM(L6:L10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
-        <v>0.55995124799080309</v>
-      </c>
-      <c r="M39" s="43">
-        <f>SUM(M6:M10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
-        <v>0.14129380505683278</v>
-      </c>
-      <c r="N39" s="43">
-        <f>SUM(N6:N10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
-        <v>6.4503798366337947E-2</v>
-      </c>
-      <c r="R39" s="43">
-        <f>SUM(R6:R10)/SUM($L$6:$L$10,$M$6:$M$10,$N$6:$N$10,$R$6:$R$10)</f>
-        <v>0.23425114858602614</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U39" s="1">
+        <v>3.925994323039568E-2</v>
+      </c>
+      <c r="V39" s="1">
+        <v>4.5033112582781455E-2</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0.1937604733080264</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0.29437086092715231</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0.45348426296410294</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0.43874172185430466</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0.31349532049747503</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0.22185430463576158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
@@ -4465,27 +4896,35 @@
       <c r="H40" s="12">
         <v>21</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L40" s="43">
-        <f>SUM(L11:L14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
-        <v>0.7276537189532396</v>
-      </c>
-      <c r="M40" s="43">
-        <f t="shared" ref="M40:N40" si="29">SUM(M11:M14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
-        <v>0.10846197832551442</v>
-      </c>
-      <c r="N40" s="43">
-        <f t="shared" si="29"/>
-        <v>5.0568833371580996E-2</v>
-      </c>
-      <c r="R40" s="43">
-        <f t="shared" ref="R40" si="30">SUM(R11:R14)/SUM($L$11:$L$14,$M$11:$M$14,$N$11:$N$14,$R$11:$R$14)</f>
-        <v>0.11331546934966498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U40" s="1">
+        <v>2.9383454447930519E-2</v>
+      </c>
+      <c r="V40" s="1">
+        <v>3.0761209593326382E-2</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0.16699282292939757</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0.34045881126173094</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0.28457154333551316</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0.31595411887382691</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0.51905217928715874</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0.31282586027111575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
@@ -4510,8 +4949,62 @@
       <c r="H41" s="14">
         <v>4526300</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U41" s="1">
+        <v>4.2413657866235861E-2</v>
+      </c>
+      <c r="V41" s="1">
+        <v>6.1347743165924985E-2</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.10988494366273585</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0.21106166560712014</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0.2194253979397976</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0.25301970756516212</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0.62827600053123067</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0.47457088366179273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>25</v>
       </c>
@@ -4536,8 +5029,46 @@
       <c r="H42" s="9">
         <v>599798</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="24">
+        <f>SUM(L42:R42)</f>
+        <v>20331969</v>
+      </c>
+      <c r="L42" s="24">
+        <f t="shared" ref="L42" si="11">C150+C151</f>
+        <v>10111533</v>
+      </c>
+      <c r="M42" s="24">
+        <f t="shared" ref="M42" si="12">D150+D151</f>
+        <v>2767293</v>
+      </c>
+      <c r="N42" s="24">
+        <f t="shared" ref="N42" si="13">E150+E151</f>
+        <v>1016528</v>
+      </c>
+      <c r="O42" s="24">
+        <f t="shared" ref="O42" si="14">F150+F151</f>
+        <v>170680</v>
+      </c>
+      <c r="P42" s="24">
+        <f t="shared" ref="P42" si="15">G150+G151</f>
+        <v>40935</v>
+      </c>
+      <c r="Q42" s="24">
+        <f t="shared" ref="Q42" si="16">H150+H151</f>
+        <v>955733</v>
+      </c>
+      <c r="R42" s="24">
+        <f>B258+B259</f>
+        <v>5269267</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>38</v>
       </c>
@@ -4562,11 +5093,70 @@
       <c r="H43" s="9">
         <v>597915</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J43" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" s="24">
+        <f t="shared" ref="K43:K50" si="17">SUM(L43:R43)</f>
+        <v>21363868</v>
+      </c>
+      <c r="L43" s="24">
+        <f t="shared" ref="L43" si="18">C152+C153</f>
+        <v>11024966</v>
+      </c>
+      <c r="M43" s="24">
+        <f t="shared" ref="M43" si="19">D152+D153</f>
+        <v>2913005</v>
+      </c>
+      <c r="N43" s="24">
+        <f t="shared" ref="N43" si="20">E152+E153</f>
+        <v>1089176</v>
+      </c>
+      <c r="O43" s="24">
+        <f t="shared" ref="O43" si="21">F152+F153</f>
+        <v>179761</v>
+      </c>
+      <c r="P43" s="24">
+        <f t="shared" ref="P43" si="22">G152+G153</f>
+        <v>42616</v>
+      </c>
+      <c r="Q43" s="24">
+        <f t="shared" ref="Q43" si="23">H152+H153</f>
+        <v>829934</v>
+      </c>
+      <c r="R43" s="24">
+        <f>B260+B261</f>
+        <v>5284410</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U43" s="1">
+        <v>5.6883017503437196E-2</v>
+      </c>
+      <c r="V43" s="1">
+        <v>6.2992125984251968E-2</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.13975630573623332</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0.24507874015748032</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0.21286528562038465</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.21751968503937008</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0.59049539113994476</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0.47440944881889763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>39</v>
       </c>
@@ -4591,11 +5181,70 @@
       <c r="H44" s="9">
         <v>562453</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J44" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K44" s="24">
+        <f t="shared" si="17"/>
+        <v>23069322</v>
+      </c>
+      <c r="L44" s="24">
+        <f t="shared" ref="L44" si="24">C154+C155</f>
+        <v>12418470</v>
+      </c>
+      <c r="M44" s="24">
+        <f t="shared" ref="M44" si="25">D154+D155</f>
+        <v>3310805</v>
+      </c>
+      <c r="N44" s="24">
+        <f t="shared" ref="N44" si="26">E154+E155</f>
+        <v>1416195</v>
+      </c>
+      <c r="O44" s="24">
+        <f t="shared" ref="O44" si="27">F154+F155</f>
+        <v>194625</v>
+      </c>
+      <c r="P44" s="24">
+        <f t="shared" ref="P44" si="28">G154+G155</f>
+        <v>48197</v>
+      </c>
+      <c r="Q44" s="24">
+        <f t="shared" ref="Q44" si="29">H154+H155</f>
+        <v>630853</v>
+      </c>
+      <c r="R44" s="24">
+        <f>B262+B263</f>
+        <v>5050177</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U44" s="1">
+        <v>4.2937818805572597E-2</v>
+      </c>
+      <c r="V44" s="1">
+        <v>4.945316214931051E-2</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0.13703586372020762</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0.28074179743223965</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0.25591414299742082</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0.33675701378982403</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0.56411217447679896</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0.33304802662862576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>40</v>
       </c>
@@ -4620,20 +5269,43 @@
       <c r="H45" s="9">
         <v>476028</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" s="24">
+        <f t="shared" si="17"/>
+        <v>22239551</v>
+      </c>
+      <c r="L45" s="24">
+        <f t="shared" ref="L45" si="30">C156+C157</f>
+        <v>12498632</v>
+      </c>
+      <c r="M45" s="24">
+        <f t="shared" ref="M45" si="31">D156+D157</f>
+        <v>2816469</v>
+      </c>
+      <c r="N45" s="24">
+        <f t="shared" ref="N45" si="32">E156+E157</f>
+        <v>1560045</v>
+      </c>
+      <c r="O45" s="24">
+        <f t="shared" ref="O45" si="33">F156+F157</f>
+        <v>167308</v>
+      </c>
+      <c r="P45" s="24">
+        <f t="shared" ref="P45" si="34">G156+G157</f>
+        <v>52038</v>
+      </c>
+      <c r="Q45" s="24">
+        <f t="shared" ref="Q45" si="35">H156+H157</f>
+        <v>389297</v>
+      </c>
+      <c r="R45" s="24">
+        <f>B264+B265</f>
+        <v>4755762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
@@ -4659,34 +5331,77 @@
         <v>425060</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="K46" s="24">
+        <f t="shared" si="17"/>
+        <v>19992494</v>
+      </c>
+      <c r="L46" s="24">
+        <f t="shared" ref="L46" si="36">C158+C159</f>
+        <v>11771175</v>
+      </c>
+      <c r="M46" s="24">
+        <f t="shared" ref="M46" si="37">D158+D159</f>
+        <v>2396453</v>
+      </c>
+      <c r="N46" s="24">
+        <f t="shared" ref="N46" si="38">E158+E159</f>
+        <v>1330944</v>
+      </c>
+      <c r="O46" s="24">
+        <f t="shared" ref="O46" si="39">F158+F159</f>
+        <v>140078</v>
+      </c>
+      <c r="P46" s="24">
+        <f t="shared" ref="P46" si="40">G158+G159</f>
+        <v>39608</v>
+      </c>
+      <c r="Q46" s="24">
+        <f t="shared" ref="Q46" si="41">H158+H159</f>
+        <v>274284</v>
+      </c>
+      <c r="R46" s="24">
+        <f>B266+B267</f>
+        <v>4039952</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U46" s="20">
+        <f>(U38-$X$29)/$X$29</f>
+        <v>-0.17320426381760048</v>
+      </c>
+      <c r="V46" s="20">
+        <f>(V38-$X$29)/$X$29</f>
+        <v>-0.25498128296964978</v>
+      </c>
+      <c r="W46" s="20">
+        <f>(W38-$W$29)/$W$29</f>
+        <v>0.48135535913925498</v>
+      </c>
+      <c r="X46" s="20">
+        <f>(X38-$W$29)/$W$29</f>
+        <v>1.4858609262828573</v>
+      </c>
+      <c r="Y46" s="20">
+        <f>(Y38-$AB$29)/$AB$29</f>
+        <v>0.30969992257076673</v>
+      </c>
+      <c r="Z46" s="20">
+        <f>(Z38-$AB$29)/$AB$29</f>
+        <v>0.78902547378931087</v>
+      </c>
+      <c r="AA46" s="20">
+        <f>(AA38-$V$29)/$V$29</f>
+        <v>-0.2310696876045425</v>
+      </c>
+      <c r="AB46" s="20">
+        <f>(AB38-$V$29)/$V$29</f>
+        <v>-0.67564061630755368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -4712,10 +5427,74 @@
         <v>366630</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="K47" s="24">
+        <f t="shared" si="17"/>
+        <v>20729100</v>
+      </c>
+      <c r="L47" s="24">
+        <f t="shared" ref="L47" si="42">C160+C161</f>
+        <v>13782800</v>
+      </c>
+      <c r="M47" s="24">
+        <f t="shared" ref="M47" si="43">D160+D161</f>
+        <v>2395784</v>
+      </c>
+      <c r="N47" s="24">
+        <f t="shared" ref="N47" si="44">E160+E161</f>
+        <v>1071564</v>
+      </c>
+      <c r="O47" s="24">
+        <f t="shared" ref="O47" si="45">F160+F161</f>
+        <v>145011</v>
+      </c>
+      <c r="P47" s="24">
+        <f t="shared" ref="P47" si="46">G160+G161</f>
+        <v>34099</v>
+      </c>
+      <c r="Q47" s="24">
+        <f t="shared" ref="Q47" si="47">H160+H161</f>
+        <v>222819</v>
+      </c>
+      <c r="R47" s="24">
+        <f>B268+B269</f>
+        <v>3077023</v>
+      </c>
+      <c r="U47" s="20">
+        <f>(U39-$X$29)/$X$29</f>
+        <v>-0.39135455237185018</v>
+      </c>
+      <c r="V47" s="20">
+        <f>(V39-$X$29)/$X$29</f>
+        <v>-0.30185332145831423</v>
+      </c>
+      <c r="W47" s="20">
+        <f>(W39-$W$29)/$W$29</f>
+        <v>0.3713302804046496</v>
+      </c>
+      <c r="X47" s="20">
+        <f>(X39-$W$29)/$W$29</f>
+        <v>1.083395381763179</v>
+      </c>
+      <c r="Y47" s="20">
+        <f>(Y39-$AB$29)/$AB$29</f>
+        <v>0.93588917579017061</v>
+      </c>
+      <c r="Z47" s="20">
+        <f>(Z39-$AB$29)/$AB$29</f>
+        <v>0.87295441026698584</v>
+      </c>
+      <c r="AA47" s="20">
+        <f>(AA39-$V$29)/$V$29</f>
+        <v>-0.44013818770411239</v>
+      </c>
+      <c r="AB47" s="20">
+        <f>(AB39-$V$29)/$V$29</f>
+        <v>-0.60379710656631047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>43</v>
       </c>
@@ -4741,34 +5520,74 @@
         <v>276065</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="1">
-        <v>5.3331465456857442E-2</v>
-      </c>
-      <c r="L48" s="1">
-        <v>4.8056537102473498E-2</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0.20930633533411641</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0.35123674911660779</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.30679871116523161</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.41908127208480567</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0.43056348804379452</v>
-      </c>
-      <c r="R48" s="1">
-        <v>0.18162544169611308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="K48" s="24">
+        <f t="shared" si="17"/>
+        <v>18056503</v>
+      </c>
+      <c r="L48" s="24">
+        <f t="shared" ref="L48" si="48">C162+C163</f>
+        <v>13243370</v>
+      </c>
+      <c r="M48" s="24">
+        <f t="shared" ref="M48" si="49">D162+D163</f>
+        <v>1848133</v>
+      </c>
+      <c r="N48" s="24">
+        <f t="shared" ref="N48" si="50">E162+E163</f>
+        <v>822686</v>
+      </c>
+      <c r="O48" s="24">
+        <f t="shared" ref="O48" si="51">F162+F163</f>
+        <v>116653</v>
+      </c>
+      <c r="P48" s="24">
+        <f t="shared" ref="P48" si="52">G162+G163</f>
+        <v>24741</v>
+      </c>
+      <c r="Q48" s="24">
+        <f t="shared" ref="Q48" si="53">H162+H163</f>
+        <v>169113</v>
+      </c>
+      <c r="R48" s="24">
+        <f>B270+B271</f>
+        <v>1831807</v>
+      </c>
+      <c r="U48" s="20">
+        <f>(U40-$X$29)/$X$29</f>
+        <v>-0.54446939262316973</v>
+      </c>
+      <c r="V48" s="20">
+        <f>(V40-$X$29)/$X$29</f>
+        <v>-0.5231101055689229</v>
+      </c>
+      <c r="W48" s="20">
+        <f>(W40-$W$29)/$W$29</f>
+        <v>0.18188354303451479</v>
+      </c>
+      <c r="X48" s="20">
+        <f>(X40-$W$29)/$W$29</f>
+        <v>1.4095805978527352</v>
+      </c>
+      <c r="Y48" s="20">
+        <f>(Y40-$AB$29)/$AB$29</f>
+        <v>0.21481386560206089</v>
+      </c>
+      <c r="Z48" s="20">
+        <f>(Z40-$AB$29)/$AB$29</f>
+        <v>0.34878364857961947</v>
+      </c>
+      <c r="AA48" s="20">
+        <f>(AA40-$V$29)/$V$29</f>
+        <v>-7.3040409947110418E-2</v>
+      </c>
+      <c r="AB48" s="20">
+        <f>(AB40-$V$29)/$V$29</f>
+        <v>-0.44133375647686074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
@@ -4794,34 +5613,74 @@
         <v>236713</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K49" s="1">
-        <v>3.925994323039568E-2</v>
-      </c>
-      <c r="L49" s="1">
-        <v>4.5033112582781455E-2</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0.1937604733080264</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0.29437086092715231</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0.45348426296410294</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.43874172185430466</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0.31349532049747503</v>
-      </c>
-      <c r="R49" s="1">
-        <v>0.22185430463576158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="K49" s="24">
+        <f t="shared" si="17"/>
+        <v>10818305</v>
+      </c>
+      <c r="L49" s="24">
+        <f t="shared" ref="L49" si="54">C164+C165</f>
+        <v>8454306</v>
+      </c>
+      <c r="M49" s="24">
+        <f t="shared" ref="M49" si="55">D164+D165</f>
+        <v>872504</v>
+      </c>
+      <c r="N49" s="24">
+        <f t="shared" ref="N49" si="56">E164+E165</f>
+        <v>470595</v>
+      </c>
+      <c r="O49" s="24">
+        <f t="shared" ref="O49" si="57">F164+F165</f>
+        <v>60913</v>
+      </c>
+      <c r="P49" s="24">
+        <f t="shared" ref="P49" si="58">G164+G165</f>
+        <v>12633</v>
+      </c>
+      <c r="Q49" s="24">
+        <f t="shared" ref="Q49" si="59">H164+H165</f>
+        <v>84566</v>
+      </c>
+      <c r="R49" s="24">
+        <f>B272+B273</f>
+        <v>862788</v>
+      </c>
+      <c r="U49" s="20">
+        <f>(U41-$X$29)/$X$29</f>
+        <v>-0.34246263103212976</v>
+      </c>
+      <c r="V49" s="20">
+        <f>(V41-$X$29)/$X$29</f>
+        <v>-4.8928207025711927E-2</v>
+      </c>
+      <c r="W49" s="20">
+        <f>(W41-$W$29)/$W$29</f>
+        <v>-0.22229468150753889</v>
+      </c>
+      <c r="X49" s="20">
+        <f>(X41-$W$29)/$W$29</f>
+        <v>0.49377862336020001</v>
+      </c>
+      <c r="Y49" s="20">
+        <f>(Y41-$AB$29)/$AB$29</f>
+        <v>-6.3289980585875122E-2</v>
+      </c>
+      <c r="Z49" s="20">
+        <f>(Z41-$AB$29)/$AB$29</f>
+        <v>8.0121523810772005E-2</v>
+      </c>
+      <c r="AA49" s="20">
+        <f>(AA41-$V$29)/$V$29</f>
+        <v>0.12201910931636994</v>
+      </c>
+      <c r="AB49" s="20">
+        <f>(AB41-$V$29)/$V$29</f>
+        <v>-0.15247821062167308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
@@ -4847,34 +5706,48 @@
         <v>195145</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K50" s="1">
-        <v>2.9383454447930519E-2</v>
-      </c>
-      <c r="L50" s="1">
-        <v>3.0761209593326382E-2</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0.16699282292939757</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0.34045881126173094</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.28457154333551316</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0.31595411887382691</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>0.51905217928715874</v>
-      </c>
-      <c r="R50" s="1">
-        <v>0.31282586027111575</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="K50" s="24">
+        <f t="shared" si="17"/>
+        <v>5056212</v>
+      </c>
+      <c r="L50" s="24">
+        <f t="shared" ref="L50" si="60">C166+C167</f>
+        <v>4007821</v>
+      </c>
+      <c r="M50" s="24">
+        <f t="shared" ref="M50" si="61">D166+D167</f>
+        <v>353966</v>
+      </c>
+      <c r="N50" s="24">
+        <f t="shared" ref="N50" si="62">E166+E167</f>
+        <v>231076</v>
+      </c>
+      <c r="O50" s="24">
+        <f t="shared" ref="O50" si="63">F166+F167</f>
+        <v>23342</v>
+      </c>
+      <c r="P50" s="24">
+        <f t="shared" ref="P50" si="64">G166+G167</f>
+        <v>4908</v>
+      </c>
+      <c r="Q50" s="24">
+        <f t="shared" ref="Q50" si="65">H166+H167</f>
+        <v>35248</v>
+      </c>
+      <c r="R50" s="24">
+        <f>B274+B275</f>
+        <v>399851</v>
+      </c>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>46</v>
       </c>
@@ -4899,35 +5772,40 @@
       <c r="H51" s="9">
         <v>168003</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" s="1">
-        <v>4.2413657866235861E-2</v>
-      </c>
-      <c r="L51" s="1">
-        <v>6.1347743165924985E-2</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0.10988494366273585</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.21106166560712014</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.2194253979397976</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.25301970756516212</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0.62827600053123067</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0.47457088366179273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U51" s="20">
+        <f>(U43-$X$29)/$X$29</f>
+        <v>-0.11814468381567036</v>
+      </c>
+      <c r="V51" s="20">
+        <f>(V43-$X$29)/$X$29</f>
+        <v>-2.3435401020893417E-2</v>
+      </c>
+      <c r="W51" s="20">
+        <f>(W43-$W$29)/$W$29</f>
+        <v>-1.0881576301105566E-2</v>
+      </c>
+      <c r="X51" s="20">
+        <f>(X43-$W$29)/$W$29</f>
+        <v>0.73453280601298832</v>
+      </c>
+      <c r="Y51" s="20">
+        <f>(Y43-$AB$29)/$AB$29</f>
+        <v>-9.1294591700957092E-2</v>
+      </c>
+      <c r="Z51" s="20">
+        <f>(Z43-$AB$29)/$AB$29</f>
+        <v>-7.1425321274408232E-2</v>
+      </c>
+      <c r="AA51" s="20">
+        <f>(AA43-$V$29)/$V$29</f>
+        <v>5.4547861548195603E-2</v>
+      </c>
+      <c r="AB51" s="20">
+        <f>(AB43-$V$29)/$V$29</f>
+        <v>-0.15276651222556153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>47</v>
       </c>
@@ -4952,11 +5830,40 @@
       <c r="H52" s="9">
         <v>143807</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U52" s="20">
+        <f>(U44-$X$29)/$X$29</f>
+        <v>-0.33433658337893796</v>
+      </c>
+      <c r="V52" s="20">
+        <f>(V44-$X$29)/$X$29</f>
+        <v>-0.23332945653138135</v>
+      </c>
+      <c r="W52" s="20">
+        <f>(W44-$W$29)/$W$29</f>
+        <v>-3.0135371716491621E-2</v>
+      </c>
+      <c r="X52" s="20">
+        <f>(X44-$W$29)/$W$29</f>
+        <v>0.98693635095548971</v>
+      </c>
+      <c r="Y52" s="20">
+        <f>(Y44-$AB$29)/$AB$29</f>
+        <v>9.2477644366551287E-2</v>
+      </c>
+      <c r="Z52" s="20">
+        <f>(Z44-$AB$29)/$AB$29</f>
+        <v>0.43758959485380605</v>
+      </c>
+      <c r="AA52" s="20">
+        <f>(AA44-$V$29)/$V$29</f>
+        <v>7.4308727785248278E-3</v>
+      </c>
+      <c r="AB52" s="20">
+        <f>(AB44-$V$29)/$V$29</f>
+        <v>-0.40521960112838984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
@@ -4981,35 +5888,8 @@
       <c r="H53" s="9">
         <v>137444</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K53" s="1">
-        <v>5.6883017503437196E-2</v>
-      </c>
-      <c r="L53" s="1">
-        <v>6.2992125984251968E-2</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0.13975630573623332</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.24507874015748032</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0.21286528562038465</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0.21751968503937008</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>0.59049539113994476</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0.47440944881889763</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>49</v>
       </c>
@@ -5034,35 +5914,8 @@
       <c r="H54" s="9">
         <v>116656</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K54" s="1">
-        <v>4.2937818805572597E-2</v>
-      </c>
-      <c r="L54" s="1">
-        <v>4.945316214931051E-2</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0.13703586372020762</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0.28074179743223965</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0.25591414299742082</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0.33675701378982403</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>0.56411217447679896</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0.33304802662862576</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>50</v>
       </c>
@@ -5087,8 +5940,11 @@
       <c r="H55" s="9">
         <v>85904</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T55" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>51</v>
       </c>
@@ -5113,43 +5969,11 @@
       <c r="H56" s="9">
         <v>60944</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K56" s="43">
-        <f>(K48-$N$39)/$N$39</f>
-        <v>-0.17320426381760048</v>
-      </c>
-      <c r="L56" s="43">
-        <f t="shared" ref="L56:L62" si="31">(L48-$N$39)/$N$39</f>
-        <v>-0.25498128296964978</v>
-      </c>
-      <c r="M56" s="43">
-        <f>(M48-$M$39)/$M$39</f>
-        <v>0.48135535913925498</v>
-      </c>
-      <c r="N56" s="43">
-        <f>(N48-$M$39)/$M$39</f>
-        <v>1.4858609262828573</v>
-      </c>
-      <c r="O56" s="43">
-        <f>(O48-$R$39)/$R$39</f>
-        <v>0.30969992257076673</v>
-      </c>
-      <c r="P56" s="43">
-        <f>(P48-$R$39)/$R$39</f>
-        <v>0.78902547378931087</v>
-      </c>
-      <c r="Q56" s="43">
-        <f>(Q48-$L$39)/$L$39</f>
-        <v>-0.2310696876045425</v>
-      </c>
-      <c r="R56" s="43">
-        <f>(R48-$L$39)/$L$39</f>
-        <v>-0.67564061630755368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U56" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>52</v>
       </c>
@@ -5174,40 +5998,20 @@
       <c r="H57" s="9">
         <v>37289</v>
       </c>
-      <c r="K57" s="43">
-        <f t="shared" ref="K57:L57" si="32">(K49-$N$39)/$N$39</f>
-        <v>-0.39135455237185018</v>
-      </c>
-      <c r="L57" s="43">
-        <f t="shared" si="31"/>
-        <v>-0.30185332145831423</v>
-      </c>
-      <c r="M57" s="43">
-        <f t="shared" ref="M57:N62" si="33">(M49-$M$39)/$M$39</f>
-        <v>0.3713302804046496</v>
-      </c>
-      <c r="N57" s="43">
-        <f t="shared" si="33"/>
-        <v>1.083395381763179</v>
-      </c>
-      <c r="O57" s="43">
-        <f t="shared" ref="O57:P62" si="34">(O49-$R$39)/$R$39</f>
-        <v>0.93588917579017061</v>
-      </c>
-      <c r="P57" s="43">
-        <f t="shared" si="34"/>
-        <v>0.87295441026698584</v>
-      </c>
-      <c r="Q57" s="43">
-        <f t="shared" ref="Q57:R62" si="35">(Q49-$L$39)/$L$39</f>
-        <v>-0.44013818770411239</v>
-      </c>
-      <c r="R57" s="43">
-        <f t="shared" si="35"/>
-        <v>-0.60379710656631047</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>53</v>
       </c>
@@ -5232,40 +6036,35 @@
       <c r="H58" s="9">
         <v>22095</v>
       </c>
-      <c r="K58" s="43">
-        <f t="shared" ref="K58:L58" si="36">(K50-$N$39)/$N$39</f>
-        <v>-0.54446939262316973</v>
-      </c>
-      <c r="L58" s="43">
-        <f t="shared" si="31"/>
-        <v>-0.5231101055689229</v>
-      </c>
-      <c r="M58" s="43">
-        <f t="shared" si="33"/>
-        <v>0.18188354303451479</v>
-      </c>
-      <c r="N58" s="43">
-        <f t="shared" si="33"/>
-        <v>1.4095805978527352</v>
-      </c>
-      <c r="O58" s="43">
-        <f t="shared" si="34"/>
-        <v>0.21481386560206089</v>
-      </c>
-      <c r="P58" s="43">
-        <f t="shared" si="34"/>
-        <v>0.34878364857961947</v>
-      </c>
-      <c r="Q58" s="43">
-        <f t="shared" si="35"/>
-        <v>-7.3040409947110418E-2</v>
-      </c>
-      <c r="R58" s="43">
-        <f t="shared" si="35"/>
-        <v>-0.44133375647686074</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>54</v>
       </c>
@@ -5290,40 +6089,11 @@
       <c r="H59" s="9">
         <v>18351</v>
       </c>
-      <c r="K59" s="43">
-        <f t="shared" ref="K59:L59" si="37">(K51-$N$39)/$N$39</f>
-        <v>-0.34246263103212976</v>
-      </c>
-      <c r="L59" s="43">
-        <f t="shared" si="31"/>
-        <v>-4.8928207025711927E-2</v>
-      </c>
-      <c r="M59" s="43">
-        <f t="shared" si="33"/>
-        <v>-0.22229468150753889</v>
-      </c>
-      <c r="N59" s="43">
-        <f t="shared" si="33"/>
-        <v>0.49377862336020001</v>
-      </c>
-      <c r="O59" s="43">
-        <f t="shared" si="34"/>
-        <v>-6.3289980585875122E-2</v>
-      </c>
-      <c r="P59" s="43">
-        <f t="shared" si="34"/>
-        <v>8.0121523810772005E-2</v>
-      </c>
-      <c r="Q59" s="43">
-        <f t="shared" si="35"/>
-        <v>0.12201910931636994</v>
-      </c>
-      <c r="R59" s="43">
-        <f t="shared" si="35"/>
-        <v>-0.15247821062167308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T59" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -5332,14 +6102,35 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U60" s="1">
+        <v>4.742185163027221E-2</v>
+      </c>
+      <c r="V60" s="1">
+        <v>5.8615462354724611E-2</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0.23766078372719115</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0.26846892369883779</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0.1977078970984146</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0.18544719555330974</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0.517209467544122</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0.48746841839312782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -5364,40 +6155,35 @@
       <c r="H61" s="9">
         <v>2050384</v>
       </c>
-      <c r="K61" s="43">
-        <f t="shared" ref="K61:L61" si="38">(K53-$N$39)/$N$39</f>
-        <v>-0.11814468381567036</v>
-      </c>
-      <c r="L61" s="43">
-        <f t="shared" si="31"/>
-        <v>-2.3435401020893417E-2</v>
-      </c>
-      <c r="M61" s="43">
-        <f t="shared" si="33"/>
-        <v>-1.0881576301105566E-2</v>
-      </c>
-      <c r="N61" s="43">
-        <f t="shared" si="33"/>
-        <v>0.73453280601298832</v>
-      </c>
-      <c r="O61" s="43">
-        <f t="shared" si="34"/>
-        <v>-9.1294591700957092E-2</v>
-      </c>
-      <c r="P61" s="43">
-        <f t="shared" si="34"/>
-        <v>-7.1425321274408232E-2</v>
-      </c>
-      <c r="Q61" s="43">
-        <f t="shared" si="35"/>
-        <v>5.4547861548195603E-2</v>
-      </c>
-      <c r="R61" s="43">
-        <f t="shared" si="35"/>
-        <v>-0.15276651222556153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U61" s="1">
+        <v>3.9781931208012301E-2</v>
+      </c>
+      <c r="V61" s="1">
+        <v>4.6216540369623291E-2</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0.20655892051014282</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0.19313907212560649</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0.24279271130553476</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0.14734503625361173</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0.51086643697631007</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0.61329935125115853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>56</v>
       </c>
@@ -5422,40 +6208,35 @@
       <c r="H62" s="9">
         <v>599798</v>
       </c>
-      <c r="K62" s="43">
-        <f t="shared" ref="K62:L62" si="39">(K54-$N$39)/$N$39</f>
-        <v>-0.33433658337893796</v>
-      </c>
-      <c r="L62" s="43">
-        <f t="shared" si="31"/>
-        <v>-0.23332945653138135</v>
-      </c>
-      <c r="M62" s="43">
-        <f t="shared" si="33"/>
-        <v>-3.0135371716491621E-2</v>
-      </c>
-      <c r="N62" s="43">
-        <f t="shared" si="33"/>
-        <v>0.98693635095548971</v>
-      </c>
-      <c r="O62" s="43">
-        <f t="shared" si="34"/>
-        <v>9.2477644366551287E-2</v>
-      </c>
-      <c r="P62" s="43">
-        <f t="shared" si="34"/>
-        <v>0.43758959485380605</v>
-      </c>
-      <c r="Q62" s="43">
-        <f t="shared" si="35"/>
-        <v>7.4308727785248278E-3</v>
-      </c>
-      <c r="R62" s="43">
-        <f t="shared" si="35"/>
-        <v>-0.40521960112838984</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U62" s="1">
+        <v>2.582744616334445E-2</v>
+      </c>
+      <c r="V62" s="1">
+        <v>3.2923031291709919E-2</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0.16285728985455983</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0.16849572396065055</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0.17018557045792912</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0.13297740867072025</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0.6411296935241666</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0.66560383607691931</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>57</v>
       </c>
@@ -5480,8 +6261,35 @@
       <c r="H63" s="9">
         <v>1055652</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U63" s="1">
+        <v>3.2254133407852686E-2</v>
+      </c>
+      <c r="V63" s="1">
+        <v>4.0921365196028667E-2</v>
+      </c>
+      <c r="W63" s="1">
+        <v>9.1230703934747942E-2</v>
+      </c>
+      <c r="X63" s="1">
+        <v>9.6187034292327375E-2</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0.11194869510588541</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>8.0248918847582895E-2</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0.76456646755151392</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0.78264268166406104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>58</v>
       </c>
@@ -5506,8 +6314,19 @@
       <c r="H64" s="9">
         <v>394934</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T64" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U64" s="15"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="15"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="15"/>
+      <c r="AB64" s="15"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -5532,11 +6351,35 @@
       <c r="H65" s="9">
         <v>2251333</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="U65" s="1">
+        <v>5.0398250012918214E-2</v>
+      </c>
+      <c r="V65" s="1">
+        <v>6.5624179697753776E-2</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0.12579139425644004</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0.13091086361420481</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0.12043587276668725</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>9.1311358608017396E-2</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0.70337448296395455</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0.71215359808002399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>60</v>
       </c>
@@ -5561,11 +6404,35 @@
       <c r="H66" s="9">
         <v>610870</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U66" s="1">
+        <v>3.6332224811824319E-2</v>
+      </c>
+      <c r="V66" s="1">
+        <v>4.5070770847743177E-2</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0.12795717356516997</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0.15173130648819713</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0.14143618812379768</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0.11669944704841322</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0.69427441349920804</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0.68649847561564648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>61</v>
       </c>
@@ -5590,20 +6457,8 @@
       <c r="H67" s="9">
         <v>1074553</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>62</v>
       </c>
@@ -5628,35 +6483,43 @@
       <c r="H68" s="9">
         <v>565910</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U68" s="20">
+        <f>(U60-$X$29)/$X$29</f>
+        <v>-0.26482078836740486</v>
+      </c>
+      <c r="V68" s="20">
+        <f>(V60-$X$29)/$X$29</f>
+        <v>-9.1286655371387124E-2</v>
+      </c>
+      <c r="W68" s="20">
+        <f>(W60-$W$29)/$W$29</f>
+        <v>0.68203258190687521</v>
+      </c>
+      <c r="X68" s="20">
+        <f>(X60-$W$29)/$W$29</f>
+        <v>0.90007568690538986</v>
+      </c>
+      <c r="Y68" s="20">
+        <f>(Y60-$AB$29)/$AB$29</f>
+        <v>-0.1560003086780658</v>
+      </c>
+      <c r="Z68" s="20">
+        <f>(Z60-$AB$29)/$AB$29</f>
+        <v>-0.2083402934299538</v>
+      </c>
+      <c r="AA68" s="20">
+        <f>(AA60-$V$29)/$V$29</f>
+        <v>-7.6331253122563086E-2</v>
+      </c>
+      <c r="AB68" s="20">
+        <f>(AB60-$V$29)/$V$29</f>
+        <v>-0.12944489338626453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>63</v>
       </c>
@@ -5681,11 +6544,40 @@
       <c r="H69" s="9">
         <v>224583</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U69" s="20">
+        <f>(U61-$X$29)/$X$29</f>
+        <v>-0.38326219206382484</v>
+      </c>
+      <c r="V69" s="20">
+        <f>(V61-$X$29)/$X$29</f>
+        <v>-0.2835066842553271</v>
+      </c>
+      <c r="W69" s="20">
+        <f>(W61-$W$29)/$W$29</f>
+        <v>0.46191066499382882</v>
+      </c>
+      <c r="X69" s="20">
+        <f>(X61-$W$29)/$W$29</f>
+        <v>0.36693234390509849</v>
+      </c>
+      <c r="Y69" s="20">
+        <f>(Y61-$AB$29)/$AB$29</f>
+        <v>3.6463269320414146E-2</v>
+      </c>
+      <c r="Z69" s="20">
+        <f>(Z61-$AB$29)/$AB$29</f>
+        <v>-0.37099545875011625</v>
+      </c>
+      <c r="AA69" s="20">
+        <f>(AA61-$V$29)/$V$29</f>
+        <v>-8.7659079590620387E-2</v>
+      </c>
+      <c r="AB69" s="20">
+        <f>(AB61-$V$29)/$V$29</f>
+        <v>9.5272764283992908E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>54</v>
       </c>
@@ -5710,35 +6602,40 @@
       <c r="H70" s="9">
         <v>18351</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K70" s="1">
-        <v>4.742185163027221E-2</v>
-      </c>
-      <c r="L70" s="1">
-        <v>5.8615462354724611E-2</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0.23766078372719115</v>
-      </c>
-      <c r="N70" s="1">
-        <v>0.26846892369883779</v>
-      </c>
-      <c r="O70" s="1">
-        <v>0.1977078970984146</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0.18544719555330974</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0.517209467544122</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0.48746841839312782</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U70" s="20">
+        <f>(U62-$X$29)/$X$29</f>
+        <v>-0.59959805751807005</v>
+      </c>
+      <c r="V70" s="20">
+        <f>(V62-$X$29)/$X$29</f>
+        <v>-0.48959546374727625</v>
+      </c>
+      <c r="W70" s="20">
+        <f>(W62-$W$29)/$W$29</f>
+        <v>0.15261450980850533</v>
+      </c>
+      <c r="X70" s="20">
+        <f>(X62-$W$29)/$W$29</f>
+        <v>0.19252025163365302</v>
+      </c>
+      <c r="Y70" s="20">
+        <f>(Y62-$AB$29)/$AB$29</f>
+        <v>-0.27349098826112966</v>
+      </c>
+      <c r="Z70" s="20">
+        <f>(Z62-$AB$29)/$AB$29</f>
+        <v>-0.43232974748089326</v>
+      </c>
+      <c r="AA70" s="20">
+        <f>(AA62-$V$29)/$V$29</f>
+        <v>0.14497413091701303</v>
+      </c>
+      <c r="AB70" s="20">
+        <f>(AB62-$V$29)/$V$29</f>
+        <v>0.18868176196626943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -5747,35 +6644,40 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
-      <c r="J71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K71" s="1">
-        <v>3.9781931208012301E-2</v>
-      </c>
-      <c r="L71" s="1">
-        <v>4.6216540369623291E-2</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0.20655892051014282</v>
-      </c>
-      <c r="N71" s="1">
-        <v>0.19313907212560649</v>
-      </c>
-      <c r="O71" s="1">
-        <v>0.24279271130553476</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0.14734503625361173</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0.51086643697631007</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0.61329935125115853</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U71" s="20">
+        <f>(U63-$X$29)/$X$29</f>
+        <v>-0.49996536289737509</v>
+      </c>
+      <c r="V71" s="20">
+        <f>(V63-$X$29)/$X$29</f>
+        <v>-0.3655975890966453</v>
+      </c>
+      <c r="W71" s="20">
+        <f>(W63-$W$29)/$W$29</f>
+        <v>-0.35431915151515592</v>
+      </c>
+      <c r="X71" s="20">
+        <f>(X63-$W$29)/$W$29</f>
+        <v>-0.31924096563442433</v>
+      </c>
+      <c r="Y71" s="20">
+        <f>(Y63-$AB$29)/$AB$29</f>
+        <v>-0.52209969606713158</v>
+      </c>
+      <c r="Z71" s="20">
+        <f>(Z63-$AB$29)/$AB$29</f>
+        <v>-0.65742358433682402</v>
+      </c>
+      <c r="AA71" s="20">
+        <f>(AA63-$V$29)/$V$29</f>
+        <v>0.3654161327345975</v>
+      </c>
+      <c r="AB71" s="20">
+        <f>(AB63-$V$29)/$V$29</f>
+        <v>0.39769789686568485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>64</v>
       </c>
@@ -5800,35 +6702,14 @@
       <c r="H72" s="9">
         <v>2665043</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K72" s="1">
-        <v>2.582744616334445E-2</v>
-      </c>
-      <c r="L72" s="1">
-        <v>3.2923031291709919E-2</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0.16285728985455983</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0.16849572396065055</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0.17018557045792912</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0.13297740867072025</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0.6411296935241666</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0.66560383607691931</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>65</v>
       </c>
@@ -5853,35 +6734,40 @@
       <c r="H73" s="9">
         <v>2475916</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K73" s="1">
-        <v>3.2254133407852686E-2</v>
-      </c>
-      <c r="L73" s="1">
-        <v>4.0921365196028667E-2</v>
-      </c>
-      <c r="M73" s="1">
-        <v>9.1230703934747942E-2</v>
-      </c>
-      <c r="N73" s="1">
-        <v>9.6187034292327375E-2</v>
-      </c>
-      <c r="O73" s="1">
-        <v>0.11194869510588541</v>
-      </c>
-      <c r="P73" s="1">
-        <v>8.0248918847582895E-2</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0.76456646755151392</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0.78264268166406104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U73" s="20">
+        <f>(U65-$X$29)/$X$29</f>
+        <v>-0.21867779434181162</v>
+      </c>
+      <c r="V73" s="20">
+        <f>(V65-$X$29)/$X$29</f>
+        <v>1.7369230336682202E-2</v>
+      </c>
+      <c r="W73" s="20">
+        <f>(W65-$W$29)/$W$29</f>
+        <v>-0.1097175548082748</v>
+      </c>
+      <c r="X73" s="20">
+        <f>(X65-$W$29)/$W$29</f>
+        <v>-7.3484760626636281E-2</v>
+      </c>
+      <c r="Y73" s="20">
+        <f>(Y65-$AB$29)/$AB$29</f>
+        <v>-0.4858685923477617</v>
+      </c>
+      <c r="Z73" s="20">
+        <f>(Z65-$AB$29)/$AB$29</f>
+        <v>-0.61019888628428942</v>
+      </c>
+      <c r="AA73" s="20">
+        <f>(AA65-$V$29)/$V$29</f>
+        <v>0.25613521799938394</v>
+      </c>
+      <c r="AB73" s="20">
+        <f>(AB65-$V$29)/$V$29</f>
+        <v>0.27181357419123164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>66</v>
       </c>
@@ -5906,19 +6792,40 @@
       <c r="H74" s="9">
         <v>1975641</v>
       </c>
-      <c r="J74" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U74" s="20">
+        <f>(U66-$X$29)/$X$29</f>
+        <v>-0.43674286271512486</v>
+      </c>
+      <c r="V74" s="20">
+        <f>(V66-$X$29)/$X$29</f>
+        <v>-0.30126950676963732</v>
+      </c>
+      <c r="W74" s="20">
+        <f>(W66-$W$29)/$W$29</f>
+        <v>-9.4389357596381521E-2</v>
+      </c>
+      <c r="X74" s="20">
+        <f>(X66-$W$29)/$W$29</f>
+        <v>7.3870906280470397E-2</v>
+      </c>
+      <c r="Y74" s="20">
+        <f>(Y66-$AB$29)/$AB$29</f>
+        <v>-0.39621987350957721</v>
+      </c>
+      <c r="Z74" s="20">
+        <f>(Z66-$AB$29)/$AB$29</f>
+        <v>-0.50181910418442777</v>
+      </c>
+      <c r="AA74" s="20">
+        <f>(AA66-$V$29)/$V$29</f>
+        <v>0.23988367914238695</v>
+      </c>
+      <c r="AB74" s="20">
+        <f>(AB66-$V$29)/$V$29</f>
+        <v>0.22599686683245299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -5927,35 +6834,8 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="J75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K75" s="1">
-        <v>5.0398250012918214E-2</v>
-      </c>
-      <c r="L75" s="1">
-        <v>6.5624179697753776E-2</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0.12579139425644004</v>
-      </c>
-      <c r="N75" s="1">
-        <v>0.13091086361420481</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0.12043587276668725</v>
-      </c>
-      <c r="P75" s="1">
-        <v>9.1311358608017396E-2</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0.70337448296395455</v>
-      </c>
-      <c r="R75" s="1">
-        <v>0.71215359808002399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>67</v>
       </c>
@@ -5980,35 +6860,8 @@
       <c r="H76" s="12">
         <v>20.3</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K76" s="1">
-        <v>3.6332224811824319E-2</v>
-      </c>
-      <c r="L76" s="1">
-        <v>4.5070770847743177E-2</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0.12795717356516997</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0.15173130648819713</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0.14143618812379768</v>
-      </c>
-      <c r="P76" s="1">
-        <v>0.11669944704841322</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>0.69427441349920804</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0.68649847561564648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>68</v>
       </c>
@@ -6033,20 +6886,38 @@
       <c r="H77" s="14">
         <v>4616056</v>
       </c>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="J77" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>25</v>
       </c>
@@ -6072,42 +6943,42 @@
         <v>576143</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K78" s="43">
-        <f>(K70-$N$39)/$N$39</f>
-        <v>-0.26482078836740486</v>
-      </c>
-      <c r="L78" s="43">
-        <f t="shared" ref="L78:L84" si="40">(L70-$N$39)/$N$39</f>
-        <v>-9.1286655371387124E-2</v>
-      </c>
-      <c r="M78" s="43">
-        <f>(M70-$M$39)/$M$39</f>
-        <v>0.68203258190687521</v>
-      </c>
-      <c r="N78" s="43">
-        <f>(N70-$M$39)/$M$39</f>
-        <v>0.90007568690538986</v>
-      </c>
-      <c r="O78" s="43">
-        <f>(O70-$R$39)/$R$39</f>
-        <v>-0.1560003086780658</v>
-      </c>
-      <c r="P78" s="43">
-        <f>(P70-$R$39)/$R$39</f>
-        <v>-0.2083402934299538</v>
-      </c>
-      <c r="Q78" s="43">
-        <f>(Q70-$L$39)/$L$39</f>
-        <v>-7.6331253122563086E-2</v>
-      </c>
-      <c r="R78" s="43">
-        <f>(R70-$L$39)/$L$39</f>
-        <v>-0.12944489338626453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="K78" s="24">
+        <f>SUM(L78:R78)</f>
+        <v>19440609</v>
+      </c>
+      <c r="L78" s="24">
+        <f t="shared" ref="L78" si="66">C186+C187</f>
+        <v>9596775</v>
+      </c>
+      <c r="M78" s="24">
+        <f t="shared" ref="M78" si="67">D186+D187</f>
+        <v>2693246</v>
+      </c>
+      <c r="N78" s="24">
+        <f t="shared" ref="N78" si="68">E186+E187</f>
+        <v>962703</v>
+      </c>
+      <c r="O78" s="24">
+        <f t="shared" ref="O78" si="69">F186+F187</f>
+        <v>163812</v>
+      </c>
+      <c r="P78" s="24">
+        <f t="shared" ref="P78" si="70">G186+G187</f>
+        <v>39208</v>
+      </c>
+      <c r="Q78" s="24">
+        <f t="shared" ref="Q78" si="71">H186+H187</f>
+        <v>916096</v>
+      </c>
+      <c r="R78" s="24">
+        <f>B294+B295</f>
+        <v>5068769</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>38</v>
       </c>
@@ -6132,40 +7003,43 @@
       <c r="H79" s="9">
         <v>572913</v>
       </c>
-      <c r="K79" s="43">
-        <f t="shared" ref="K79:L79" si="41">(K71-$N$39)/$N$39</f>
-        <v>-0.38326219206382484</v>
-      </c>
-      <c r="L79" s="43">
-        <f t="shared" si="40"/>
-        <v>-0.2835066842553271</v>
-      </c>
-      <c r="M79" s="43">
-        <f t="shared" ref="M79:N79" si="42">(M71-$M$39)/$M$39</f>
-        <v>0.46191066499382882</v>
-      </c>
-      <c r="N79" s="43">
-        <f t="shared" si="42"/>
-        <v>0.36693234390509849</v>
-      </c>
-      <c r="O79" s="43">
-        <f t="shared" ref="O79:P79" si="43">(O71-$R$39)/$R$39</f>
-        <v>3.6463269320414146E-2</v>
-      </c>
-      <c r="P79" s="43">
-        <f t="shared" si="43"/>
-        <v>-0.37099545875011625</v>
-      </c>
-      <c r="Q79" s="43">
-        <f t="shared" ref="Q79:R79" si="44">(Q71-$L$39)/$L$39</f>
-        <v>-8.7659079590620387E-2</v>
-      </c>
-      <c r="R79" s="43">
-        <f t="shared" si="44"/>
-        <v>9.5272764283992908E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J79" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K79" s="24">
+        <f t="shared" ref="K79:K86" si="72">SUM(L79:R79)</f>
+        <v>20488970</v>
+      </c>
+      <c r="L79" s="24">
+        <f t="shared" ref="L79" si="73">C188+C189</f>
+        <v>10474266</v>
+      </c>
+      <c r="M79" s="24">
+        <f t="shared" ref="M79" si="74">D188+D189</f>
+        <v>2839623</v>
+      </c>
+      <c r="N79" s="24">
+        <f t="shared" ref="N79" si="75">E188+E189</f>
+        <v>1073701</v>
+      </c>
+      <c r="O79" s="24">
+        <f t="shared" ref="O79" si="76">F188+F189</f>
+        <v>174401</v>
+      </c>
+      <c r="P79" s="24">
+        <f t="shared" ref="P79" si="77">G188+G189</f>
+        <v>41029</v>
+      </c>
+      <c r="Q79" s="24">
+        <f t="shared" ref="Q79" si="78">H188+H189</f>
+        <v>806551</v>
+      </c>
+      <c r="R79" s="24">
+        <f>B296+B297</f>
+        <v>5079399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>39</v>
       </c>
@@ -6190,37 +7064,40 @@
       <c r="H80" s="9">
         <v>544328</v>
       </c>
-      <c r="K80" s="43">
-        <f t="shared" ref="K80:L80" si="45">(K72-$N$39)/$N$39</f>
-        <v>-0.59959805751807005</v>
-      </c>
-      <c r="L80" s="43">
-        <f t="shared" si="40"/>
-        <v>-0.48959546374727625</v>
-      </c>
-      <c r="M80" s="43">
-        <f t="shared" ref="M80:N80" si="46">(M72-$M$39)/$M$39</f>
-        <v>0.15261450980850533</v>
-      </c>
-      <c r="N80" s="43">
-        <f t="shared" si="46"/>
-        <v>0.19252025163365302</v>
-      </c>
-      <c r="O80" s="43">
-        <f t="shared" ref="O80:P80" si="47">(O72-$R$39)/$R$39</f>
-        <v>-0.27349098826112966</v>
-      </c>
-      <c r="P80" s="43">
-        <f t="shared" si="47"/>
-        <v>-0.43232974748089326</v>
-      </c>
-      <c r="Q80" s="43">
-        <f t="shared" ref="Q80:R80" si="48">(Q72-$L$39)/$L$39</f>
-        <v>0.14497413091701303</v>
-      </c>
-      <c r="R80" s="43">
-        <f t="shared" si="48"/>
-        <v>0.18868176196626943</v>
+      <c r="J80" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="K80" s="24">
+        <f t="shared" si="72"/>
+        <v>22072634</v>
+      </c>
+      <c r="L80" s="24">
+        <f t="shared" ref="L80" si="79">C190+C191</f>
+        <v>11822005</v>
+      </c>
+      <c r="M80" s="24">
+        <f t="shared" ref="M80" si="80">D190+D191</f>
+        <v>3242522</v>
+      </c>
+      <c r="N80" s="24">
+        <f t="shared" ref="N80" si="81">E190+E191</f>
+        <v>1415265</v>
+      </c>
+      <c r="O80" s="24">
+        <f t="shared" ref="O80" si="82">F190+F191</f>
+        <v>187837</v>
+      </c>
+      <c r="P80" s="24">
+        <f t="shared" ref="P80" si="83">G190+G191</f>
+        <v>45662</v>
+      </c>
+      <c r="Q80" s="24">
+        <f t="shared" ref="Q80" si="84">H190+H191</f>
+        <v>625900</v>
+      </c>
+      <c r="R80" s="24">
+        <f>B298+B299</f>
+        <v>4733443</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -6248,37 +7125,40 @@
       <c r="H81" s="9">
         <v>464148</v>
       </c>
-      <c r="K81" s="43">
-        <f t="shared" ref="K81:L81" si="49">(K73-$N$39)/$N$39</f>
-        <v>-0.49996536289737509</v>
-      </c>
-      <c r="L81" s="43">
-        <f t="shared" si="40"/>
-        <v>-0.3655975890966453</v>
-      </c>
-      <c r="M81" s="43">
-        <f t="shared" ref="M81:N81" si="50">(M73-$M$39)/$M$39</f>
-        <v>-0.35431915151515592</v>
-      </c>
-      <c r="N81" s="43">
-        <f t="shared" si="50"/>
-        <v>-0.31924096563442433</v>
-      </c>
-      <c r="O81" s="43">
-        <f t="shared" ref="O81:P81" si="51">(O73-$R$39)/$R$39</f>
-        <v>-0.52209969606713158</v>
-      </c>
-      <c r="P81" s="43">
-        <f t="shared" si="51"/>
-        <v>-0.65742358433682402</v>
-      </c>
-      <c r="Q81" s="43">
-        <f t="shared" ref="Q81:R81" si="52">(Q73-$L$39)/$L$39</f>
-        <v>0.3654161327345975</v>
-      </c>
-      <c r="R81" s="43">
-        <f t="shared" si="52"/>
-        <v>0.39769789686568485</v>
+      <c r="J81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K81" s="24">
+        <f t="shared" si="72"/>
+        <v>21929275</v>
+      </c>
+      <c r="L81" s="24">
+        <f t="shared" ref="L81" si="85">C192+C193</f>
+        <v>12247696</v>
+      </c>
+      <c r="M81" s="24">
+        <f t="shared" ref="M81" si="86">D192+D193</f>
+        <v>2994076</v>
+      </c>
+      <c r="N81" s="24">
+        <f t="shared" ref="N81" si="87">E192+E193</f>
+        <v>1701753</v>
+      </c>
+      <c r="O81" s="24">
+        <f t="shared" ref="O81" si="88">F192+F193</f>
+        <v>166893</v>
+      </c>
+      <c r="P81" s="24">
+        <f t="shared" ref="P81" si="89">G192+G193</f>
+        <v>49316</v>
+      </c>
+      <c r="Q81" s="24">
+        <f t="shared" ref="Q81" si="90">H192+H193</f>
+        <v>429191</v>
+      </c>
+      <c r="R81" s="24">
+        <f>B300+B301</f>
+        <v>4340350</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -6306,12 +7186,41 @@
       <c r="H82" s="9">
         <v>412466</v>
       </c>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
+      <c r="J82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K82" s="24">
+        <f t="shared" si="72"/>
+        <v>20326880</v>
+      </c>
+      <c r="L82" s="24">
+        <f t="shared" ref="L82" si="91">C194+C195</f>
+        <v>11682787</v>
+      </c>
+      <c r="M82" s="24">
+        <f t="shared" ref="M82" si="92">D194+D195</f>
+        <v>2703650</v>
+      </c>
+      <c r="N82" s="24">
+        <f t="shared" ref="N82" si="93">E194+E195</f>
+        <v>1525450</v>
+      </c>
+      <c r="O82" s="24">
+        <f t="shared" ref="O82" si="94">F194+F195</f>
+        <v>144779</v>
+      </c>
+      <c r="P82" s="24">
+        <f t="shared" ref="P82" si="95">G194+G195</f>
+        <v>38481</v>
+      </c>
+      <c r="Q82" s="24">
+        <f t="shared" ref="Q82" si="96">H194+H195</f>
+        <v>309398</v>
+      </c>
+      <c r="R82" s="24">
+        <f>B302+B303</f>
+        <v>3922335</v>
+      </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
@@ -6338,37 +7247,40 @@
       <c r="H83" s="9">
         <v>368210</v>
       </c>
-      <c r="K83" s="43">
-        <f t="shared" ref="K83:L83" si="53">(K75-$N$39)/$N$39</f>
-        <v>-0.21867779434181162</v>
-      </c>
-      <c r="L83" s="43">
-        <f t="shared" si="40"/>
-        <v>1.7369230336682202E-2</v>
-      </c>
-      <c r="M83" s="43">
-        <f t="shared" ref="M83:N83" si="54">(M75-$M$39)/$M$39</f>
-        <v>-0.1097175548082748</v>
-      </c>
-      <c r="N83" s="43">
-        <f t="shared" si="54"/>
-        <v>-7.3484760626636281E-2</v>
-      </c>
-      <c r="O83" s="43">
-        <f t="shared" ref="O83:P83" si="55">(O75-$R$39)/$R$39</f>
-        <v>-0.4858685923477617</v>
-      </c>
-      <c r="P83" s="43">
-        <f t="shared" si="55"/>
-        <v>-0.61019888628428942</v>
-      </c>
-      <c r="Q83" s="43">
-        <f t="shared" ref="Q83:R83" si="56">(Q75-$L$39)/$L$39</f>
-        <v>0.25613521799938394</v>
-      </c>
-      <c r="R83" s="43">
-        <f t="shared" si="56"/>
-        <v>0.27181357419123164</v>
+      <c r="J83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K83" s="24">
+        <f t="shared" si="72"/>
+        <v>21625442</v>
+      </c>
+      <c r="L83" s="24">
+        <f t="shared" ref="L83" si="97">C196+C197</f>
+        <v>14097603</v>
+      </c>
+      <c r="M83" s="24">
+        <f t="shared" ref="M83" si="98">D196+D197</f>
+        <v>2754545</v>
+      </c>
+      <c r="N83" s="24">
+        <f t="shared" ref="N83" si="99">E196+E197</f>
+        <v>1246679</v>
+      </c>
+      <c r="O83" s="24">
+        <f t="shared" ref="O83" si="100">F196+F197</f>
+        <v>157196</v>
+      </c>
+      <c r="P83" s="24">
+        <f t="shared" ref="P83" si="101">G196+G197</f>
+        <v>35300</v>
+      </c>
+      <c r="Q83" s="24">
+        <f t="shared" ref="Q83" si="102">H196+H197</f>
+        <v>250089</v>
+      </c>
+      <c r="R83" s="24">
+        <f>B304+B305</f>
+        <v>3084030</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -6396,37 +7308,40 @@
       <c r="H84" s="9">
         <v>293042</v>
       </c>
-      <c r="K84" s="43">
-        <f t="shared" ref="K84:L84" si="57">(K76-$N$39)/$N$39</f>
-        <v>-0.43674286271512486</v>
-      </c>
-      <c r="L84" s="43">
-        <f t="shared" si="40"/>
-        <v>-0.30126950676963732</v>
-      </c>
-      <c r="M84" s="43">
-        <f t="shared" ref="M84:N84" si="58">(M76-$M$39)/$M$39</f>
-        <v>-9.4389357596381521E-2</v>
-      </c>
-      <c r="N84" s="43">
-        <f t="shared" si="58"/>
-        <v>7.3870906280470397E-2</v>
-      </c>
-      <c r="O84" s="43">
-        <f t="shared" ref="O84:P84" si="59">(O76-$R$39)/$R$39</f>
-        <v>-0.39621987350957721</v>
-      </c>
-      <c r="P84" s="43">
-        <f t="shared" si="59"/>
-        <v>-0.50181910418442777</v>
-      </c>
-      <c r="Q84" s="43">
-        <f t="shared" ref="Q84:R84" si="60">(Q76-$L$39)/$L$39</f>
-        <v>0.23988367914238695</v>
-      </c>
-      <c r="R84" s="43">
-        <f t="shared" si="60"/>
-        <v>0.22599686683245299</v>
+      <c r="J84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K84" s="24">
+        <f t="shared" si="72"/>
+        <v>19969644</v>
+      </c>
+      <c r="L84" s="24">
+        <f t="shared" ref="L84" si="103">C198+C199</f>
+        <v>14244548</v>
+      </c>
+      <c r="M84" s="24">
+        <f t="shared" ref="M84" si="104">D198+D199</f>
+        <v>2307612</v>
+      </c>
+      <c r="N84" s="24">
+        <f t="shared" ref="N84" si="105">E198+E199</f>
+        <v>1028879</v>
+      </c>
+      <c r="O84" s="24">
+        <f t="shared" ref="O84" si="106">F198+F199</f>
+        <v>135069</v>
+      </c>
+      <c r="P84" s="24">
+        <f t="shared" ref="P84" si="107">G198+G199</f>
+        <v>26590</v>
+      </c>
+      <c r="Q84" s="24">
+        <f t="shared" ref="Q84" si="108">H198+H199</f>
+        <v>190065</v>
+      </c>
+      <c r="R84" s="24">
+        <f>B306+B307</f>
+        <v>2036881</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -6454,6 +7369,41 @@
       <c r="H85" s="9">
         <v>258724</v>
       </c>
+      <c r="J85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K85" s="24">
+        <f t="shared" si="72"/>
+        <v>12862792</v>
+      </c>
+      <c r="L85" s="24">
+        <f t="shared" ref="L85" si="109">C200+C201</f>
+        <v>9732063</v>
+      </c>
+      <c r="M85" s="24">
+        <f t="shared" ref="M85" si="110">D200+D201</f>
+        <v>1245075</v>
+      </c>
+      <c r="N85" s="24">
+        <f t="shared" ref="N85" si="111">E200+E201</f>
+        <v>599594</v>
+      </c>
+      <c r="O85" s="24">
+        <f t="shared" ref="O85" si="112">F200+F201</f>
+        <v>71719</v>
+      </c>
+      <c r="P85" s="24">
+        <f t="shared" ref="P85" si="113">G200+G201</f>
+        <v>13748</v>
+      </c>
+      <c r="Q85" s="24">
+        <f t="shared" ref="Q85" si="114">H200+H201</f>
+        <v>101282</v>
+      </c>
+      <c r="R85" s="24">
+        <f>B308+B309</f>
+        <v>1099311</v>
+      </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
@@ -6479,6 +7429,41 @@
       </c>
       <c r="H86" s="9">
         <v>215024</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K86" s="24">
+        <f t="shared" si="72"/>
+        <v>7865953</v>
+      </c>
+      <c r="L86" s="24">
+        <f t="shared" ref="L86" si="115">C202+C203</f>
+        <v>6099006</v>
+      </c>
+      <c r="M86" s="24">
+        <f t="shared" ref="M86" si="116">D202+D203</f>
+        <v>692727</v>
+      </c>
+      <c r="N86" s="24">
+        <f t="shared" ref="N86" si="117">E202+E203</f>
+        <v>343046</v>
+      </c>
+      <c r="O86" s="24">
+        <f t="shared" ref="O86" si="118">F202+F203</f>
+        <v>34831</v>
+      </c>
+      <c r="P86" s="24">
+        <f t="shared" ref="P86" si="119">G202+G203</f>
+        <v>6799</v>
+      </c>
+      <c r="Q86" s="24">
+        <f t="shared" ref="Q86" si="120">H202+H203</f>
+        <v>52862</v>
+      </c>
+      <c r="R86" s="24">
+        <f>B310+B311</f>
+        <v>636682</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
@@ -12582,44 +13567,44 @@
       </c>
     </row>
     <row r="329" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="20" t="s">
+      <c r="A329" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B329" s="22"/>
+      <c r="B329" s="29"/>
     </row>
     <row r="330" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="23" t="s">
+      <c r="A330" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B330" s="25"/>
+      <c r="B330" s="31"/>
     </row>
     <row r="331" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="26" t="s">
+      <c r="A331" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B331" s="28"/>
+      <c r="B331" s="33"/>
     </row>
     <row r="332" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B332" s="28"/>
+      <c r="B332" s="33"/>
     </row>
     <row r="333" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="29" t="s">
+      <c r="A333" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B333" s="31"/>
+      <c r="B333" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A329:B329"/>
     <mergeCell ref="A330:B330"/>
     <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12646,21 +13631,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -12680,45 +13665,45 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -25339,103 +26324,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="22"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="29"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="24"/>
-      <c r="L331" s="24"/>
-      <c r="M331" s="25"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="31"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
-      <c r="L332" s="27"/>
-      <c r="M332" s="28"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
+      <c r="M332" s="33"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
-      <c r="L333" s="27"/>
-      <c r="M333" s="28"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="33"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30"/>
-      <c r="J334" s="30"/>
-      <c r="K334" s="30"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
+      <c r="M334" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A331:M331"/>
     <mergeCell ref="A332:M332"/>
     <mergeCell ref="A333:M333"/>
     <mergeCell ref="A334:M334"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.85" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -25464,21 +26449,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -25498,45 +26483,45 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -38157,103 +39142,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="22"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="29"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="24"/>
-      <c r="L331" s="24"/>
-      <c r="M331" s="25"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="31"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
-      <c r="L332" s="27"/>
-      <c r="M332" s="28"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
+      <c r="M332" s="33"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
-      <c r="L333" s="27"/>
-      <c r="M333" s="28"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="33"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30"/>
-      <c r="J334" s="30"/>
-      <c r="K334" s="30"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
+      <c r="M334" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38278,21 +39263,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -38312,45 +39297,45 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -50971,103 +51956,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="22"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="29"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="24"/>
-      <c r="L331" s="24"/>
-      <c r="M331" s="25"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="31"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
-      <c r="L332" s="27"/>
-      <c r="M332" s="28"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
+      <c r="M332" s="33"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
-      <c r="L333" s="27"/>
-      <c r="M333" s="28"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="33"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30"/>
-      <c r="J334" s="30"/>
-      <c r="K334" s="30"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
+      <c r="M334" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51092,21 +52077,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -51126,45 +52111,45 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -63785,103 +64770,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="22"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="29"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="24"/>
-      <c r="L331" s="24"/>
-      <c r="M331" s="25"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="31"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
-      <c r="L332" s="27"/>
-      <c r="M332" s="28"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
+      <c r="M332" s="33"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
-      <c r="L333" s="27"/>
-      <c r="M333" s="28"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="33"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30"/>
-      <c r="J334" s="30"/>
-      <c r="K334" s="30"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
+      <c r="M334" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63906,21 +64891,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -63940,45 +64925,45 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -76599,103 +77584,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="22"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="29"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="24"/>
-      <c r="L331" s="24"/>
-      <c r="M331" s="25"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="31"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
-      <c r="L332" s="27"/>
-      <c r="M332" s="28"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
+      <c r="M332" s="33"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
-      <c r="L333" s="27"/>
-      <c r="M333" s="28"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="33"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30"/>
-      <c r="J334" s="30"/>
-      <c r="K334" s="30"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
+      <c r="M334" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76720,21 +77705,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
@@ -76754,45 +77739,45 @@
       <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -89413,103 +90398,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="20" t="s">
+      <c r="A330" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="21"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
-      <c r="I330" s="21"/>
-      <c r="J330" s="21"/>
-      <c r="K330" s="21"/>
-      <c r="L330" s="21"/>
-      <c r="M330" s="22"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
+      <c r="M330" s="29"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="24"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
-      <c r="F331" s="24"/>
-      <c r="G331" s="24"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
-      <c r="K331" s="24"/>
-      <c r="L331" s="24"/>
-      <c r="M331" s="25"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="31"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="27"/>
-      <c r="C332" s="27"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27"/>
-      <c r="G332" s="27"/>
-      <c r="H332" s="27"/>
-      <c r="I332" s="27"/>
-      <c r="J332" s="27"/>
-      <c r="K332" s="27"/>
-      <c r="L332" s="27"/>
-      <c r="M332" s="28"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
+      <c r="M332" s="33"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="27"/>
-      <c r="C333" s="27"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27"/>
-      <c r="F333" s="27"/>
-      <c r="G333" s="27"/>
-      <c r="H333" s="27"/>
-      <c r="I333" s="27"/>
-      <c r="J333" s="27"/>
-      <c r="K333" s="27"/>
-      <c r="L333" s="27"/>
-      <c r="M333" s="28"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
+      <c r="M333" s="33"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="29" t="s">
+      <c r="A334" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="30"/>
-      <c r="C334" s="30"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
-      <c r="F334" s="30"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="30"/>
-      <c r="I334" s="30"/>
-      <c r="J334" s="30"/>
-      <c r="K334" s="30"/>
-      <c r="L334" s="30"/>
-      <c r="M334" s="31"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
+      <c r="M334" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -89537,7 +90522,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F5951D-DD0C-4819-8740-D6E6B0EBB174}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E564F3-53A8-4DF5-A202-D29CA2585037}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/nc-est2019-asr6h.xlsx
+++ b/nc-est2019-asr6h.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsonke6\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsonke6\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="163">
   <si>
     <t>Annual Estimates of the Resident Population by Sex, Age, Race, and Hispanic Origin for the United States: April 1, 2010 to July 1, 2019</t>
   </si>
@@ -1591,6 +1591,33 @@
   <si>
     <t>Male</t>
   </si>
+  <si>
+    <t>0 - 9 Years</t>
+  </si>
+  <si>
+    <t>9 - 19 Years</t>
+  </si>
+  <si>
+    <t>20 - 29 years</t>
+  </si>
+  <si>
+    <t>30 - 39 Years</t>
+  </si>
+  <si>
+    <t>40 - 49 Years</t>
+  </si>
+  <si>
+    <t>50 - 59 Years</t>
+  </si>
+  <si>
+    <t>60 - 69 Years</t>
+  </si>
+  <si>
+    <t>70 - 79 Years</t>
+  </si>
+  <si>
+    <t>80 + Years</t>
+  </si>
 </sst>
 </file>
 
@@ -1951,6 +1978,10 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1970,10 +2001,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1993,22 +2036,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2318,7 +2345,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A11" sqref="A11:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2388,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -2393,7 +2420,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>153</v>
@@ -2425,7 +2452,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
         <v>153</v>
@@ -2457,7 +2484,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
         <v>153</v>
@@ -2489,7 +2516,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>153</v>
@@ -2521,7 +2548,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>153</v>
@@ -2553,7 +2580,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>153</v>
@@ -2585,7 +2612,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
         <v>153</v>
@@ -2617,7 +2644,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
         <v>153</v>
@@ -2649,7 +2676,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>152</v>
@@ -2681,7 +2708,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>152</v>
@@ -2713,7 +2740,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>152</v>
@@ -2745,7 +2772,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>152</v>
@@ -2777,7 +2804,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>152</v>
@@ -2809,7 +2836,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
         <v>152</v>
@@ -2841,7 +2868,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>152</v>
@@ -2873,7 +2900,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
         <v>152</v>
@@ -2905,7 +2932,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>152</v>
@@ -2961,10 +2988,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -3000,7 +3027,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="19"/>
@@ -3027,7 +3054,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="18">
         <v>2019</v>
       </c>
@@ -3232,31 +3259,31 @@
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="20">
-        <f>L6/$K6</f>
+        <f t="shared" ref="V7:V15" si="4">L6/$K6</f>
         <v>0.49552503234766426</v>
       </c>
       <c r="W7" s="20">
-        <f>M6/$K6</f>
+        <f t="shared" ref="W7:W15" si="5">M6/$K6</f>
         <v>0.13729406728424795</v>
       </c>
       <c r="X7" s="20">
-        <f>N6/$K6</f>
+        <f t="shared" ref="X7:X15" si="6">N6/$K6</f>
         <v>4.9763709056023474E-2</v>
       </c>
       <c r="Y7" s="20">
-        <f>O6/$K6</f>
+        <f t="shared" ref="Y7:Y15" si="7">O6/$K6</f>
         <v>8.410116135795875E-3</v>
       </c>
       <c r="Z7" s="20">
-        <f>P6/$K6</f>
+        <f t="shared" ref="Z7:Z15" si="8">P6/$K6</f>
         <v>2.0150315627013166E-3</v>
       </c>
       <c r="AA7" s="20">
-        <f>Q6/$K6</f>
+        <f t="shared" ref="AA7:AA15" si="9">Q6/$K6</f>
         <v>4.7063305778167058E-2</v>
       </c>
       <c r="AB7" s="20">
-        <f>R6/$K6</f>
+        <f t="shared" ref="AB7:AB15" si="10">R6/$K6</f>
         <v>0.25992873783540005</v>
       </c>
     </row>
@@ -3293,27 +3320,27 @@
         <v>45141956</v>
       </c>
       <c r="L8" s="24">
-        <f t="shared" ref="L8:Q8" si="4">C118+C119</f>
+        <f t="shared" ref="L8:Q8" si="11">C118+C119</f>
         <v>24240475</v>
       </c>
       <c r="M8" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>6553327</v>
       </c>
       <c r="N8" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2831460</v>
       </c>
       <c r="O8" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>382462</v>
       </c>
       <c r="P8" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>93859</v>
       </c>
       <c r="Q8" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1256753</v>
       </c>
       <c r="R8" s="24">
@@ -3325,31 +3352,31 @@
       </c>
       <c r="U8" s="20"/>
       <c r="V8" s="20">
-        <f>L7/$K7</f>
+        <f t="shared" si="4"/>
         <v>0.51368635981148991</v>
       </c>
       <c r="W8" s="20">
-        <f>M7/$K7</f>
+        <f t="shared" si="5"/>
         <v>0.13744893476518844</v>
       </c>
       <c r="X8" s="20">
-        <f>N7/$K7</f>
+        <f t="shared" si="6"/>
         <v>5.1678144263478623E-2</v>
       </c>
       <c r="Y8" s="20">
-        <f>O7/$K7</f>
+        <f t="shared" si="7"/>
         <v>8.462078485573666E-3</v>
       </c>
       <c r="Z8" s="20">
-        <f>P7/$K7</f>
+        <f t="shared" si="8"/>
         <v>1.9985502536291567E-3</v>
       </c>
       <c r="AA8" s="20">
-        <f>Q7/$K7</f>
+        <f t="shared" si="9"/>
         <v>3.9100932653599263E-2</v>
       </c>
       <c r="AB8" s="20">
-        <f>R7/$K7</f>
+        <f t="shared" si="10"/>
         <v>0.24762499976704089</v>
       </c>
     </row>
@@ -3386,27 +3413,27 @@
         <v>44168826</v>
       </c>
       <c r="L9" s="24">
-        <f t="shared" ref="L9:Q9" si="5">C120+C121</f>
+        <f t="shared" ref="L9:Q9" si="12">C120+C121</f>
         <v>24746328</v>
       </c>
       <c r="M9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>5810545</v>
       </c>
       <c r="N9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>3261798</v>
       </c>
       <c r="O9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>334201</v>
       </c>
       <c r="P9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>101354</v>
       </c>
       <c r="Q9" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>818488</v>
       </c>
       <c r="R9" s="24">
@@ -3418,31 +3445,31 @@
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20">
-        <f>L8/$K8</f>
+        <f t="shared" si="4"/>
         <v>0.53698326674191965</v>
       </c>
       <c r="W9" s="20">
-        <f>M8/$K8</f>
+        <f t="shared" si="5"/>
         <v>0.14517153399378618</v>
       </c>
       <c r="X9" s="20">
-        <f>N8/$K8</f>
+        <f t="shared" si="6"/>
         <v>6.2723467277315148E-2</v>
       </c>
       <c r="Y9" s="20">
-        <f>O8/$K8</f>
+        <f t="shared" si="7"/>
         <v>8.4724286205055E-3</v>
       </c>
       <c r="Z9" s="20">
-        <f>P8/$K8</f>
+        <f t="shared" si="8"/>
         <v>2.079196568265673E-3</v>
       </c>
       <c r="AA9" s="20">
-        <f>Q8/$K8</f>
+        <f t="shared" si="9"/>
         <v>2.7840020933076096E-2</v>
       </c>
       <c r="AB9" s="20">
-        <f>R8/$K8</f>
+        <f t="shared" si="10"/>
         <v>0.21673008586513176</v>
       </c>
     </row>
@@ -3479,27 +3506,27 @@
         <v>40319374</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" ref="L10:Q10" si="6">C122+C123</f>
+        <f t="shared" ref="L10:Q10" si="13">C122+C123</f>
         <v>23453962</v>
       </c>
       <c r="M10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5100103</v>
       </c>
       <c r="N10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>2856394</v>
       </c>
       <c r="O10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>284857</v>
       </c>
       <c r="P10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>78089</v>
       </c>
       <c r="Q10" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>583682</v>
       </c>
       <c r="R10" s="24">
@@ -3511,31 +3538,31 @@
       </c>
       <c r="U10" s="20"/>
       <c r="V10" s="20">
-        <f>L9/$K9</f>
+        <f t="shared" si="4"/>
         <v>0.56026682710561515</v>
       </c>
       <c r="W10" s="20">
-        <f>M9/$K9</f>
+        <f t="shared" si="5"/>
         <v>0.13155307772952807</v>
       </c>
       <c r="X10" s="20">
-        <f>N9/$K9</f>
+        <f t="shared" si="6"/>
         <v>7.3848419697639237E-2</v>
       </c>
       <c r="Y10" s="20">
-        <f>O9/$K9</f>
+        <f t="shared" si="7"/>
         <v>7.5664451665525363E-3</v>
       </c>
       <c r="Z10" s="20">
-        <f>P9/$K9</f>
+        <f t="shared" si="8"/>
         <v>2.2946953582148638E-3</v>
       </c>
       <c r="AA10" s="20">
-        <f>Q9/$K9</f>
+        <f t="shared" si="9"/>
         <v>1.8530897787502887E-2</v>
       </c>
       <c r="AB10" s="20">
-        <f>R9/$K9</f>
+        <f t="shared" si="10"/>
         <v>0.20593963715494726</v>
       </c>
     </row>
@@ -3572,27 +3599,27 @@
         <v>42354542</v>
       </c>
       <c r="L11" s="24">
-        <f t="shared" ref="L11:Q11" si="7">C124+C125</f>
+        <f t="shared" ref="L11:Q11" si="14">C124+C125</f>
         <v>27880403</v>
       </c>
       <c r="M11" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>5150329</v>
       </c>
       <c r="N11" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>2318243</v>
       </c>
       <c r="O11" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>302207</v>
       </c>
       <c r="P11" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>69399</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>472908</v>
       </c>
       <c r="R11" s="24">
@@ -3604,31 +3631,31 @@
       </c>
       <c r="U11" s="20"/>
       <c r="V11" s="20">
-        <f>L10/$K10</f>
+        <f t="shared" si="4"/>
         <v>0.58170451753541608</v>
       </c>
       <c r="W11" s="20">
-        <f>M10/$K10</f>
+        <f t="shared" si="5"/>
         <v>0.12649261369980597</v>
       </c>
       <c r="X11" s="20">
-        <f>N10/$K10</f>
+        <f t="shared" si="6"/>
         <v>7.0844205071239452E-2</v>
       </c>
       <c r="Y11" s="20">
-        <f>O10/$K10</f>
+        <f t="shared" si="7"/>
         <v>7.0650154439401763E-3</v>
       </c>
       <c r="Z11" s="20">
-        <f>P10/$K10</f>
+        <f t="shared" si="8"/>
         <v>1.9367612205487118E-3</v>
       </c>
       <c r="AA11" s="20">
-        <f>Q10/$K10</f>
+        <f t="shared" si="9"/>
         <v>1.4476464837970947E-2</v>
       </c>
       <c r="AB11" s="20">
-        <f>R10/$K10</f>
+        <f t="shared" si="10"/>
         <v>0.19748042219107867</v>
       </c>
     </row>
@@ -3665,27 +3692,27 @@
         <v>38026147</v>
       </c>
       <c r="L12" s="24">
-        <f t="shared" ref="L12:Q12" si="8">C126+C127</f>
+        <f t="shared" ref="L12:Q12" si="15">C126+C127</f>
         <v>27487918</v>
       </c>
       <c r="M12" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>4155745</v>
       </c>
       <c r="N12" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1851565</v>
       </c>
       <c r="O12" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>251722</v>
       </c>
       <c r="P12" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>51331</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>359178</v>
       </c>
       <c r="R12" s="24">
@@ -3697,31 +3724,31 @@
       </c>
       <c r="U12" s="20"/>
       <c r="V12" s="20">
-        <f>L11/$K11</f>
+        <f t="shared" si="4"/>
         <v>0.65826241256486728</v>
       </c>
       <c r="W12" s="20">
-        <f>M11/$K11</f>
+        <f t="shared" si="5"/>
         <v>0.12160039412065889</v>
       </c>
       <c r="X12" s="20">
-        <f>N11/$K11</f>
+        <f t="shared" si="6"/>
         <v>5.4734224253918266E-2</v>
       </c>
       <c r="Y12" s="20">
-        <f>O11/$K11</f>
+        <f t="shared" si="7"/>
         <v>7.1351733658222534E-3</v>
       </c>
       <c r="Z12" s="20">
-        <f>P11/$K11</f>
+        <f t="shared" si="8"/>
         <v>1.6385255682849788E-3</v>
       </c>
       <c r="AA12" s="20">
-        <f>Q11/$K11</f>
+        <f t="shared" si="9"/>
         <v>1.1165461309910989E-2</v>
       </c>
       <c r="AB12" s="20">
-        <f>R11/$K11</f>
+        <f t="shared" si="10"/>
         <v>0.14546380881653731</v>
       </c>
     </row>
@@ -3758,27 +3785,27 @@
         <v>23681097</v>
       </c>
       <c r="L13" s="24">
-        <f t="shared" ref="L13:Q13" si="9">C128+C129</f>
+        <f t="shared" ref="L13:Q13" si="16">C128+C129</f>
         <v>18186369</v>
       </c>
       <c r="M13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>2117579</v>
       </c>
       <c r="N13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1070189</v>
       </c>
       <c r="O13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>132632</v>
       </c>
       <c r="P13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>26381</v>
       </c>
       <c r="Q13" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>185848</v>
       </c>
       <c r="R13" s="24">
@@ -3790,31 +3817,31 @@
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="20">
-        <f>L12/$K12</f>
+        <f t="shared" si="4"/>
         <v>0.72286887230515362</v>
       </c>
       <c r="W13" s="20">
-        <f>M12/$K12</f>
+        <f t="shared" si="5"/>
         <v>0.10928651277764219</v>
       </c>
       <c r="X13" s="20">
-        <f>N12/$K12</f>
+        <f t="shared" si="6"/>
         <v>4.8691890871825641E-2</v>
       </c>
       <c r="Y13" s="20">
-        <f>O12/$K12</f>
+        <f t="shared" si="7"/>
         <v>6.6197082759923065E-3</v>
       </c>
       <c r="Z13" s="20">
-        <f>P12/$K12</f>
+        <f t="shared" si="8"/>
         <v>1.3498869606747169E-3</v>
       </c>
       <c r="AA13" s="20">
-        <f>Q12/$K12</f>
+        <f t="shared" si="9"/>
         <v>9.4455533451758868E-3</v>
       </c>
       <c r="AB13" s="20">
-        <f>R12/$K12</f>
+        <f t="shared" si="10"/>
         <v>0.10173757546353565</v>
       </c>
     </row>
@@ -3851,27 +3878,27 @@
         <v>12922165</v>
       </c>
       <c r="L14" s="24">
-        <f t="shared" ref="L14:Q14" si="10">C130+C131</f>
+        <f t="shared" ref="L14:Q14" si="17">C130+C131</f>
         <v>10106827</v>
       </c>
       <c r="M14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1046693</v>
       </c>
       <c r="N14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>574122</v>
       </c>
       <c r="O14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>58173</v>
       </c>
       <c r="P14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>11707</v>
       </c>
       <c r="Q14" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>88110</v>
       </c>
       <c r="R14" s="24">
@@ -3883,31 +3910,31 @@
       </c>
       <c r="U14" s="20"/>
       <c r="V14" s="20">
-        <f>L13/$K13</f>
+        <f t="shared" si="4"/>
         <v>0.76796987065252931</v>
       </c>
       <c r="W14" s="20">
-        <f>M13/$K13</f>
+        <f t="shared" si="5"/>
         <v>8.9420646349280181E-2</v>
       </c>
       <c r="X14" s="20">
-        <f>N13/$K13</f>
+        <f t="shared" si="6"/>
         <v>4.5191698678486054E-2</v>
       </c>
       <c r="Y14" s="20">
-        <f>O13/$K13</f>
+        <f t="shared" si="7"/>
         <v>5.6007540529055726E-3</v>
       </c>
       <c r="Z14" s="20">
-        <f>P13/$K13</f>
+        <f t="shared" si="8"/>
         <v>1.1140108923163483E-3</v>
       </c>
       <c r="AA14" s="20">
-        <f>Q13/$K13</f>
+        <f t="shared" si="9"/>
         <v>7.8479472467006071E-3</v>
       </c>
       <c r="AB14" s="20">
-        <f>R13/$K13</f>
+        <f t="shared" si="10"/>
         <v>8.2855072127781912E-2</v>
       </c>
     </row>
@@ -3941,31 +3968,31 @@
       </c>
       <c r="U15" s="20"/>
       <c r="V15" s="20">
-        <f>L14/$K14</f>
+        <f t="shared" si="4"/>
         <v>0.7821310902623515</v>
       </c>
       <c r="W15" s="20">
-        <f>M14/$K14</f>
+        <f t="shared" si="5"/>
         <v>8.0999816981132802E-2</v>
       </c>
       <c r="X15" s="20">
-        <f>N14/$K14</f>
+        <f t="shared" si="6"/>
         <v>4.4429242313497777E-2</v>
       </c>
       <c r="Y15" s="20">
-        <f>O14/$K14</f>
+        <f t="shared" si="7"/>
         <v>4.5017998145047674E-3</v>
       </c>
       <c r="Z15" s="20">
-        <f>P14/$K14</f>
+        <f t="shared" si="8"/>
         <v>9.0596273921591316E-4</v>
       </c>
       <c r="AA15" s="20">
-        <f>Q14/$K14</f>
+        <f t="shared" si="9"/>
         <v>6.8185168661752888E-3</v>
       </c>
       <c r="AB15" s="20">
-        <f>R14/$K14</f>
+        <f t="shared" si="10"/>
         <v>8.0213571023121905E-2</v>
       </c>
     </row>
@@ -4053,19 +4080,19 @@
         <v>122</v>
       </c>
       <c r="V18" s="20">
-        <f>L6/(SUM($L6,$M6,$N6,$R6))</f>
+        <f t="shared" ref="V18:V26" si="18">L6/(SUM($L6,$M6,$N6,$R6))</f>
         <v>0.52574956155764774</v>
       </c>
       <c r="W18" s="20">
-        <f>M6/(SUM($L6,$M6,$N6,$R6))</f>
+        <f t="shared" ref="W18:W26" si="19">M6/(SUM($L6,$M6,$N6,$R6))</f>
         <v>0.14566831333864055</v>
       </c>
       <c r="X18" s="20">
-        <f>N6/(SUM($L6,$M6,$N6,$R6))</f>
+        <f t="shared" ref="X18:X26" si="20">N6/(SUM($L6,$M6,$N6,$R6))</f>
         <v>5.2799044467506023E-2</v>
       </c>
       <c r="AB18" s="20">
-        <f>R6/(SUM($L6,$M6,$N6,$R6))</f>
+        <f t="shared" ref="AB18:AB26" si="21">R6/(SUM($L6,$M6,$N6,$R6))</f>
         <v>0.27578308063620571</v>
       </c>
     </row>
@@ -4098,19 +4125,19 @@
         <v>123</v>
       </c>
       <c r="V19" s="20">
-        <f>L7/(SUM($L7,$M7,$N7,$R7))</f>
+        <f t="shared" si="18"/>
         <v>0.54047304795906814</v>
       </c>
       <c r="W19" s="20">
-        <f>M7/(SUM($L7,$M7,$N7,$R7))</f>
+        <f t="shared" si="19"/>
         <v>0.14461634671111406</v>
       </c>
       <c r="X19" s="20">
-        <f>N7/(SUM($L7,$M7,$N7,$R7))</f>
+        <f t="shared" si="20"/>
         <v>5.4372952696662168E-2</v>
       </c>
       <c r="AB19" s="20">
-        <f>R7/(SUM($L7,$M7,$N7,$R7))</f>
+        <f t="shared" si="21"/>
         <v>0.26053765263315559</v>
       </c>
     </row>
@@ -4143,19 +4170,19 @@
         <v>124</v>
       </c>
       <c r="V20" s="20">
-        <f>L8/(SUM($L8,$M8,$N8,$R8))</f>
+        <f t="shared" si="18"/>
         <v>0.55842200681418153</v>
       </c>
       <c r="W20" s="20">
-        <f>M8/(SUM($L8,$M8,$N8,$R8))</f>
+        <f t="shared" si="19"/>
         <v>0.15096742182855574</v>
       </c>
       <c r="X20" s="20">
-        <f>N8/(SUM($L8,$M8,$N8,$R8))</f>
+        <f t="shared" si="20"/>
         <v>6.5227664697745505E-2</v>
       </c>
       <c r="AB20" s="20">
-        <f>R8/(SUM($L8,$M8,$N8,$R8))</f>
+        <f t="shared" si="21"/>
         <v>0.2253829066595173</v>
       </c>
     </row>
@@ -4188,19 +4215,19 @@
         <v>125</v>
       </c>
       <c r="V21" s="20">
-        <f>L9/(SUM($L9,$M9,$N9,$R9))</f>
+        <f t="shared" si="18"/>
         <v>0.5766387773649001</v>
       </c>
       <c r="W21" s="20">
-        <f>M9/(SUM($L9,$M9,$N9,$R9))</f>
+        <f t="shared" si="19"/>
         <v>0.13539728256344671</v>
       </c>
       <c r="X21" s="20">
-        <f>N9/(SUM($L9,$M9,$N9,$R9))</f>
+        <f t="shared" si="20"/>
         <v>7.6006396210834853E-2</v>
       </c>
       <c r="AB21" s="20">
-        <f>R9/(SUM($L9,$M9,$N9,$R9))</f>
+        <f t="shared" si="21"/>
         <v>0.2119575438608183</v>
       </c>
     </row>
@@ -4233,19 +4260,19 @@
         <v>126</v>
       </c>
       <c r="V22" s="20">
-        <f>L10/(SUM($L10,$M10,$N10,$R10))</f>
+        <f t="shared" si="18"/>
         <v>0.59569027773678773</v>
       </c>
       <c r="W22" s="20">
-        <f>M10/(SUM($L10,$M10,$N10,$R10))</f>
+        <f t="shared" si="19"/>
         <v>0.12953384048956099</v>
       </c>
       <c r="X22" s="20">
-        <f>N10/(SUM($L10,$M10,$N10,$R10))</f>
+        <f t="shared" si="20"/>
         <v>7.2547492623450754E-2</v>
       </c>
       <c r="AB22" s="20">
-        <f>R10/(SUM($L10,$M10,$N10,$R10))</f>
+        <f t="shared" si="21"/>
         <v>0.2022283891502005</v>
       </c>
     </row>
@@ -4278,19 +4305,19 @@
         <v>127</v>
       </c>
       <c r="V23" s="20">
-        <f>L11/(SUM($L11,$M11,$N11,$R11))</f>
+        <f t="shared" si="18"/>
         <v>0.67165464210238546</v>
       </c>
       <c r="W23" s="20">
-        <f>M11/(SUM($L11,$M11,$N11,$R11))</f>
+        <f t="shared" si="19"/>
         <v>0.12407433211078538</v>
       </c>
       <c r="X23" s="20">
-        <f>N11/(SUM($L11,$M11,$N11,$R11))</f>
+        <f t="shared" si="20"/>
         <v>5.5847782131103356E-2</v>
       </c>
       <c r="AB23" s="20">
-        <f>R11/(SUM($L11,$M11,$N11,$R11))</f>
+        <f t="shared" si="21"/>
         <v>0.14842324365572579</v>
       </c>
     </row>
@@ -4307,19 +4334,19 @@
         <v>128</v>
       </c>
       <c r="V24" s="20">
-        <f>L12/(SUM($L12,$M12,$N12,$R12))</f>
+        <f t="shared" si="18"/>
         <v>0.73568086385806031</v>
       </c>
       <c r="W24" s="20">
-        <f>M12/(SUM($L12,$M12,$N12,$R12))</f>
+        <f t="shared" si="19"/>
         <v>0.11122348631765472</v>
       </c>
       <c r="X24" s="20">
-        <f>N12/(SUM($L12,$M12,$N12,$R12))</f>
+        <f t="shared" si="20"/>
         <v>4.9554896761891877E-2</v>
       </c>
       <c r="AB24" s="20">
-        <f>R12/(SUM($L12,$M12,$N12,$R12))</f>
+        <f t="shared" si="21"/>
         <v>0.10354075306239315</v>
       </c>
     </row>
@@ -4352,19 +4379,19 @@
         <v>129</v>
       </c>
       <c r="V25" s="20">
-        <f>L13/(SUM($L13,$M13,$N13,$R13))</f>
+        <f t="shared" si="18"/>
         <v>0.77931886701865716</v>
       </c>
       <c r="W25" s="20">
-        <f>M13/(SUM($L13,$M13,$N13,$R13))</f>
+        <f t="shared" si="19"/>
         <v>9.0742097397369478E-2</v>
       </c>
       <c r="X25" s="20">
-        <f>N13/(SUM($L13,$M13,$N13,$R13))</f>
+        <f t="shared" si="20"/>
         <v>4.5859537930624285E-2</v>
       </c>
       <c r="AB25" s="20">
-        <f>R13/(SUM($L13,$M13,$N13,$R13))</f>
+        <f t="shared" si="21"/>
         <v>8.4079497653349072E-2</v>
       </c>
     </row>
@@ -4397,19 +4424,19 @@
         <v>130</v>
       </c>
       <c r="V26" s="20">
-        <f>L14/(SUM($L14,$M14,$N14,$R14))</f>
+        <f t="shared" si="18"/>
         <v>0.7918120050845433</v>
       </c>
       <c r="W26" s="20">
-        <f>M14/(SUM($L14,$M14,$N14,$R14))</f>
+        <f t="shared" si="19"/>
         <v>8.200240125194147E-2</v>
       </c>
       <c r="X26" s="20">
-        <f>N14/(SUM($L14,$M14,$N14,$R14))</f>
+        <f t="shared" si="20"/>
         <v>4.4979170216641495E-2</v>
       </c>
       <c r="AB26" s="20">
-        <f>R14/(SUM($L14,$M14,$N14,$R14))</f>
+        <f t="shared" si="21"/>
         <v>8.1206423446873774E-2</v>
       </c>
     </row>
@@ -5037,27 +5064,27 @@
         <v>20331969</v>
       </c>
       <c r="L42" s="24">
-        <f t="shared" ref="L42" si="11">C150+C151</f>
+        <f t="shared" ref="L42" si="22">C150+C151</f>
         <v>10111533</v>
       </c>
       <c r="M42" s="24">
-        <f t="shared" ref="M42" si="12">D150+D151</f>
+        <f t="shared" ref="M42" si="23">D150+D151</f>
         <v>2767293</v>
       </c>
       <c r="N42" s="24">
-        <f t="shared" ref="N42" si="13">E150+E151</f>
+        <f t="shared" ref="N42" si="24">E150+E151</f>
         <v>1016528</v>
       </c>
       <c r="O42" s="24">
-        <f t="shared" ref="O42" si="14">F150+F151</f>
+        <f t="shared" ref="O42" si="25">F150+F151</f>
         <v>170680</v>
       </c>
       <c r="P42" s="24">
-        <f t="shared" ref="P42" si="15">G150+G151</f>
+        <f t="shared" ref="P42" si="26">G150+G151</f>
         <v>40935</v>
       </c>
       <c r="Q42" s="24">
-        <f t="shared" ref="Q42" si="16">H150+H151</f>
+        <f t="shared" ref="Q42" si="27">H150+H151</f>
         <v>955733</v>
       </c>
       <c r="R42" s="24">
@@ -5097,31 +5124,31 @@
         <v>123</v>
       </c>
       <c r="K43" s="24">
-        <f t="shared" ref="K43:K50" si="17">SUM(L43:R43)</f>
+        <f t="shared" ref="K43:K50" si="28">SUM(L43:R43)</f>
         <v>21363868</v>
       </c>
       <c r="L43" s="24">
-        <f t="shared" ref="L43" si="18">C152+C153</f>
+        <f t="shared" ref="L43" si="29">C152+C153</f>
         <v>11024966</v>
       </c>
       <c r="M43" s="24">
-        <f t="shared" ref="M43" si="19">D152+D153</f>
+        <f t="shared" ref="M43" si="30">D152+D153</f>
         <v>2913005</v>
       </c>
       <c r="N43" s="24">
-        <f t="shared" ref="N43" si="20">E152+E153</f>
+        <f t="shared" ref="N43" si="31">E152+E153</f>
         <v>1089176</v>
       </c>
       <c r="O43" s="24">
-        <f t="shared" ref="O43" si="21">F152+F153</f>
+        <f t="shared" ref="O43" si="32">F152+F153</f>
         <v>179761</v>
       </c>
       <c r="P43" s="24">
-        <f t="shared" ref="P43" si="22">G152+G153</f>
+        <f t="shared" ref="P43" si="33">G152+G153</f>
         <v>42616</v>
       </c>
       <c r="Q43" s="24">
-        <f t="shared" ref="Q43" si="23">H152+H153</f>
+        <f t="shared" ref="Q43" si="34">H152+H153</f>
         <v>829934</v>
       </c>
       <c r="R43" s="24">
@@ -5185,31 +5212,31 @@
         <v>124</v>
       </c>
       <c r="K44" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>23069322</v>
       </c>
       <c r="L44" s="24">
-        <f t="shared" ref="L44" si="24">C154+C155</f>
+        <f t="shared" ref="L44" si="35">C154+C155</f>
         <v>12418470</v>
       </c>
       <c r="M44" s="24">
-        <f t="shared" ref="M44" si="25">D154+D155</f>
+        <f t="shared" ref="M44" si="36">D154+D155</f>
         <v>3310805</v>
       </c>
       <c r="N44" s="24">
-        <f t="shared" ref="N44" si="26">E154+E155</f>
+        <f t="shared" ref="N44" si="37">E154+E155</f>
         <v>1416195</v>
       </c>
       <c r="O44" s="24">
-        <f t="shared" ref="O44" si="27">F154+F155</f>
+        <f t="shared" ref="O44" si="38">F154+F155</f>
         <v>194625</v>
       </c>
       <c r="P44" s="24">
-        <f t="shared" ref="P44" si="28">G154+G155</f>
+        <f t="shared" ref="P44" si="39">G154+G155</f>
         <v>48197</v>
       </c>
       <c r="Q44" s="24">
-        <f t="shared" ref="Q44" si="29">H154+H155</f>
+        <f t="shared" ref="Q44" si="40">H154+H155</f>
         <v>630853</v>
       </c>
       <c r="R44" s="24">
@@ -5273,31 +5300,31 @@
         <v>125</v>
       </c>
       <c r="K45" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>22239551</v>
       </c>
       <c r="L45" s="24">
-        <f t="shared" ref="L45" si="30">C156+C157</f>
+        <f t="shared" ref="L45" si="41">C156+C157</f>
         <v>12498632</v>
       </c>
       <c r="M45" s="24">
-        <f t="shared" ref="M45" si="31">D156+D157</f>
+        <f t="shared" ref="M45" si="42">D156+D157</f>
         <v>2816469</v>
       </c>
       <c r="N45" s="24">
-        <f t="shared" ref="N45" si="32">E156+E157</f>
+        <f t="shared" ref="N45" si="43">E156+E157</f>
         <v>1560045</v>
       </c>
       <c r="O45" s="24">
-        <f t="shared" ref="O45" si="33">F156+F157</f>
+        <f t="shared" ref="O45" si="44">F156+F157</f>
         <v>167308</v>
       </c>
       <c r="P45" s="24">
-        <f t="shared" ref="P45" si="34">G156+G157</f>
+        <f t="shared" ref="P45" si="45">G156+G157</f>
         <v>52038</v>
       </c>
       <c r="Q45" s="24">
-        <f t="shared" ref="Q45" si="35">H156+H157</f>
+        <f t="shared" ref="Q45" si="46">H156+H157</f>
         <v>389297</v>
       </c>
       <c r="R45" s="24">
@@ -5334,31 +5361,31 @@
         <v>126</v>
       </c>
       <c r="K46" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>19992494</v>
       </c>
       <c r="L46" s="24">
-        <f t="shared" ref="L46" si="36">C158+C159</f>
+        <f t="shared" ref="L46" si="47">C158+C159</f>
         <v>11771175</v>
       </c>
       <c r="M46" s="24">
-        <f t="shared" ref="M46" si="37">D158+D159</f>
+        <f t="shared" ref="M46" si="48">D158+D159</f>
         <v>2396453</v>
       </c>
       <c r="N46" s="24">
-        <f t="shared" ref="N46" si="38">E158+E159</f>
+        <f t="shared" ref="N46" si="49">E158+E159</f>
         <v>1330944</v>
       </c>
       <c r="O46" s="24">
-        <f t="shared" ref="O46" si="39">F158+F159</f>
+        <f t="shared" ref="O46" si="50">F158+F159</f>
         <v>140078</v>
       </c>
       <c r="P46" s="24">
-        <f t="shared" ref="P46" si="40">G158+G159</f>
+        <f t="shared" ref="P46" si="51">G158+G159</f>
         <v>39608</v>
       </c>
       <c r="Q46" s="24">
-        <f t="shared" ref="Q46" si="41">H158+H159</f>
+        <f t="shared" ref="Q46" si="52">H158+H159</f>
         <v>274284</v>
       </c>
       <c r="R46" s="24">
@@ -5369,35 +5396,35 @@
         <v>149</v>
       </c>
       <c r="U46" s="20">
-        <f>(U38-$X$29)/$X$29</f>
+        <f t="shared" ref="U46:V49" si="53">(U38-$X$29)/$X$29</f>
         <v>-0.17320426381760048</v>
       </c>
       <c r="V46" s="20">
-        <f>(V38-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-0.25498128296964978</v>
       </c>
       <c r="W46" s="20">
-        <f>(W38-$W$29)/$W$29</f>
+        <f t="shared" ref="W46:X49" si="54">(W38-$W$29)/$W$29</f>
         <v>0.48135535913925498</v>
       </c>
       <c r="X46" s="20">
-        <f>(X38-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>1.4858609262828573</v>
       </c>
       <c r="Y46" s="20">
-        <f>(Y38-$AB$29)/$AB$29</f>
+        <f t="shared" ref="Y46:Z49" si="55">(Y38-$AB$29)/$AB$29</f>
         <v>0.30969992257076673</v>
       </c>
       <c r="Z46" s="20">
-        <f>(Z38-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>0.78902547378931087</v>
       </c>
       <c r="AA46" s="20">
-        <f>(AA38-$V$29)/$V$29</f>
+        <f t="shared" ref="AA46:AB49" si="56">(AA38-$V$29)/$V$29</f>
         <v>-0.2310696876045425</v>
       </c>
       <c r="AB46" s="20">
-        <f>(AB38-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>-0.67564061630755368</v>
       </c>
     </row>
@@ -5430,31 +5457,31 @@
         <v>127</v>
       </c>
       <c r="K47" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>20729100</v>
       </c>
       <c r="L47" s="24">
-        <f t="shared" ref="L47" si="42">C160+C161</f>
+        <f t="shared" ref="L47" si="57">C160+C161</f>
         <v>13782800</v>
       </c>
       <c r="M47" s="24">
-        <f t="shared" ref="M47" si="43">D160+D161</f>
+        <f t="shared" ref="M47" si="58">D160+D161</f>
         <v>2395784</v>
       </c>
       <c r="N47" s="24">
-        <f t="shared" ref="N47" si="44">E160+E161</f>
+        <f t="shared" ref="N47" si="59">E160+E161</f>
         <v>1071564</v>
       </c>
       <c r="O47" s="24">
-        <f t="shared" ref="O47" si="45">F160+F161</f>
+        <f t="shared" ref="O47" si="60">F160+F161</f>
         <v>145011</v>
       </c>
       <c r="P47" s="24">
-        <f t="shared" ref="P47" si="46">G160+G161</f>
+        <f t="shared" ref="P47" si="61">G160+G161</f>
         <v>34099</v>
       </c>
       <c r="Q47" s="24">
-        <f t="shared" ref="Q47" si="47">H160+H161</f>
+        <f t="shared" ref="Q47" si="62">H160+H161</f>
         <v>222819</v>
       </c>
       <c r="R47" s="24">
@@ -5462,35 +5489,35 @@
         <v>3077023</v>
       </c>
       <c r="U47" s="20">
-        <f>(U39-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-0.39135455237185018</v>
       </c>
       <c r="V47" s="20">
-        <f>(V39-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-0.30185332145831423</v>
       </c>
       <c r="W47" s="20">
-        <f>(W39-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>0.3713302804046496</v>
       </c>
       <c r="X47" s="20">
-        <f>(X39-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>1.083395381763179</v>
       </c>
       <c r="Y47" s="20">
-        <f>(Y39-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>0.93588917579017061</v>
       </c>
       <c r="Z47" s="20">
-        <f>(Z39-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>0.87295441026698584</v>
       </c>
       <c r="AA47" s="20">
-        <f>(AA39-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>-0.44013818770411239</v>
       </c>
       <c r="AB47" s="20">
-        <f>(AB39-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>-0.60379710656631047</v>
       </c>
     </row>
@@ -5523,31 +5550,31 @@
         <v>128</v>
       </c>
       <c r="K48" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>18056503</v>
       </c>
       <c r="L48" s="24">
-        <f t="shared" ref="L48" si="48">C162+C163</f>
+        <f t="shared" ref="L48" si="63">C162+C163</f>
         <v>13243370</v>
       </c>
       <c r="M48" s="24">
-        <f t="shared" ref="M48" si="49">D162+D163</f>
+        <f t="shared" ref="M48" si="64">D162+D163</f>
         <v>1848133</v>
       </c>
       <c r="N48" s="24">
-        <f t="shared" ref="N48" si="50">E162+E163</f>
+        <f t="shared" ref="N48" si="65">E162+E163</f>
         <v>822686</v>
       </c>
       <c r="O48" s="24">
-        <f t="shared" ref="O48" si="51">F162+F163</f>
+        <f t="shared" ref="O48" si="66">F162+F163</f>
         <v>116653</v>
       </c>
       <c r="P48" s="24">
-        <f t="shared" ref="P48" si="52">G162+G163</f>
+        <f t="shared" ref="P48" si="67">G162+G163</f>
         <v>24741</v>
       </c>
       <c r="Q48" s="24">
-        <f t="shared" ref="Q48" si="53">H162+H163</f>
+        <f t="shared" ref="Q48" si="68">H162+H163</f>
         <v>169113</v>
       </c>
       <c r="R48" s="24">
@@ -5555,35 +5582,35 @@
         <v>1831807</v>
       </c>
       <c r="U48" s="20">
-        <f>(U40-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-0.54446939262316973</v>
       </c>
       <c r="V48" s="20">
-        <f>(V40-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-0.5231101055689229</v>
       </c>
       <c r="W48" s="20">
-        <f>(W40-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>0.18188354303451479</v>
       </c>
       <c r="X48" s="20">
-        <f>(X40-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>1.4095805978527352</v>
       </c>
       <c r="Y48" s="20">
-        <f>(Y40-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>0.21481386560206089</v>
       </c>
       <c r="Z48" s="20">
-        <f>(Z40-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>0.34878364857961947</v>
       </c>
       <c r="AA48" s="20">
-        <f>(AA40-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>-7.3040409947110418E-2</v>
       </c>
       <c r="AB48" s="20">
-        <f>(AB40-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>-0.44133375647686074</v>
       </c>
     </row>
@@ -5616,31 +5643,31 @@
         <v>129</v>
       </c>
       <c r="K49" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>10818305</v>
       </c>
       <c r="L49" s="24">
-        <f t="shared" ref="L49" si="54">C164+C165</f>
+        <f t="shared" ref="L49" si="69">C164+C165</f>
         <v>8454306</v>
       </c>
       <c r="M49" s="24">
-        <f t="shared" ref="M49" si="55">D164+D165</f>
+        <f t="shared" ref="M49" si="70">D164+D165</f>
         <v>872504</v>
       </c>
       <c r="N49" s="24">
-        <f t="shared" ref="N49" si="56">E164+E165</f>
+        <f t="shared" ref="N49" si="71">E164+E165</f>
         <v>470595</v>
       </c>
       <c r="O49" s="24">
-        <f t="shared" ref="O49" si="57">F164+F165</f>
+        <f t="shared" ref="O49" si="72">F164+F165</f>
         <v>60913</v>
       </c>
       <c r="P49" s="24">
-        <f t="shared" ref="P49" si="58">G164+G165</f>
+        <f t="shared" ref="P49" si="73">G164+G165</f>
         <v>12633</v>
       </c>
       <c r="Q49" s="24">
-        <f t="shared" ref="Q49" si="59">H164+H165</f>
+        <f t="shared" ref="Q49" si="74">H164+H165</f>
         <v>84566</v>
       </c>
       <c r="R49" s="24">
@@ -5648,35 +5675,35 @@
         <v>862788</v>
       </c>
       <c r="U49" s="20">
-        <f>(U41-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-0.34246263103212976</v>
       </c>
       <c r="V49" s="20">
-        <f>(V41-$X$29)/$X$29</f>
+        <f t="shared" si="53"/>
         <v>-4.8928207025711927E-2</v>
       </c>
       <c r="W49" s="20">
-        <f>(W41-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>-0.22229468150753889</v>
       </c>
       <c r="X49" s="20">
-        <f>(X41-$W$29)/$W$29</f>
+        <f t="shared" si="54"/>
         <v>0.49377862336020001</v>
       </c>
       <c r="Y49" s="20">
-        <f>(Y41-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>-6.3289980585875122E-2</v>
       </c>
       <c r="Z49" s="20">
-        <f>(Z41-$AB$29)/$AB$29</f>
+        <f t="shared" si="55"/>
         <v>8.0121523810772005E-2</v>
       </c>
       <c r="AA49" s="20">
-        <f>(AA41-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>0.12201910931636994</v>
       </c>
       <c r="AB49" s="20">
-        <f>(AB41-$V$29)/$V$29</f>
+        <f t="shared" si="56"/>
         <v>-0.15247821062167308</v>
       </c>
     </row>
@@ -5709,31 +5736,31 @@
         <v>130</v>
       </c>
       <c r="K50" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>5056212</v>
       </c>
       <c r="L50" s="24">
-        <f t="shared" ref="L50" si="60">C166+C167</f>
+        <f t="shared" ref="L50" si="75">C166+C167</f>
         <v>4007821</v>
       </c>
       <c r="M50" s="24">
-        <f t="shared" ref="M50" si="61">D166+D167</f>
+        <f t="shared" ref="M50" si="76">D166+D167</f>
         <v>353966</v>
       </c>
       <c r="N50" s="24">
-        <f t="shared" ref="N50" si="62">E166+E167</f>
+        <f t="shared" ref="N50" si="77">E166+E167</f>
         <v>231076</v>
       </c>
       <c r="O50" s="24">
-        <f t="shared" ref="O50" si="63">F166+F167</f>
+        <f t="shared" ref="O50" si="78">F166+F167</f>
         <v>23342</v>
       </c>
       <c r="P50" s="24">
-        <f t="shared" ref="P50" si="64">G166+G167</f>
+        <f t="shared" ref="P50" si="79">G166+G167</f>
         <v>4908</v>
       </c>
       <c r="Q50" s="24">
-        <f t="shared" ref="Q50" si="65">H166+H167</f>
+        <f t="shared" ref="Q50" si="80">H166+H167</f>
         <v>35248</v>
       </c>
       <c r="R50" s="24">
@@ -6487,35 +6514,35 @@
         <v>149</v>
       </c>
       <c r="U68" s="20">
-        <f>(U60-$X$29)/$X$29</f>
+        <f t="shared" ref="U68:V71" si="81">(U60-$X$29)/$X$29</f>
         <v>-0.26482078836740486</v>
       </c>
       <c r="V68" s="20">
-        <f>(V60-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-9.1286655371387124E-2</v>
       </c>
       <c r="W68" s="20">
-        <f>(W60-$W$29)/$W$29</f>
+        <f t="shared" ref="W68:X71" si="82">(W60-$W$29)/$W$29</f>
         <v>0.68203258190687521</v>
       </c>
       <c r="X68" s="20">
-        <f>(X60-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>0.90007568690538986</v>
       </c>
       <c r="Y68" s="20">
-        <f>(Y60-$AB$29)/$AB$29</f>
+        <f t="shared" ref="Y68:Z71" si="83">(Y60-$AB$29)/$AB$29</f>
         <v>-0.1560003086780658</v>
       </c>
       <c r="Z68" s="20">
-        <f>(Z60-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>-0.2083402934299538</v>
       </c>
       <c r="AA68" s="20">
-        <f>(AA60-$V$29)/$V$29</f>
+        <f t="shared" ref="AA68:AB71" si="84">(AA60-$V$29)/$V$29</f>
         <v>-7.6331253122563086E-2</v>
       </c>
       <c r="AB68" s="20">
-        <f>(AB60-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>-0.12944489338626453</v>
       </c>
     </row>
@@ -6545,35 +6572,35 @@
         <v>224583</v>
       </c>
       <c r="U69" s="20">
-        <f>(U61-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-0.38326219206382484</v>
       </c>
       <c r="V69" s="20">
-        <f>(V61-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-0.2835066842553271</v>
       </c>
       <c r="W69" s="20">
-        <f>(W61-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>0.46191066499382882</v>
       </c>
       <c r="X69" s="20">
-        <f>(X61-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>0.36693234390509849</v>
       </c>
       <c r="Y69" s="20">
-        <f>(Y61-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>3.6463269320414146E-2</v>
       </c>
       <c r="Z69" s="20">
-        <f>(Z61-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>-0.37099545875011625</v>
       </c>
       <c r="AA69" s="20">
-        <f>(AA61-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>-8.7659079590620387E-2</v>
       </c>
       <c r="AB69" s="20">
-        <f>(AB61-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>9.5272764283992908E-2</v>
       </c>
     </row>
@@ -6603,35 +6630,35 @@
         <v>18351</v>
       </c>
       <c r="U70" s="20">
-        <f>(U62-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-0.59959805751807005</v>
       </c>
       <c r="V70" s="20">
-        <f>(V62-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-0.48959546374727625</v>
       </c>
       <c r="W70" s="20">
-        <f>(W62-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>0.15261450980850533</v>
       </c>
       <c r="X70" s="20">
-        <f>(X62-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>0.19252025163365302</v>
       </c>
       <c r="Y70" s="20">
-        <f>(Y62-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>-0.27349098826112966</v>
       </c>
       <c r="Z70" s="20">
-        <f>(Z62-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>-0.43232974748089326</v>
       </c>
       <c r="AA70" s="20">
-        <f>(AA62-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>0.14497413091701303</v>
       </c>
       <c r="AB70" s="20">
-        <f>(AB62-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>0.18868176196626943</v>
       </c>
     </row>
@@ -6645,35 +6672,35 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="U71" s="20">
-        <f>(U63-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-0.49996536289737509</v>
       </c>
       <c r="V71" s="20">
-        <f>(V63-$X$29)/$X$29</f>
+        <f t="shared" si="81"/>
         <v>-0.3655975890966453</v>
       </c>
       <c r="W71" s="20">
-        <f>(W63-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>-0.35431915151515592</v>
       </c>
       <c r="X71" s="20">
-        <f>(X63-$W$29)/$W$29</f>
+        <f t="shared" si="82"/>
         <v>-0.31924096563442433</v>
       </c>
       <c r="Y71" s="20">
-        <f>(Y63-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>-0.52209969606713158</v>
       </c>
       <c r="Z71" s="20">
-        <f>(Z63-$AB$29)/$AB$29</f>
+        <f t="shared" si="83"/>
         <v>-0.65742358433682402</v>
       </c>
       <c r="AA71" s="20">
-        <f>(AA63-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>0.3654161327345975</v>
       </c>
       <c r="AB71" s="20">
-        <f>(AB63-$V$29)/$V$29</f>
+        <f t="shared" si="84"/>
         <v>0.39769789686568485</v>
       </c>
     </row>
@@ -6950,27 +6977,27 @@
         <v>19440609</v>
       </c>
       <c r="L78" s="24">
-        <f t="shared" ref="L78" si="66">C186+C187</f>
+        <f t="shared" ref="L78" si="85">C186+C187</f>
         <v>9596775</v>
       </c>
       <c r="M78" s="24">
-        <f t="shared" ref="M78" si="67">D186+D187</f>
+        <f t="shared" ref="M78" si="86">D186+D187</f>
         <v>2693246</v>
       </c>
       <c r="N78" s="24">
-        <f t="shared" ref="N78" si="68">E186+E187</f>
+        <f t="shared" ref="N78" si="87">E186+E187</f>
         <v>962703</v>
       </c>
       <c r="O78" s="24">
-        <f t="shared" ref="O78" si="69">F186+F187</f>
+        <f t="shared" ref="O78" si="88">F186+F187</f>
         <v>163812</v>
       </c>
       <c r="P78" s="24">
-        <f t="shared" ref="P78" si="70">G186+G187</f>
+        <f t="shared" ref="P78" si="89">G186+G187</f>
         <v>39208</v>
       </c>
       <c r="Q78" s="24">
-        <f t="shared" ref="Q78" si="71">H186+H187</f>
+        <f t="shared" ref="Q78" si="90">H186+H187</f>
         <v>916096</v>
       </c>
       <c r="R78" s="24">
@@ -7007,31 +7034,31 @@
         <v>123</v>
       </c>
       <c r="K79" s="24">
-        <f t="shared" ref="K79:K86" si="72">SUM(L79:R79)</f>
+        <f t="shared" ref="K79:K86" si="91">SUM(L79:R79)</f>
         <v>20488970</v>
       </c>
       <c r="L79" s="24">
-        <f t="shared" ref="L79" si="73">C188+C189</f>
+        <f t="shared" ref="L79" si="92">C188+C189</f>
         <v>10474266</v>
       </c>
       <c r="M79" s="24">
-        <f t="shared" ref="M79" si="74">D188+D189</f>
+        <f t="shared" ref="M79" si="93">D188+D189</f>
         <v>2839623</v>
       </c>
       <c r="N79" s="24">
-        <f t="shared" ref="N79" si="75">E188+E189</f>
+        <f t="shared" ref="N79" si="94">E188+E189</f>
         <v>1073701</v>
       </c>
       <c r="O79" s="24">
-        <f t="shared" ref="O79" si="76">F188+F189</f>
+        <f t="shared" ref="O79" si="95">F188+F189</f>
         <v>174401</v>
       </c>
       <c r="P79" s="24">
-        <f t="shared" ref="P79" si="77">G188+G189</f>
+        <f t="shared" ref="P79" si="96">G188+G189</f>
         <v>41029</v>
       </c>
       <c r="Q79" s="24">
-        <f t="shared" ref="Q79" si="78">H188+H189</f>
+        <f t="shared" ref="Q79" si="97">H188+H189</f>
         <v>806551</v>
       </c>
       <c r="R79" s="24">
@@ -7068,31 +7095,31 @@
         <v>124</v>
       </c>
       <c r="K80" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>22072634</v>
       </c>
       <c r="L80" s="24">
-        <f t="shared" ref="L80" si="79">C190+C191</f>
+        <f t="shared" ref="L80" si="98">C190+C191</f>
         <v>11822005</v>
       </c>
       <c r="M80" s="24">
-        <f t="shared" ref="M80" si="80">D190+D191</f>
+        <f t="shared" ref="M80" si="99">D190+D191</f>
         <v>3242522</v>
       </c>
       <c r="N80" s="24">
-        <f t="shared" ref="N80" si="81">E190+E191</f>
+        <f t="shared" ref="N80" si="100">E190+E191</f>
         <v>1415265</v>
       </c>
       <c r="O80" s="24">
-        <f t="shared" ref="O80" si="82">F190+F191</f>
+        <f t="shared" ref="O80" si="101">F190+F191</f>
         <v>187837</v>
       </c>
       <c r="P80" s="24">
-        <f t="shared" ref="P80" si="83">G190+G191</f>
+        <f t="shared" ref="P80" si="102">G190+G191</f>
         <v>45662</v>
       </c>
       <c r="Q80" s="24">
-        <f t="shared" ref="Q80" si="84">H190+H191</f>
+        <f t="shared" ref="Q80" si="103">H190+H191</f>
         <v>625900</v>
       </c>
       <c r="R80" s="24">
@@ -7129,31 +7156,31 @@
         <v>125</v>
       </c>
       <c r="K81" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>21929275</v>
       </c>
       <c r="L81" s="24">
-        <f t="shared" ref="L81" si="85">C192+C193</f>
+        <f t="shared" ref="L81" si="104">C192+C193</f>
         <v>12247696</v>
       </c>
       <c r="M81" s="24">
-        <f t="shared" ref="M81" si="86">D192+D193</f>
+        <f t="shared" ref="M81" si="105">D192+D193</f>
         <v>2994076</v>
       </c>
       <c r="N81" s="24">
-        <f t="shared" ref="N81" si="87">E192+E193</f>
+        <f t="shared" ref="N81" si="106">E192+E193</f>
         <v>1701753</v>
       </c>
       <c r="O81" s="24">
-        <f t="shared" ref="O81" si="88">F192+F193</f>
+        <f t="shared" ref="O81" si="107">F192+F193</f>
         <v>166893</v>
       </c>
       <c r="P81" s="24">
-        <f t="shared" ref="P81" si="89">G192+G193</f>
+        <f t="shared" ref="P81" si="108">G192+G193</f>
         <v>49316</v>
       </c>
       <c r="Q81" s="24">
-        <f t="shared" ref="Q81" si="90">H192+H193</f>
+        <f t="shared" ref="Q81" si="109">H192+H193</f>
         <v>429191</v>
       </c>
       <c r="R81" s="24">
@@ -7190,31 +7217,31 @@
         <v>126</v>
       </c>
       <c r="K82" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>20326880</v>
       </c>
       <c r="L82" s="24">
-        <f t="shared" ref="L82" si="91">C194+C195</f>
+        <f t="shared" ref="L82" si="110">C194+C195</f>
         <v>11682787</v>
       </c>
       <c r="M82" s="24">
-        <f t="shared" ref="M82" si="92">D194+D195</f>
+        <f t="shared" ref="M82" si="111">D194+D195</f>
         <v>2703650</v>
       </c>
       <c r="N82" s="24">
-        <f t="shared" ref="N82" si="93">E194+E195</f>
+        <f t="shared" ref="N82" si="112">E194+E195</f>
         <v>1525450</v>
       </c>
       <c r="O82" s="24">
-        <f t="shared" ref="O82" si="94">F194+F195</f>
+        <f t="shared" ref="O82" si="113">F194+F195</f>
         <v>144779</v>
       </c>
       <c r="P82" s="24">
-        <f t="shared" ref="P82" si="95">G194+G195</f>
+        <f t="shared" ref="P82" si="114">G194+G195</f>
         <v>38481</v>
       </c>
       <c r="Q82" s="24">
-        <f t="shared" ref="Q82" si="96">H194+H195</f>
+        <f t="shared" ref="Q82" si="115">H194+H195</f>
         <v>309398</v>
       </c>
       <c r="R82" s="24">
@@ -7251,31 +7278,31 @@
         <v>127</v>
       </c>
       <c r="K83" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>21625442</v>
       </c>
       <c r="L83" s="24">
-        <f t="shared" ref="L83" si="97">C196+C197</f>
+        <f t="shared" ref="L83" si="116">C196+C197</f>
         <v>14097603</v>
       </c>
       <c r="M83" s="24">
-        <f t="shared" ref="M83" si="98">D196+D197</f>
+        <f t="shared" ref="M83" si="117">D196+D197</f>
         <v>2754545</v>
       </c>
       <c r="N83" s="24">
-        <f t="shared" ref="N83" si="99">E196+E197</f>
+        <f t="shared" ref="N83" si="118">E196+E197</f>
         <v>1246679</v>
       </c>
       <c r="O83" s="24">
-        <f t="shared" ref="O83" si="100">F196+F197</f>
+        <f t="shared" ref="O83" si="119">F196+F197</f>
         <v>157196</v>
       </c>
       <c r="P83" s="24">
-        <f t="shared" ref="P83" si="101">G196+G197</f>
+        <f t="shared" ref="P83" si="120">G196+G197</f>
         <v>35300</v>
       </c>
       <c r="Q83" s="24">
-        <f t="shared" ref="Q83" si="102">H196+H197</f>
+        <f t="shared" ref="Q83" si="121">H196+H197</f>
         <v>250089</v>
       </c>
       <c r="R83" s="24">
@@ -7312,31 +7339,31 @@
         <v>128</v>
       </c>
       <c r="K84" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>19969644</v>
       </c>
       <c r="L84" s="24">
-        <f t="shared" ref="L84" si="103">C198+C199</f>
+        <f t="shared" ref="L84" si="122">C198+C199</f>
         <v>14244548</v>
       </c>
       <c r="M84" s="24">
-        <f t="shared" ref="M84" si="104">D198+D199</f>
+        <f t="shared" ref="M84" si="123">D198+D199</f>
         <v>2307612</v>
       </c>
       <c r="N84" s="24">
-        <f t="shared" ref="N84" si="105">E198+E199</f>
+        <f t="shared" ref="N84" si="124">E198+E199</f>
         <v>1028879</v>
       </c>
       <c r="O84" s="24">
-        <f t="shared" ref="O84" si="106">F198+F199</f>
+        <f t="shared" ref="O84" si="125">F198+F199</f>
         <v>135069</v>
       </c>
       <c r="P84" s="24">
-        <f t="shared" ref="P84" si="107">G198+G199</f>
+        <f t="shared" ref="P84" si="126">G198+G199</f>
         <v>26590</v>
       </c>
       <c r="Q84" s="24">
-        <f t="shared" ref="Q84" si="108">H198+H199</f>
+        <f t="shared" ref="Q84" si="127">H198+H199</f>
         <v>190065</v>
       </c>
       <c r="R84" s="24">
@@ -7373,31 +7400,31 @@
         <v>129</v>
       </c>
       <c r="K85" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>12862792</v>
       </c>
       <c r="L85" s="24">
-        <f t="shared" ref="L85" si="109">C200+C201</f>
+        <f t="shared" ref="L85" si="128">C200+C201</f>
         <v>9732063</v>
       </c>
       <c r="M85" s="24">
-        <f t="shared" ref="M85" si="110">D200+D201</f>
+        <f t="shared" ref="M85" si="129">D200+D201</f>
         <v>1245075</v>
       </c>
       <c r="N85" s="24">
-        <f t="shared" ref="N85" si="111">E200+E201</f>
+        <f t="shared" ref="N85" si="130">E200+E201</f>
         <v>599594</v>
       </c>
       <c r="O85" s="24">
-        <f t="shared" ref="O85" si="112">F200+F201</f>
+        <f t="shared" ref="O85" si="131">F200+F201</f>
         <v>71719</v>
       </c>
       <c r="P85" s="24">
-        <f t="shared" ref="P85" si="113">G200+G201</f>
+        <f t="shared" ref="P85" si="132">G200+G201</f>
         <v>13748</v>
       </c>
       <c r="Q85" s="24">
-        <f t="shared" ref="Q85" si="114">H200+H201</f>
+        <f t="shared" ref="Q85" si="133">H200+H201</f>
         <v>101282</v>
       </c>
       <c r="R85" s="24">
@@ -7434,31 +7461,31 @@
         <v>130</v>
       </c>
       <c r="K86" s="24">
-        <f t="shared" si="72"/>
+        <f t="shared" si="91"/>
         <v>7865953</v>
       </c>
       <c r="L86" s="24">
-        <f t="shared" ref="L86" si="115">C202+C203</f>
+        <f t="shared" ref="L86" si="134">C202+C203</f>
         <v>6099006</v>
       </c>
       <c r="M86" s="24">
-        <f t="shared" ref="M86" si="116">D202+D203</f>
+        <f t="shared" ref="M86" si="135">D202+D203</f>
         <v>692727</v>
       </c>
       <c r="N86" s="24">
-        <f t="shared" ref="N86" si="117">E202+E203</f>
+        <f t="shared" ref="N86" si="136">E202+E203</f>
         <v>343046</v>
       </c>
       <c r="O86" s="24">
-        <f t="shared" ref="O86" si="118">F202+F203</f>
+        <f t="shared" ref="O86" si="137">F202+F203</f>
         <v>34831</v>
       </c>
       <c r="P86" s="24">
-        <f t="shared" ref="P86" si="119">G202+G203</f>
+        <f t="shared" ref="P86" si="138">G202+G203</f>
         <v>6799</v>
       </c>
       <c r="Q86" s="24">
-        <f t="shared" ref="Q86" si="120">H202+H203</f>
+        <f t="shared" ref="Q86" si="139">H202+H203</f>
         <v>52862</v>
       </c>
       <c r="R86" s="24">
@@ -13567,34 +13594,34 @@
       </c>
     </row>
     <row r="329" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="28" t="s">
+      <c r="A329" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B329" s="29"/>
+      <c r="B329" s="33"/>
     </row>
     <row r="330" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="30" t="s">
+      <c r="A330" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B330" s="31"/>
+      <c r="B330" s="35"/>
     </row>
     <row r="331" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="32" t="s">
+      <c r="A331" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B331" s="33"/>
+      <c r="B331" s="26"/>
     </row>
     <row r="332" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B332" s="33"/>
+      <c r="B332" s="26"/>
     </row>
     <row r="333" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="34" t="s">
+      <c r="A333" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B333" s="35"/>
+      <c r="B333" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13631,79 +13658,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="45">
         <v>40269</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -26324,103 +26351,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="47"/>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="29"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="42"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
+      <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="41"/>
-      <c r="F331" s="41"/>
-      <c r="G331" s="41"/>
-      <c r="H331" s="41"/>
-      <c r="I331" s="41"/>
-      <c r="J331" s="41"/>
-      <c r="K331" s="41"/>
-      <c r="L331" s="41"/>
-      <c r="M331" s="31"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="36"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-      <c r="H332" s="42"/>
-      <c r="I332" s="42"/>
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
-      <c r="M332" s="33"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="37"/>
+      <c r="H332" s="37"/>
+      <c r="I332" s="37"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
+      <c r="L332" s="37"/>
+      <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="42"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
-      <c r="G333" s="42"/>
-      <c r="H333" s="42"/>
-      <c r="I333" s="42"/>
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
-      <c r="M333" s="33"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="37"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="37"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
+      <c r="L333" s="37"/>
+      <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
-      <c r="I334" s="43"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38"/>
+      <c r="G334" s="38"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
+      <c r="K334" s="38"/>
+      <c r="L334" s="38"/>
+      <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A331:M331"/>
     <mergeCell ref="A332:M332"/>
     <mergeCell ref="A333:M333"/>
     <mergeCell ref="A334:M334"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.85" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -26449,79 +26476,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="45">
         <v>40269</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -39142,103 +39169,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="47"/>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="29"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="42"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
+      <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="41"/>
-      <c r="F331" s="41"/>
-      <c r="G331" s="41"/>
-      <c r="H331" s="41"/>
-      <c r="I331" s="41"/>
-      <c r="J331" s="41"/>
-      <c r="K331" s="41"/>
-      <c r="L331" s="41"/>
-      <c r="M331" s="31"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="36"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-      <c r="H332" s="42"/>
-      <c r="I332" s="42"/>
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
-      <c r="M332" s="33"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="37"/>
+      <c r="H332" s="37"/>
+      <c r="I332" s="37"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
+      <c r="L332" s="37"/>
+      <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="42"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
-      <c r="G333" s="42"/>
-      <c r="H333" s="42"/>
-      <c r="I333" s="42"/>
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
-      <c r="M333" s="33"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="37"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="37"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
+      <c r="L333" s="37"/>
+      <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
-      <c r="I334" s="43"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38"/>
+      <c r="G334" s="38"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
+      <c r="K334" s="38"/>
+      <c r="L334" s="38"/>
+      <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39263,79 +39290,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="45">
         <v>40269</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -51956,103 +51983,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="47"/>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="29"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="42"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
+      <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="41"/>
-      <c r="F331" s="41"/>
-      <c r="G331" s="41"/>
-      <c r="H331" s="41"/>
-      <c r="I331" s="41"/>
-      <c r="J331" s="41"/>
-      <c r="K331" s="41"/>
-      <c r="L331" s="41"/>
-      <c r="M331" s="31"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="36"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-      <c r="H332" s="42"/>
-      <c r="I332" s="42"/>
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
-      <c r="M332" s="33"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="37"/>
+      <c r="H332" s="37"/>
+      <c r="I332" s="37"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
+      <c r="L332" s="37"/>
+      <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="42"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
-      <c r="G333" s="42"/>
-      <c r="H333" s="42"/>
-      <c r="I333" s="42"/>
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
-      <c r="M333" s="33"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="37"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="37"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
+      <c r="L333" s="37"/>
+      <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
-      <c r="I334" s="43"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38"/>
+      <c r="G334" s="38"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
+      <c r="K334" s="38"/>
+      <c r="L334" s="38"/>
+      <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52077,79 +52104,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="45">
         <v>40269</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -64770,103 +64797,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="47"/>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="29"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="42"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
+      <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="41"/>
-      <c r="F331" s="41"/>
-      <c r="G331" s="41"/>
-      <c r="H331" s="41"/>
-      <c r="I331" s="41"/>
-      <c r="J331" s="41"/>
-      <c r="K331" s="41"/>
-      <c r="L331" s="41"/>
-      <c r="M331" s="31"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="36"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-      <c r="H332" s="42"/>
-      <c r="I332" s="42"/>
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
-      <c r="M332" s="33"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="37"/>
+      <c r="H332" s="37"/>
+      <c r="I332" s="37"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
+      <c r="L332" s="37"/>
+      <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="42"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
-      <c r="G333" s="42"/>
-      <c r="H333" s="42"/>
-      <c r="I333" s="42"/>
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
-      <c r="M333" s="33"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="37"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="37"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
+      <c r="L333" s="37"/>
+      <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
-      <c r="I334" s="43"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38"/>
+      <c r="G334" s="38"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
+      <c r="K334" s="38"/>
+      <c r="L334" s="38"/>
+      <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64891,79 +64918,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="45">
         <v>40269</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
@@ -77584,103 +77611,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="47"/>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="29"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="42"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
+      <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="41"/>
-      <c r="F331" s="41"/>
-      <c r="G331" s="41"/>
-      <c r="H331" s="41"/>
-      <c r="I331" s="41"/>
-      <c r="J331" s="41"/>
-      <c r="K331" s="41"/>
-      <c r="L331" s="41"/>
-      <c r="M331" s="31"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="36"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-      <c r="H332" s="42"/>
-      <c r="I332" s="42"/>
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
-      <c r="M332" s="33"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="37"/>
+      <c r="H332" s="37"/>
+      <c r="I332" s="37"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
+      <c r="L332" s="37"/>
+      <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="42"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
-      <c r="G333" s="42"/>
-      <c r="H333" s="42"/>
-      <c r="I333" s="42"/>
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
-      <c r="M333" s="33"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="37"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="37"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
+      <c r="L333" s="37"/>
+      <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
-      <c r="I334" s="43"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38"/>
+      <c r="G334" s="38"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
+      <c r="K334" s="38"/>
+      <c r="L334" s="38"/>
+      <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -77705,79 +77732,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="45">
         <v>40269</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
@@ -90398,103 +90425,103 @@
       </c>
     </row>
     <row r="330" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="28" t="s">
+      <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="47"/>
-      <c r="C330" s="47"/>
-      <c r="D330" s="47"/>
-      <c r="E330" s="47"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="47"/>
-      <c r="H330" s="47"/>
-      <c r="I330" s="47"/>
-      <c r="J330" s="47"/>
-      <c r="K330" s="47"/>
-      <c r="L330" s="47"/>
-      <c r="M330" s="29"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="42"/>
+      <c r="E330" s="42"/>
+      <c r="F330" s="42"/>
+      <c r="G330" s="42"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="42"/>
+      <c r="K330" s="42"/>
+      <c r="L330" s="42"/>
+      <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="41"/>
-      <c r="C331" s="41"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="41"/>
-      <c r="F331" s="41"/>
-      <c r="G331" s="41"/>
-      <c r="H331" s="41"/>
-      <c r="I331" s="41"/>
-      <c r="J331" s="41"/>
-      <c r="K331" s="41"/>
-      <c r="L331" s="41"/>
-      <c r="M331" s="31"/>
+      <c r="B331" s="36"/>
+      <c r="C331" s="36"/>
+      <c r="D331" s="36"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="36"/>
+      <c r="G331" s="36"/>
+      <c r="H331" s="36"/>
+      <c r="I331" s="36"/>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="36"/>
+      <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="42"/>
-      <c r="C332" s="42"/>
-      <c r="D332" s="42"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="42"/>
-      <c r="G332" s="42"/>
-      <c r="H332" s="42"/>
-      <c r="I332" s="42"/>
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
-      <c r="L332" s="42"/>
-      <c r="M332" s="33"/>
+      <c r="B332" s="37"/>
+      <c r="C332" s="37"/>
+      <c r="D332" s="37"/>
+      <c r="E332" s="37"/>
+      <c r="F332" s="37"/>
+      <c r="G332" s="37"/>
+      <c r="H332" s="37"/>
+      <c r="I332" s="37"/>
+      <c r="J332" s="37"/>
+      <c r="K332" s="37"/>
+      <c r="L332" s="37"/>
+      <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="42"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="42"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="42"/>
-      <c r="G333" s="42"/>
-      <c r="H333" s="42"/>
-      <c r="I333" s="42"/>
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
-      <c r="L333" s="42"/>
-      <c r="M333" s="33"/>
+      <c r="B333" s="37"/>
+      <c r="C333" s="37"/>
+      <c r="D333" s="37"/>
+      <c r="E333" s="37"/>
+      <c r="F333" s="37"/>
+      <c r="G333" s="37"/>
+      <c r="H333" s="37"/>
+      <c r="I333" s="37"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="37"/>
+      <c r="L333" s="37"/>
+      <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="34" t="s">
+      <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
-      <c r="I334" s="43"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="35"/>
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="38"/>
+      <c r="E334" s="38"/>
+      <c r="F334" s="38"/>
+      <c r="G334" s="38"/>
+      <c r="H334" s="38"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
+      <c r="K334" s="38"/>
+      <c r="L334" s="38"/>
+      <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -90522,7 +90549,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11E564F3-53A8-4DF5-A202-D29CA2585037}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A0222DC-BD5E-4B2C-B981-8CFFB90289D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/nc-est2019-asr6h.xlsx
+++ b/nc-est2019-asr6h.xlsx
@@ -1616,7 +1616,7 @@
     <t>70 - 79 Years</t>
   </si>
   <si>
-    <t>80 + Years</t>
+    <t>80+ Years</t>
   </si>
 </sst>
 </file>
@@ -2001,22 +2001,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2036,6 +2020,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2345,7 +2345,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13675,59 +13675,59 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -26354,100 +26354,100 @@
       <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="42"/>
-      <c r="I330" s="42"/>
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
       <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
-      <c r="H331" s="36"/>
-      <c r="I331" s="36"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
-      <c r="L331" s="36"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
       <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="37"/>
-      <c r="C332" s="37"/>
-      <c r="D332" s="37"/>
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="37"/>
-      <c r="H332" s="37"/>
-      <c r="I332" s="37"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="37"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
       <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="37"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
-      <c r="G333" s="37"/>
-      <c r="H333" s="37"/>
-      <c r="I333" s="37"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="37"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
       <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="38"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38"/>
-      <c r="G334" s="38"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
       <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A331:M331"/>
     <mergeCell ref="A332:M332"/>
     <mergeCell ref="A333:M333"/>
     <mergeCell ref="A334:M334"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.85" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -26493,59 +26493,59 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -39172,100 +39172,100 @@
       <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="42"/>
-      <c r="I330" s="42"/>
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
       <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
-      <c r="H331" s="36"/>
-      <c r="I331" s="36"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
-      <c r="L331" s="36"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
       <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="37"/>
-      <c r="C332" s="37"/>
-      <c r="D332" s="37"/>
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="37"/>
-      <c r="H332" s="37"/>
-      <c r="I332" s="37"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="37"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
       <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="37"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
-      <c r="G333" s="37"/>
-      <c r="H333" s="37"/>
-      <c r="I333" s="37"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="37"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
       <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="38"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38"/>
-      <c r="G334" s="38"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
       <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39307,59 +39307,59 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -51986,100 +51986,100 @@
       <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="42"/>
-      <c r="I330" s="42"/>
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
       <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
-      <c r="H331" s="36"/>
-      <c r="I331" s="36"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
-      <c r="L331" s="36"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
       <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="37"/>
-      <c r="C332" s="37"/>
-      <c r="D332" s="37"/>
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="37"/>
-      <c r="H332" s="37"/>
-      <c r="I332" s="37"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="37"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
       <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="37"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
-      <c r="G333" s="37"/>
-      <c r="H333" s="37"/>
-      <c r="I333" s="37"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="37"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
       <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="38"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38"/>
-      <c r="G334" s="38"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
       <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52121,59 +52121,59 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -64800,100 +64800,100 @@
       <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="42"/>
-      <c r="I330" s="42"/>
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
       <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
-      <c r="H331" s="36"/>
-      <c r="I331" s="36"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
-      <c r="L331" s="36"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
       <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="37"/>
-      <c r="C332" s="37"/>
-      <c r="D332" s="37"/>
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="37"/>
-      <c r="H332" s="37"/>
-      <c r="I332" s="37"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="37"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
       <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="37"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
-      <c r="G333" s="37"/>
-      <c r="H333" s="37"/>
-      <c r="I333" s="37"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="37"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
       <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="38"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38"/>
-      <c r="G334" s="38"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
       <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64935,59 +64935,59 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -77614,100 +77614,100 @@
       <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="42"/>
-      <c r="I330" s="42"/>
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
       <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
-      <c r="H331" s="36"/>
-      <c r="I331" s="36"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
-      <c r="L331" s="36"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
       <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="37"/>
-      <c r="C332" s="37"/>
-      <c r="D332" s="37"/>
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="37"/>
-      <c r="H332" s="37"/>
-      <c r="I332" s="37"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="37"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
       <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="37"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
-      <c r="G333" s="37"/>
-      <c r="H333" s="37"/>
-      <c r="I333" s="37"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="37"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
       <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="38"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38"/>
-      <c r="G334" s="38"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
       <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -77749,59 +77749,59 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="38">
         <v>40269</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
@@ -90428,100 +90428,100 @@
       <c r="A330" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B330" s="42"/>
-      <c r="C330" s="42"/>
-      <c r="D330" s="42"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="42"/>
-      <c r="G330" s="42"/>
-      <c r="H330" s="42"/>
-      <c r="I330" s="42"/>
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
-      <c r="L330" s="42"/>
+      <c r="B330" s="47"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="47"/>
+      <c r="E330" s="47"/>
+      <c r="F330" s="47"/>
+      <c r="G330" s="47"/>
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
+      <c r="L330" s="47"/>
       <c r="M330" s="33"/>
     </row>
     <row r="331" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B331" s="36"/>
-      <c r="C331" s="36"/>
-      <c r="D331" s="36"/>
-      <c r="E331" s="36"/>
-      <c r="F331" s="36"/>
-      <c r="G331" s="36"/>
-      <c r="H331" s="36"/>
-      <c r="I331" s="36"/>
-      <c r="J331" s="36"/>
-      <c r="K331" s="36"/>
-      <c r="L331" s="36"/>
+      <c r="B331" s="41"/>
+      <c r="C331" s="41"/>
+      <c r="D331" s="41"/>
+      <c r="E331" s="41"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="41"/>
+      <c r="I331" s="41"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
       <c r="M331" s="35"/>
     </row>
     <row r="332" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B332" s="37"/>
-      <c r="C332" s="37"/>
-      <c r="D332" s="37"/>
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="37"/>
-      <c r="H332" s="37"/>
-      <c r="I332" s="37"/>
-      <c r="J332" s="37"/>
-      <c r="K332" s="37"/>
-      <c r="L332" s="37"/>
+      <c r="B332" s="42"/>
+      <c r="C332" s="42"/>
+      <c r="D332" s="42"/>
+      <c r="E332" s="42"/>
+      <c r="F332" s="42"/>
+      <c r="G332" s="42"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="42"/>
+      <c r="K332" s="42"/>
+      <c r="L332" s="42"/>
       <c r="M332" s="26"/>
     </row>
     <row r="333" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B333" s="37"/>
-      <c r="C333" s="37"/>
-      <c r="D333" s="37"/>
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
-      <c r="G333" s="37"/>
-      <c r="H333" s="37"/>
-      <c r="I333" s="37"/>
-      <c r="J333" s="37"/>
-      <c r="K333" s="37"/>
-      <c r="L333" s="37"/>
+      <c r="B333" s="42"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="42"/>
+      <c r="G333" s="42"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="42"/>
+      <c r="K333" s="42"/>
+      <c r="L333" s="42"/>
       <c r="M333" s="26"/>
     </row>
     <row r="334" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B334" s="38"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="38"/>
-      <c r="G334" s="38"/>
-      <c r="H334" s="38"/>
-      <c r="I334" s="38"/>
-      <c r="J334" s="38"/>
-      <c r="K334" s="38"/>
-      <c r="L334" s="38"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
+      <c r="I334" s="43"/>
+      <c r="J334" s="43"/>
+      <c r="K334" s="43"/>
+      <c r="L334" s="43"/>
       <c r="M334" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A330:M330"/>
+    <mergeCell ref="A331:M331"/>
+    <mergeCell ref="A332:M332"/>
+    <mergeCell ref="A333:M333"/>
+    <mergeCell ref="A334:M334"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A330:M330"/>
-    <mergeCell ref="A331:M331"/>
-    <mergeCell ref="A332:M332"/>
-    <mergeCell ref="A333:M333"/>
-    <mergeCell ref="A334:M334"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -90549,7 +90549,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A0222DC-BD5E-4B2C-B981-8CFFB90289D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC5EAD6-4F25-40BF-9C3F-12DAB7BB6314}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
